--- a/miniproject/template/Lectures/Lecture 3.xlsx
+++ b/miniproject/template/Lectures/Lecture 3.xlsx
@@ -227,7 +227,7 @@
     <t>Ouch!</t>
   </si>
   <si>
-    <t>It hurts！</t>
+    <t>It hurts!</t>
   </si>
   <si>
     <t>好痛啊！</t>
@@ -2603,10 +2603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2671,7 +2671,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2684,6 +2722,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2692,9 +2745,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2709,38 +2791,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2756,50 +2807,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2811,13 +2818,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2854,13 +2854,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2872,7 +2884,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2896,7 +2938,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,7 +2974,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,121 +3034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3108,6 +3108,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3138,41 +3180,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3190,18 +3197,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3210,148 +3210,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3761,8 +3761,8 @@
   <sheetPr/>
   <dimension ref="A1:AD181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63392857142857" defaultRowHeight="11.6"/>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="P11" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>What is the concept of "It hurts！" ?</v>
+        <v>What is the concept of "It hurts!" ?</v>
       </c>
       <c r="Q11" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7122,11 +7122,11 @@
       </c>
       <c r="J36" s="12">
         <f ca="1">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="10">
         <f t="shared" si="1"/>
@@ -7140,43 +7140,43 @@
       </c>
       <c r="O36" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302035</v>
+        <v/>
       </c>
       <c r="P36" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "He strongly refused to answer the question." ?</v>
+        <v/>
       </c>
       <c r="Q36" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R36" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S36" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T36" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302035</v>
       </c>
       <c r="U36" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "He flatly refused to answer the question" ?</v>
       </c>
       <c r="V36" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W36" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X36" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y36" s="10" t="str">
         <f t="shared" si="10"/>
@@ -7316,11 +7316,11 @@
       </c>
       <c r="J38" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="10">
         <f t="shared" si="1"/>
@@ -7334,43 +7334,43 @@
       </c>
       <c r="O38" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20302037</v>
       </c>
       <c r="P38" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "nice and submissive male" ?</v>
       </c>
       <c r="Q38" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R38" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S38" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T38" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30302037</v>
+        <v/>
       </c>
       <c r="U38" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "beta male " ?</v>
+        <v/>
       </c>
       <c r="V38" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W38" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X38" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y38" s="10" t="str">
         <f t="shared" si="10"/>
@@ -7698,11 +7698,11 @@
       </c>
       <c r="J42" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="10">
         <f t="shared" si="1"/>
@@ -7716,43 +7716,43 @@
       </c>
       <c r="O42" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20302041</v>
       </c>
       <c r="P42" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Really talented" ?</v>
       </c>
       <c r="Q42" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R42" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S42" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T42" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30302041</v>
+        <v/>
       </c>
       <c r="U42" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Insanely talented" ?</v>
+        <v/>
       </c>
       <c r="V42" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W42" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X42" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y42" s="10" t="str">
         <f t="shared" si="10"/>
@@ -7767,7 +7767,7 @@
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
     </row>
-    <row r="43" ht="24" spans="1:30">
+    <row r="43" ht="35" spans="1:30">
       <c r="A43" s="3">
         <v>3</v>
       </c>
@@ -8268,11 +8268,11 @@
       </c>
       <c r="J48" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="10">
         <f t="shared" si="1"/>
@@ -8286,43 +8286,43 @@
       </c>
       <c r="O48" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302047</v>
+        <v/>
       </c>
       <c r="P48" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "He is very romantic" ?</v>
+        <v/>
       </c>
       <c r="Q48" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R48" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S48" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T48" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302047</v>
       </c>
       <c r="U48" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "He is hopelessly romantic" ?</v>
       </c>
       <c r="V48" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W48" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X48" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y48" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8337,7 +8337,7 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
     </row>
-    <row r="49" ht="35" spans="1:30">
+    <row r="49" ht="24" spans="1:30">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -8458,11 +8458,11 @@
       </c>
       <c r="J50" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="10">
         <f t="shared" si="1"/>
@@ -8476,43 +8476,43 @@
       </c>
       <c r="O50" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20302049</v>
       </c>
       <c r="P50" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "She was the most socially charming one." ?</v>
       </c>
       <c r="Q50" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R50" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S50" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T50" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30302049</v>
+        <v/>
       </c>
       <c r="U50" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "She was the butterfly to end all butterflies." ?</v>
+        <v/>
       </c>
       <c r="V50" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W50" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X50" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y50" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8527,7 +8527,7 @@
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
     </row>
-    <row r="51" ht="24" spans="1:30">
+    <row r="51" ht="35" spans="1:30">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
     </row>
-    <row r="52" ht="24" spans="1:30">
+    <row r="52" ht="35" spans="1:30">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -8648,11 +8648,11 @@
       </c>
       <c r="J52" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="10">
         <f t="shared" si="1"/>
@@ -8666,43 +8666,43 @@
       </c>
       <c r="O52" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20302051</v>
       </c>
       <c r="P52" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "He doesn't have racist ideas in his mind" ?</v>
       </c>
       <c r="Q52" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R52" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S52" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T52" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30302051</v>
+        <v/>
       </c>
       <c r="U52" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "He doesn’t have a racist bone in his body" ?</v>
+        <v/>
       </c>
       <c r="V52" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W52" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X52" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y52" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8743,11 +8743,11 @@
       </c>
       <c r="J53" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="10">
         <f t="shared" si="1"/>
@@ -8761,43 +8761,43 @@
       </c>
       <c r="O53" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302052</v>
+        <v/>
       </c>
       <c r="P53" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "I will strain every nerve to fight" ?</v>
+        <v/>
       </c>
       <c r="Q53" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R53" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S53" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T53" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302052</v>
       </c>
       <c r="U53" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "I will fight with every bone in my body" ?</v>
       </c>
       <c r="V53" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W53" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X53" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y53" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8838,11 +8838,11 @@
       </c>
       <c r="J54" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="10">
         <f t="shared" si="1"/>
@@ -8856,43 +8856,43 @@
       </c>
       <c r="O54" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302053</v>
+        <v/>
       </c>
       <c r="P54" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "He is no good at anything. A total loser. " ?</v>
+        <v/>
       </c>
       <c r="Q54" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R54" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S54" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T54" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302053</v>
       </c>
       <c r="U54" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "He is a loser. If he opens a funeral parlor, no one will die" ?</v>
       </c>
       <c r="V54" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W54" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X54" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y54" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9125,11 +9125,11 @@
       </c>
       <c r="J57" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="10">
         <f t="shared" si="1"/>
@@ -9143,43 +9143,43 @@
       </c>
       <c r="O57" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20303056</v>
       </c>
       <c r="P57" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "She is not young any more." ?</v>
       </c>
       <c r="Q57" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R57" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S57" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T57" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30303056</v>
+        <v/>
       </c>
       <c r="U57" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "She is no spring chicken" ?</v>
+        <v/>
       </c>
       <c r="V57" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W57" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X57" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y57" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9194,7 +9194,7 @@
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
     </row>
-    <row r="58" ht="24" spans="1:30">
+    <row r="58" ht="35" spans="1:30">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
     </row>
-    <row r="59" ht="24" spans="1:30">
+    <row r="59" ht="35" spans="1:30">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="AC59" s="12"/>
       <c r="AD59" s="12"/>
     </row>
-    <row r="60" ht="35" spans="1:30">
+    <row r="60" ht="24" spans="1:30">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -9416,11 +9416,11 @@
       </c>
       <c r="J60" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="10">
         <f t="shared" si="1"/>
@@ -9434,43 +9434,43 @@
       </c>
       <c r="O60" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20303059</v>
+        <v/>
       </c>
       <c r="P60" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "They don't call her lazy for no reason" ?</v>
+        <v/>
       </c>
       <c r="Q60" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R60" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S60" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T60" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30303059</v>
       </c>
       <c r="U60" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "They don’t call her lazy for nothing" ?</v>
       </c>
       <c r="V60" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W60" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X60" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y60" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9511,11 +9511,11 @@
       </c>
       <c r="J61" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="10">
         <f t="shared" si="1"/>
@@ -9529,43 +9529,43 @@
       </c>
       <c r="O61" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20303060</v>
+        <v/>
       </c>
       <c r="P61" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Mr. X is not a famous name. But he ought to be." ?</v>
+        <v/>
       </c>
       <c r="Q61" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R61" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S61" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T61" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30303060</v>
       </c>
       <c r="U61" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Mr. X is not a household name. But he ought to be." ?</v>
       </c>
       <c r="V61" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W61" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X61" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y61" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9608,11 +9608,11 @@
       </c>
       <c r="J62" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="10">
         <f t="shared" si="1"/>
@@ -9626,43 +9626,43 @@
       </c>
       <c r="O62" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20303061</v>
+        <v/>
       </c>
       <c r="P62" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The boss will not forgive her mistakes" ?</v>
+        <v/>
       </c>
       <c r="Q62" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R62" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S62" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T62" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30303061</v>
       </c>
       <c r="U62" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The boss doesn’t look kindly on her mistakes" ?</v>
       </c>
       <c r="V62" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W62" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X62" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y62" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9774,7 +9774,7 @@
       <c r="AC63" s="12"/>
       <c r="AD63" s="12"/>
     </row>
-    <row r="64" ht="35" spans="1:30">
+    <row r="64" ht="24" spans="1:30">
       <c r="A64" s="3">
         <v>3</v>
       </c>
@@ -9802,11 +9802,11 @@
       </c>
       <c r="J64" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="10">
         <f t="shared" si="1"/>
@@ -9820,43 +9820,43 @@
       </c>
       <c r="O64" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20303063</v>
       </c>
       <c r="P64" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "Although he looks innocent, he is capable of doing bad things" ?</v>
       </c>
       <c r="Q64" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R64" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S64" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T64" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30303063</v>
+        <v/>
       </c>
       <c r="U64" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Butter wouldn’t melt in his mouth" ?</v>
+        <v/>
       </c>
       <c r="V64" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W64" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X64" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y64" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9871,7 +9871,7 @@
       <c r="AC64" s="12"/>
       <c r="AD64" s="12"/>
     </row>
-    <row r="65" ht="47" spans="1:30">
+    <row r="65" ht="24" spans="1:30">
       <c r="A65" s="3">
         <v>3</v>
       </c>
@@ -9968,7 +9968,7 @@
       <c r="AC65" s="12"/>
       <c r="AD65" s="12"/>
     </row>
-    <row r="66" ht="24" spans="1:30">
+    <row r="66" ht="35" spans="1:30">
       <c r="A66" s="3">
         <v>3</v>
       </c>
@@ -10384,11 +10384,11 @@
       </c>
       <c r="J70" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="10">
         <f t="shared" si="16"/>
@@ -10402,43 +10402,43 @@
       </c>
       <c r="O70" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303069</v>
       </c>
       <c r="P70" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "She did not want to compromise" ?</v>
       </c>
       <c r="Q70" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R70" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S70" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T70" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303069</v>
+        <v/>
       </c>
       <c r="U70" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "She was in no mood to compromise" ?</v>
+        <v/>
       </c>
       <c r="V70" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W70" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X70" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y70" s="10" t="str">
         <f t="shared" si="25"/>
@@ -10481,11 +10481,11 @@
       </c>
       <c r="J71" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" s="10">
         <f t="shared" si="16"/>
@@ -10499,43 +10499,43 @@
       </c>
       <c r="O71" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303070</v>
       </c>
       <c r="P71" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He is not afraid" ?</v>
       </c>
       <c r="Q71" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R71" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S71" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T71" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303070</v>
+        <v/>
       </c>
       <c r="U71" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He is unafraid." ?</v>
+        <v/>
       </c>
       <c r="V71" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W71" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X71" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y71" s="10" t="str">
         <f t="shared" si="25"/>
@@ -10772,11 +10772,11 @@
       </c>
       <c r="J74" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="10">
         <f t="shared" si="16"/>
@@ -10790,43 +10790,43 @@
       </c>
       <c r="O74" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303073</v>
       </c>
       <c r="P74" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "The question is not answered" ?</v>
       </c>
       <c r="Q74" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R74" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S74" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T74" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303073</v>
+        <v/>
       </c>
       <c r="U74" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "The questions remain unanswered" ?</v>
+        <v/>
       </c>
       <c r="V74" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W74" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X74" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y74" s="10" t="str">
         <f t="shared" si="25"/>
@@ -10938,7 +10938,7 @@
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
     </row>
-    <row r="76" ht="35" spans="1:30">
+    <row r="76" ht="24" spans="1:30">
       <c r="A76" s="3">
         <v>3</v>
       </c>
@@ -10966,11 +10966,11 @@
       </c>
       <c r="J76" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="10">
         <f t="shared" si="16"/>
@@ -10984,43 +10984,43 @@
       </c>
       <c r="O76" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303075</v>
       </c>
       <c r="P76" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He is unfriendly and not easy to talk to" ?</v>
       </c>
       <c r="Q76" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R76" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S76" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T76" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303075</v>
+        <v/>
       </c>
       <c r="U76" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He is unapproachable" ?</v>
+        <v/>
       </c>
       <c r="V76" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W76" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X76" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y76" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11035,7 +11035,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
     </row>
-    <row r="77" ht="24" spans="1:30">
+    <row r="77" ht="35" spans="1:30">
       <c r="A77" s="3">
         <v>3</v>
       </c>
@@ -11063,11 +11063,11 @@
       </c>
       <c r="J77" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="10">
         <f t="shared" si="16"/>
@@ -11081,43 +11081,43 @@
       </c>
       <c r="O77" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303076</v>
       </c>
       <c r="P77" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He is humble" ?</v>
       </c>
       <c r="Q77" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R77" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S77" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T77" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303076</v>
+        <v/>
       </c>
       <c r="U77" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "Leung Chiu Wai is very unassuming" ?</v>
+        <v/>
       </c>
       <c r="V77" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W77" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X77" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y77" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11160,11 +11160,11 @@
       </c>
       <c r="J78" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="10">
         <f t="shared" si="16"/>
@@ -11178,43 +11178,43 @@
       </c>
       <c r="O78" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303077</v>
+        <v/>
       </c>
       <c r="P78" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "She is single" ?</v>
+        <v/>
       </c>
       <c r="Q78" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R78" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S78" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T78" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303077</v>
       </c>
       <c r="U78" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "She is unattached" ?</v>
       </c>
       <c r="V78" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W78" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X78" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y78" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11257,11 +11257,11 @@
       </c>
       <c r="J79" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="10">
         <f t="shared" si="16"/>
@@ -11275,43 +11275,43 @@
       </c>
       <c r="O79" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303078</v>
       </c>
       <c r="P79" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "She does not have a partner or husband" ?</v>
       </c>
       <c r="Q79" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R79" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S79" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T79" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303078</v>
+        <v/>
       </c>
       <c r="U79" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "She is not spoken for" ?</v>
+        <v/>
       </c>
       <c r="V79" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W79" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X79" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y79" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11354,11 +11354,11 @@
       </c>
       <c r="J80" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="10">
         <f t="shared" si="16"/>
@@ -11372,43 +11372,43 @@
       </c>
       <c r="O80" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303079</v>
+        <v/>
       </c>
       <c r="P80" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He can now walk on his own." ?</v>
+        <v/>
       </c>
       <c r="Q80" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R80" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S80" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T80" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303079</v>
       </c>
       <c r="U80" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "He can now walk unassisted" ?</v>
       </c>
       <c r="V80" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W80" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X80" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y80" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11645,11 +11645,11 @@
       </c>
       <c r="J83" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" s="10">
         <f t="shared" si="16"/>
@@ -11663,43 +11663,43 @@
       </c>
       <c r="O83" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303082</v>
       </c>
       <c r="P83" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "The pain was hard to bear" ?</v>
       </c>
       <c r="Q83" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R83" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S83" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T83" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303082</v>
+        <v/>
       </c>
       <c r="U83" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "The pain was unbearable" ?</v>
+        <v/>
       </c>
       <c r="V83" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W83" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X83" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y83" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="J84" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="10">
         <f t="shared" si="16"/>
@@ -11760,43 +11760,43 @@
       </c>
       <c r="O84" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303083</v>
       </c>
       <c r="P84" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He has not been defeated and is impossible to defeat" ?</v>
       </c>
       <c r="Q84" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R84" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S84" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T84" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303083</v>
+        <v/>
       </c>
       <c r="U84" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He is unbeaten and unbeatable" ?</v>
+        <v/>
       </c>
       <c r="V84" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W84" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X84" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y84" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11811,7 +11811,7 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
     </row>
-    <row r="85" ht="35" spans="1:30">
+    <row r="85" ht="24" spans="1:30">
       <c r="A85" s="3">
         <v>3</v>
       </c>
@@ -11839,11 +11839,11 @@
       </c>
       <c r="J85" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="10">
         <f t="shared" si="16"/>
@@ -11857,43 +11857,43 @@
       </c>
       <c r="O85" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303084</v>
+        <v/>
       </c>
       <c r="P85" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "The food was very cheap" ?</v>
+        <v/>
       </c>
       <c r="Q85" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R85" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S85" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T85" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303084</v>
       </c>
       <c r="U85" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "The food was unbelievably cheap" ?</v>
       </c>
       <c r="V85" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W85" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X85" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y85" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12033,11 +12033,11 @@
       </c>
       <c r="J87" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="10">
         <f t="shared" si="16"/>
@@ -12051,43 +12051,43 @@
       </c>
       <c r="O87" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303086</v>
+        <v/>
       </c>
       <c r="P87" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "Her skin is perfectly smooth" ?</v>
+        <v/>
       </c>
       <c r="Q87" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R87" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S87" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T87" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303086</v>
       </c>
       <c r="U87" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "Her skin is unblemished" ?</v>
       </c>
       <c r="V87" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W87" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X87" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y87" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12102,7 +12102,7 @@
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
     </row>
-    <row r="88" ht="35" spans="1:30">
+    <row r="88" ht="24" spans="1:30">
       <c r="A88" s="3">
         <v>3</v>
       </c>
@@ -12324,11 +12324,11 @@
       </c>
       <c r="J90" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="10">
         <f t="shared" si="16"/>
@@ -12342,43 +12342,43 @@
       </c>
       <c r="O90" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303089</v>
+        <v/>
       </c>
       <c r="P90" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He talked to me about what he was thinking of" ?</v>
+        <v/>
       </c>
       <c r="Q90" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R90" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S90" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T90" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303089</v>
       </c>
       <c r="U90" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "He unburdened himself to me." ?</v>
       </c>
       <c r="V90" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W90" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X90" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y90" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12421,11 +12421,11 @@
       </c>
       <c r="J91" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" s="10">
         <f t="shared" si="16"/>
@@ -12439,43 +12439,43 @@
       </c>
       <c r="O91" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303090</v>
       </c>
       <c r="P91" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He is quiet, which is not typical of him." ?</v>
       </c>
       <c r="Q91" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R91" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S91" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T91" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303090</v>
+        <v/>
       </c>
       <c r="U91" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He is uncharacteristically quiet" ?</v>
+        <v/>
       </c>
       <c r="V91" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W91" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X91" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y91" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12518,11 +12518,11 @@
       </c>
       <c r="J92" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" s="10">
         <f t="shared" si="16"/>
@@ -12536,43 +12536,43 @@
       </c>
       <c r="O92" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303091</v>
       </c>
       <c r="P92" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "This statement is open to dispute" ?</v>
       </c>
       <c r="Q92" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R92" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S92" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T92" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303091</v>
+        <v/>
       </c>
       <c r="U92" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "The statement must not go unchallenged" ?</v>
+        <v/>
       </c>
       <c r="V92" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W92" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X92" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y92" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="J93" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="10">
         <f t="shared" si="16"/>
@@ -12633,43 +12633,43 @@
       </c>
       <c r="O93" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303092</v>
       </c>
       <c r="P93" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He was fired with no mercy" ?</v>
       </c>
       <c r="Q93" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R93" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S93" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T93" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303092</v>
+        <v/>
       </c>
       <c r="U93" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He was fired unceremoniously" ?</v>
+        <v/>
       </c>
       <c r="V93" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W93" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X93" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y93" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12684,7 +12684,7 @@
       <c r="AC93" s="12"/>
       <c r="AD93" s="12"/>
     </row>
-    <row r="94" ht="35" spans="1:30">
+    <row r="94" ht="47" spans="1:30">
       <c r="A94" s="3">
         <v>3</v>
       </c>
@@ -13003,11 +13003,11 @@
       </c>
       <c r="J97" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="10">
         <f t="shared" si="16"/>
@@ -13021,43 +13021,43 @@
       </c>
       <c r="O97" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303096</v>
       </c>
       <c r="P97" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "a person of ordinary ability" ?</v>
       </c>
       <c r="Q97" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R97" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S97" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T97" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303096</v>
+        <v/>
       </c>
       <c r="U97" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "lesser mortals" ?</v>
+        <v/>
       </c>
       <c r="V97" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W97" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X97" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y97" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13169,7 +13169,7 @@
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
     </row>
-    <row r="99" ht="24" spans="1:30">
+    <row r="99" ht="35" spans="1:30">
       <c r="A99" s="3">
         <v>3</v>
       </c>
@@ -13197,11 +13197,11 @@
       </c>
       <c r="J99" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" s="10">
         <f t="shared" si="16"/>
@@ -13215,43 +13215,43 @@
       </c>
       <c r="O99" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303098</v>
       </c>
       <c r="P99" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "I felt really lonely with my relatives" ?</v>
       </c>
       <c r="Q99" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R99" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S99" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T99" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303098</v>
+        <v/>
       </c>
       <c r="U99" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "I couldn’t be less alone among my relatives" ?</v>
+        <v/>
       </c>
       <c r="V99" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W99" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X99" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y99" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13363,7 +13363,7 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
     </row>
-    <row r="101" ht="24" spans="1:30">
+    <row r="101" ht="47" spans="1:30">
       <c r="A101" s="3">
         <v>3</v>
       </c>
@@ -13460,7 +13460,7 @@
       <c r="AC101" s="12"/>
       <c r="AD101" s="12"/>
     </row>
-    <row r="102" ht="24" spans="1:30">
+    <row r="102" ht="35" spans="1:30">
       <c r="A102" s="3">
         <v>3</v>
       </c>
@@ -13585,11 +13585,11 @@
       </c>
       <c r="J103" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="10">
         <f t="shared" si="16"/>
@@ -13603,43 +13603,43 @@
       </c>
       <c r="O103" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303102</v>
+        <v/>
       </c>
       <c r="P103" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "There are hidden values or facts regarding it." ?</v>
+        <v/>
       </c>
       <c r="Q103" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R103" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S103" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T103" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303102</v>
       </c>
       <c r="U103" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "It is more than meets the eye" ?</v>
       </c>
       <c r="V103" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W103" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X103" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y103" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13751,7 +13751,7 @@
       <c r="AC104" s="12"/>
       <c r="AD104" s="12"/>
     </row>
-    <row r="105" ht="35" spans="1:30">
+    <row r="105" ht="24" spans="1:30">
       <c r="A105" s="3">
         <v>3</v>
       </c>
@@ -13779,11 +13779,11 @@
       </c>
       <c r="J105" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="10">
         <f t="shared" si="16"/>
@@ -13797,43 +13797,43 @@
       </c>
       <c r="O105" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303104</v>
+        <v/>
       </c>
       <c r="P105" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He left with more sorrow than anger." ?</v>
+        <v/>
       </c>
       <c r="Q105" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R105" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S105" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T105" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303104</v>
       </c>
       <c r="U105" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "He left, more in sorrow than in anger" ?</v>
       </c>
       <c r="V105" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W105" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X105" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y105" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13876,11 +13876,11 @@
       </c>
       <c r="J106" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="10">
         <f t="shared" si="16"/>
@@ -13894,43 +13894,43 @@
       </c>
       <c r="O106" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303105</v>
+        <v/>
       </c>
       <c r="P106" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "For the better benefits of the country" ?</v>
+        <v/>
       </c>
       <c r="Q106" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R106" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S106" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T106" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303105</v>
       </c>
       <c r="U106" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "For the greater good of the country" ?</v>
       </c>
       <c r="V106" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W106" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X106" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y106" s="10" t="str">
         <f t="shared" si="25"/>
@@ -14167,11 +14167,11 @@
       </c>
       <c r="J109" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="10">
         <f t="shared" si="16"/>
@@ -14185,43 +14185,43 @@
       </c>
       <c r="O109" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303108</v>
+        <v/>
       </c>
       <c r="P109" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He couldn't control his anger." ?</v>
+        <v/>
       </c>
       <c r="Q109" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R109" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S109" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T109" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303108</v>
       </c>
       <c r="U109" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "His anger got the better of him" ?</v>
       </c>
       <c r="V109" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W109" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X109" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y109" s="10" t="str">
         <f t="shared" si="25"/>
@@ -14361,11 +14361,11 @@
       </c>
       <c r="J111" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" s="10">
         <f t="shared" si="16"/>
@@ -14379,43 +14379,43 @@
       </c>
       <c r="O111" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303110</v>
       </c>
       <c r="P111" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "I don't talk politics with others." ?</v>
       </c>
       <c r="Q111" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R111" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S111" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T111" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303110</v>
+        <v/>
       </c>
       <c r="U111" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "I keep my politics to myself" ?</v>
+        <v/>
       </c>
       <c r="V111" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W111" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X111" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y111" s="10" t="str">
         <f t="shared" si="25"/>
@@ -14555,11 +14555,11 @@
       </c>
       <c r="J113" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" s="10">
         <f t="shared" si="16"/>
@@ -14573,43 +14573,43 @@
       </c>
       <c r="O113" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303112</v>
+        <v/>
       </c>
       <c r="P113" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of " I will leave on my own." ?</v>
+        <v/>
       </c>
       <c r="Q113" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R113" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S113" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T113" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303112</v>
       </c>
       <c r="U113" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "I will see myself out" ?</v>
       </c>
       <c r="V113" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W113" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X113" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y113" s="10" t="str">
         <f t="shared" si="25"/>
@@ -14652,11 +14652,11 @@
       </c>
       <c r="J114" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" s="10">
         <f t="shared" si="16"/>
@@ -14670,43 +14670,43 @@
       </c>
       <c r="O114" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303113</v>
       </c>
       <c r="P114" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He is not feeling his normal self." ?</v>
       </c>
       <c r="Q114" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R114" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S114" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T114" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303113</v>
+        <v/>
       </c>
       <c r="U114" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He is not himself today" ?</v>
+        <v/>
       </c>
       <c r="V114" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W114" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X114" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y114" s="10" t="str">
         <f t="shared" si="25"/>
@@ -14818,7 +14818,7 @@
       <c r="AC115" s="10"/>
       <c r="AD115" s="10"/>
     </row>
-    <row r="116" ht="24" spans="1:30">
+    <row r="116" ht="35" spans="1:30">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -14943,11 +14943,11 @@
       </c>
       <c r="J117" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="10">
         <f t="shared" si="16"/>
@@ -14961,43 +14961,43 @@
       </c>
       <c r="O117" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303116</v>
+        <v/>
       </c>
       <c r="P117" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "The solution is so simple that it almost represents simplicity." ?</v>
+        <v/>
       </c>
       <c r="Q117" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R117" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S117" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T117" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303116</v>
       </c>
       <c r="U117" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "This solution is simplicity itself" ?</v>
       </c>
       <c r="V117" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W117" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X117" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y117" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15012,7 +15012,7 @@
       <c r="AC117" s="12"/>
       <c r="AD117" s="12"/>
     </row>
-    <row r="118" ht="35" spans="1:30">
+    <row r="118" ht="24" spans="1:30">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="J119" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="10">
         <f t="shared" si="16"/>
@@ -15155,43 +15155,43 @@
       </c>
       <c r="O119" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303118</v>
       </c>
       <c r="P119" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He tried to do too many things that beyond are his reach." ?</v>
       </c>
       <c r="Q119" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R119" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S119" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T119" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303118</v>
+        <v/>
       </c>
       <c r="U119" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He overstretched himself." ?</v>
+        <v/>
       </c>
       <c r="V119" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W119" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X119" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y119" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15333,11 +15333,11 @@
       </c>
       <c r="J121" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="10">
         <f t="shared" si="16"/>
@@ -15351,43 +15351,43 @@
       </c>
       <c r="O121" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303120</v>
+        <v/>
       </c>
       <c r="P121" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "I cried so much and finally fall asleep." ?</v>
+        <v/>
       </c>
       <c r="Q121" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R121" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S121" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T121" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303120</v>
       </c>
       <c r="U121" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "I cried myself to sleep" ?</v>
       </c>
       <c r="V121" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W121" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X121" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y121" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15432,11 +15432,11 @@
       </c>
       <c r="J122" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" s="10">
         <f t="shared" si="16"/>
@@ -15450,43 +15450,43 @@
       </c>
       <c r="O122" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303121</v>
+        <v/>
       </c>
       <c r="P122" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "She danced so well that the audience loved her." ?</v>
+        <v/>
       </c>
       <c r="Q122" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R122" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S122" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T122" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303121</v>
       </c>
       <c r="U122" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "She danced herself into the hearts of the audience" ?</v>
       </c>
       <c r="V122" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W122" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X122" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y122" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15626,11 +15626,11 @@
       </c>
       <c r="J124" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" s="10">
         <f t="shared" si="16"/>
@@ -15644,43 +15644,43 @@
       </c>
       <c r="O124" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303123</v>
+        <v/>
       </c>
       <c r="P124" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "The house has so much to offer that it doesn't need promotion." ?</v>
+        <v/>
       </c>
       <c r="Q124" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R124" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S124" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T124" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303123</v>
       </c>
       <c r="U124" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "The house will sell itself" ?</v>
       </c>
       <c r="V124" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W124" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X124" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y124" s="10" t="str">
         <f t="shared" si="25"/>
@@ -16014,11 +16014,11 @@
       </c>
       <c r="J128" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="10">
         <f t="shared" si="16"/>
@@ -16032,43 +16032,43 @@
       </c>
       <c r="O128" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303127</v>
+        <v/>
       </c>
       <c r="P128" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "The stock market makes it easier for people to take risks." ?</v>
+        <v/>
       </c>
       <c r="Q128" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R128" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S128" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T128" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303127</v>
       </c>
       <c r="U128" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "The stock market lends itself to risk-taking" ?</v>
       </c>
       <c r="V128" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W128" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X128" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y128" s="10" t="str">
         <f t="shared" si="25"/>
@@ -16109,11 +16109,11 @@
       </c>
       <c r="J129" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" s="10">
         <f t="shared" si="16"/>
@@ -16127,43 +16127,43 @@
       </c>
       <c r="O129" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20304128</v>
+        <v/>
       </c>
       <c r="P129" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "second hand market" ?</v>
+        <v/>
       </c>
       <c r="Q129" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R129" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S129" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T129" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30304128</v>
       </c>
       <c r="U129" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "flea market" ?</v>
       </c>
       <c r="V129" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W129" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X129" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y129" s="10" t="str">
         <f t="shared" si="25"/>
@@ -16299,11 +16299,11 @@
       </c>
       <c r="J131" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="10">
         <f ca="1" t="shared" ref="K131:K158" si="30">IF(J131&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="10">
         <f t="shared" ref="L131:L158" si="31">IF(LEN(H131)&gt;30,0,1)</f>
@@ -16317,43 +16317,43 @@
       </c>
       <c r="O131" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20304130</v>
+        <v/>
       </c>
       <c r="P131" s="10" t="str">
         <f ca="1" t="shared" ref="P131:P158" si="32">IF(J131=1,CONCATENATE("What is the concept of """,H131,""" ?"),"")</f>
-        <v>What is the concept of "normal people	" ?</v>
+        <v/>
       </c>
       <c r="Q131" s="10" t="str">
         <f ca="1" t="shared" ref="Q131:Q158" si="33">IF(J131=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R131" s="10" t="str">
         <f ca="1" t="shared" ref="R131:R158" si="34">IF(J131=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S131" s="10" t="str">
         <f ca="1" t="shared" ref="S131:S158" si="35">IF(J131=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T131" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30304130</v>
       </c>
       <c r="U131" s="10" t="str">
         <f ca="1" t="shared" ref="U131:U158" si="36">IF(K131=1,CONCATENATE("What is the meaning of """,G131,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "grassroots" ?</v>
       </c>
       <c r="V131" s="10" t="str">
         <f ca="1" t="shared" ref="V131:V158" si="37">IF(K131=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W131" s="10" t="str">
         <f ca="1" t="shared" ref="W131:W158" si="38">IF(K131=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X131" s="10" t="str">
         <f ca="1" t="shared" ref="X131:X158" si="39">IF(K131=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y131" s="10" t="str">
         <f t="shared" ref="Y131:Y158" si="40">IF(L131=1,CONCATENATE("L4",$F131),"")</f>
@@ -16368,7 +16368,7 @@
       <c r="AC131" s="10"/>
       <c r="AD131" s="10"/>
     </row>
-    <row r="132" ht="24" spans="1:30">
+    <row r="132" ht="47" spans="1:30">
       <c r="A132" s="3">
         <v>3</v>
       </c>
@@ -16394,11 +16394,11 @@
       </c>
       <c r="J132" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" s="10">
         <f t="shared" si="31"/>
@@ -16412,43 +16412,43 @@
       </c>
       <c r="O132" s="10" t="str">
         <f ca="1" t="shared" ref="O132:O158" si="42">IF(J132=1,CONCATENATE("L2",$F132),"")</f>
-        <v>L20304131</v>
+        <v/>
       </c>
       <c r="P132" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "feeling restless and irritable because of having been staying at one place for too long" ?</v>
+        <v/>
       </c>
       <c r="Q132" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R132" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S132" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T132" s="10" t="str">
         <f ca="1" t="shared" ref="T132:T156" si="43">IF(K132=1,CONCATENATE("L3",$F132),"")</f>
-        <v/>
+        <v>L30304131</v>
       </c>
       <c r="U132" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "cabin fever" ?</v>
       </c>
       <c r="V132" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W132" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X132" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y132" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16489,11 +16489,11 @@
       </c>
       <c r="J133" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" s="10">
         <f t="shared" si="31"/>
@@ -16507,43 +16507,43 @@
       </c>
       <c r="O133" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304132</v>
       </c>
       <c r="P133" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "a travel season between peak and low seasons" ?</v>
       </c>
       <c r="Q133" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R133" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S133" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T133" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304132</v>
+        <v/>
       </c>
       <c r="U133" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "shoulder season" ?</v>
+        <v/>
       </c>
       <c r="V133" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W133" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X133" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y133" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16558,7 +16558,7 @@
       <c r="AC133" s="10"/>
       <c r="AD133" s="10"/>
     </row>
-    <row r="134" ht="24" spans="1:30">
+    <row r="134" ht="35" spans="1:30">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -16584,11 +16584,11 @@
       </c>
       <c r="J134" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" s="10">
         <f t="shared" si="31"/>
@@ -16602,43 +16602,43 @@
       </c>
       <c r="O134" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304133</v>
+        <v/>
       </c>
       <c r="P134" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "giving unwanted advice as an onlooker, or meddler" ?</v>
+        <v/>
       </c>
       <c r="Q134" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R134" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S134" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T134" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304133</v>
       </c>
       <c r="U134" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "kibitzer" ?</v>
       </c>
       <c r="V134" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W134" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X134" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y134" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16774,11 +16774,11 @@
       </c>
       <c r="J136" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" s="10">
         <f t="shared" si="31"/>
@@ -16792,43 +16792,43 @@
       </c>
       <c r="O136" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304135</v>
       </c>
       <c r="P136" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "A period of time working at night " ?</v>
       </c>
       <c r="Q136" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R136" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S136" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T136" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304135</v>
+        <v/>
       </c>
       <c r="U136" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "graveyard shift" ?</v>
+        <v/>
       </c>
       <c r="V136" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W136" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X136" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y136" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16869,11 +16869,11 @@
       </c>
       <c r="J137" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="10">
         <f t="shared" si="31"/>
@@ -16887,43 +16887,43 @@
       </c>
       <c r="O137" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304136</v>
+        <v/>
       </c>
       <c r="P137" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "an event or a period of time that marks an important change" ?</v>
+        <v/>
       </c>
       <c r="Q137" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R137" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S137" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T137" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304136</v>
       </c>
       <c r="U137" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "watershed" ?</v>
       </c>
       <c r="V137" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W137" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X137" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y137" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16938,7 +16938,7 @@
       <c r="AC137" s="10"/>
       <c r="AD137" s="10"/>
     </row>
-    <row r="138" ht="58" spans="1:30">
+    <row r="138" ht="35" spans="1:30">
       <c r="A138" s="3">
         <v>3</v>
       </c>
@@ -16964,11 +16964,11 @@
       </c>
       <c r="J138" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" s="10">
         <f t="shared" si="31"/>
@@ -16982,43 +16982,43 @@
       </c>
       <c r="O138" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304137</v>
       </c>
       <c r="P138" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "an occurrence or phenomenon that comes as a surprise because it was not predicted or was hard to predict" ?</v>
       </c>
       <c r="Q138" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R138" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S138" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T138" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304137</v>
+        <v/>
       </c>
       <c r="U138" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "black swan" ?</v>
+        <v/>
       </c>
       <c r="V138" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W138" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X138" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y138" s="10" t="str">
         <f t="shared" si="40"/>
@@ -17033,7 +17033,7 @@
       <c r="AC138" s="10"/>
       <c r="AD138" s="10"/>
     </row>
-    <row r="139" ht="24" spans="1:30">
+    <row r="139" ht="35" spans="1:30">
       <c r="A139" s="3">
         <v>3</v>
       </c>
@@ -17128,7 +17128,7 @@
       <c r="AC139" s="12"/>
       <c r="AD139" s="12"/>
     </row>
-    <row r="140" ht="24" spans="1:30">
+    <row r="140" ht="47" spans="1:30">
       <c r="A140" s="3">
         <v>3</v>
       </c>
@@ -17223,7 +17223,7 @@
       <c r="AC140" s="12"/>
       <c r="AD140" s="12"/>
     </row>
-    <row r="141" ht="58" spans="1:30">
+    <row r="141" ht="35" spans="1:30">
       <c r="A141" s="3">
         <v>3</v>
       </c>
@@ -17344,11 +17344,11 @@
       </c>
       <c r="J142" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="10">
         <f t="shared" si="31"/>
@@ -17362,43 +17362,43 @@
       </c>
       <c r="O142" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304141</v>
       </c>
       <c r="P142" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "a circle of light behind the head" ?</v>
       </c>
       <c r="Q142" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R142" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S142" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T142" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304141</v>
+        <v/>
       </c>
       <c r="U142" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "halo" ?</v>
+        <v/>
       </c>
       <c r="V142" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W142" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X142" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y142" s="10" t="str">
         <f t="shared" si="40"/>
@@ -17413,7 +17413,7 @@
       <c r="AC142" s="12"/>
       <c r="AD142" s="12"/>
     </row>
-    <row r="143" ht="47" spans="1:30">
+    <row r="143" ht="35" spans="1:30">
       <c r="A143" s="3">
         <v>3</v>
       </c>
@@ -17508,7 +17508,7 @@
       <c r="AC143" s="12"/>
       <c r="AD143" s="12"/>
     </row>
-    <row r="144" ht="35" spans="1:30">
+    <row r="144" ht="24" spans="1:30">
       <c r="A144" s="3">
         <v>3</v>
       </c>
@@ -17534,11 +17534,11 @@
       </c>
       <c r="J144" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L144" s="10">
         <f t="shared" si="31"/>
@@ -17552,43 +17552,43 @@
       </c>
       <c r="O144" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304143</v>
       </c>
       <c r="P144" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "the ability to make a financial success of everything you do " ?</v>
       </c>
       <c r="Q144" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R144" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S144" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T144" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304143</v>
+        <v/>
       </c>
       <c r="U144" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "Midas touch" ?</v>
+        <v/>
       </c>
       <c r="V144" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W144" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X144" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y144" s="10" t="str">
         <f t="shared" si="40"/>
@@ -17629,11 +17629,11 @@
       </c>
       <c r="J145" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" s="10">
         <f t="shared" si="31"/>
@@ -17647,43 +17647,43 @@
       </c>
       <c r="O145" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304144</v>
       </c>
       <c r="P145" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "Something very sensitive;  nobody wants to deal with it." ?</v>
       </c>
       <c r="Q145" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R145" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S145" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T145" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304144</v>
+        <v/>
       </c>
       <c r="U145" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "Hot potato" ?</v>
+        <v/>
       </c>
       <c r="V145" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W145" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X145" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y145" s="10" t="str">
         <f t="shared" si="40"/>
@@ -17983,7 +17983,7 @@
       <c r="AC148" s="12"/>
       <c r="AD148" s="12"/>
     </row>
-    <row r="149" ht="35" spans="1:30">
+    <row r="149" ht="24" spans="1:30">
       <c r="A149" s="3">
         <v>3</v>
       </c>
@@ -18078,7 +18078,7 @@
       <c r="AC149" s="12"/>
       <c r="AD149" s="12"/>
     </row>
-    <row r="150" ht="24" spans="1:30">
+    <row r="150" ht="35" spans="1:30">
       <c r="A150" s="3">
         <v>3</v>
       </c>
@@ -18199,11 +18199,11 @@
       </c>
       <c r="J151" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" s="10">
         <f t="shared" si="31"/>
@@ -18217,43 +18217,43 @@
       </c>
       <c r="O151" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304150</v>
+        <v/>
       </c>
       <c r="P151" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "lucky as born in a rich family" ?</v>
+        <v/>
       </c>
       <c r="Q151" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R151" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S151" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T151" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304150</v>
       </c>
       <c r="U151" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "lucky sperm club" ?</v>
       </c>
       <c r="V151" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W151" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X151" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y151" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18294,11 +18294,11 @@
       </c>
       <c r="J152" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152" s="10">
         <f t="shared" si="31"/>
@@ -18312,43 +18312,43 @@
       </c>
       <c r="O152" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304151</v>
       </c>
       <c r="P152" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "the raised flat area beside the track for getting on or off the train" ?</v>
       </c>
       <c r="Q152" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R152" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S152" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T152" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304151</v>
+        <v/>
       </c>
       <c r="U152" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "platform" ?</v>
+        <v/>
       </c>
       <c r="V152" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W152" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X152" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y152" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18363,7 +18363,7 @@
       <c r="AC152" s="12"/>
       <c r="AD152" s="12"/>
     </row>
-    <row r="153" ht="58" spans="1:30">
+    <row r="153" ht="35" spans="1:30">
       <c r="A153" s="3">
         <v>3</v>
       </c>
@@ -18389,11 +18389,11 @@
       </c>
       <c r="J153" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153" s="10">
         <f t="shared" si="31"/>
@@ -18407,43 +18407,43 @@
       </c>
       <c r="O153" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304152</v>
       </c>
       <c r="P153" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "a run-up in housing prices fueled by demand, speculation, and exuberant spending to the point of collapse" ?</v>
       </c>
       <c r="Q153" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R153" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S153" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T153" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304152</v>
+        <v/>
       </c>
       <c r="U153" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "housing bubble" ?</v>
+        <v/>
       </c>
       <c r="V153" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W153" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X153" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y153" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18484,11 +18484,11 @@
       </c>
       <c r="J154" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" s="10">
         <f t="shared" si="31"/>
@@ -18502,43 +18502,43 @@
       </c>
       <c r="O154" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304153</v>
+        <v/>
       </c>
       <c r="P154" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "A president whose period of office will soon end and will not be elected again" ?</v>
+        <v/>
       </c>
       <c r="Q154" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R154" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S154" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T154" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304153</v>
       </c>
       <c r="U154" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "lame duck president" ?</v>
       </c>
       <c r="V154" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W154" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X154" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y154" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18579,11 +18579,11 @@
       </c>
       <c r="J155" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" s="10">
         <f t="shared" si="31"/>
@@ -18597,43 +18597,43 @@
       </c>
       <c r="O155" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304154</v>
       </c>
       <c r="P155" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "a person who arises early in the morning" ?</v>
       </c>
       <c r="Q155" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R155" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S155" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T155" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304154</v>
+        <v/>
       </c>
       <c r="U155" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "early bird" ?</v>
+        <v/>
       </c>
       <c r="V155" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W155" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X155" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y155" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18674,11 +18674,11 @@
       </c>
       <c r="J156" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" s="10">
         <f t="shared" si="31"/>
@@ -18692,43 +18692,43 @@
       </c>
       <c r="O156" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304155</v>
       </c>
       <c r="P156" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "the practice of avoiding, or trying to avoid, a particular situation by pretending that it does not exist." ?</v>
       </c>
       <c r="Q156" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R156" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S156" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T156" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304155</v>
+        <v/>
       </c>
       <c r="U156" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "ostrich policy" ?</v>
+        <v/>
       </c>
       <c r="V156" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W156" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X156" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y156" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18769,11 +18769,11 @@
       </c>
       <c r="J157" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L157" s="10">
         <f t="shared" si="31"/>
@@ -18787,43 +18787,43 @@
       </c>
       <c r="O157" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304156</v>
       </c>
       <c r="P157" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "the tears and sadness that are not genuine or sincere" ?</v>
       </c>
       <c r="Q157" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R157" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S157" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T157" s="10" t="str">
         <f ca="1" t="shared" ref="T157:T158" si="44">IF(K157=1,CONCATENATE("L3",$F157),"")</f>
-        <v>L30304156</v>
+        <v/>
       </c>
       <c r="U157" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "crocodile tears" ?</v>
+        <v/>
       </c>
       <c r="V157" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W157" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X157" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y157" s="10" t="str">
         <f t="shared" si="40"/>

--- a/miniproject/template/Lectures/Lecture 3.xlsx
+++ b/miniproject/template/Lectures/Lecture 3.xlsx
@@ -2605,8 +2605,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2684,32 +2684,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2729,54 +2705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2799,7 +2729,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2813,11 +2781,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2860,13 +2860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2878,7 +2878,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2890,31 +2950,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2926,13 +2980,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2944,25 +3016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2974,67 +3028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3117,24 +3117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3146,36 +3128,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3197,6 +3149,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3205,87 +3190,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3294,58 +3315,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3761,8 +3761,8 @@
   <sheetPr/>
   <dimension ref="A1:AD181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63392857142857" defaultRowHeight="11.6"/>
@@ -7122,11 +7122,11 @@
       </c>
       <c r="J36" s="12">
         <f ca="1">IF(RAND()&gt;=0.5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="10">
         <f t="shared" si="1"/>
@@ -7140,43 +7140,43 @@
       </c>
       <c r="O36" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20302035</v>
       </c>
       <c r="P36" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "He strongly refused to answer the question." ?</v>
       </c>
       <c r="Q36" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R36" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S36" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T36" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30302035</v>
+        <v/>
       </c>
       <c r="U36" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "He flatly refused to answer the question" ?</v>
+        <v/>
       </c>
       <c r="V36" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W36" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X36" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y36" s="10" t="str">
         <f t="shared" si="10"/>
@@ -7316,11 +7316,11 @@
       </c>
       <c r="J38" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="10">
         <f t="shared" si="1"/>
@@ -7334,43 +7334,43 @@
       </c>
       <c r="O38" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302037</v>
+        <v/>
       </c>
       <c r="P38" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "nice and submissive male" ?</v>
+        <v/>
       </c>
       <c r="Q38" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R38" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S38" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T38" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302037</v>
       </c>
       <c r="U38" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "beta male " ?</v>
       </c>
       <c r="V38" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W38" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X38" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y38" s="10" t="str">
         <f t="shared" si="10"/>
@@ -7413,11 +7413,11 @@
       </c>
       <c r="J39" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="10">
         <f t="shared" si="1"/>
@@ -7431,43 +7431,43 @@
       </c>
       <c r="O39" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302038</v>
+        <v/>
       </c>
       <c r="P39" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "the beginning and the end" ?</v>
+        <v/>
       </c>
       <c r="Q39" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R39" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S39" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T39" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302038</v>
       </c>
       <c r="U39" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "alpha and omega " ?</v>
       </c>
       <c r="V39" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W39" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X39" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y39" s="10" t="str">
         <f t="shared" si="10"/>
@@ -7603,11 +7603,11 @@
       </c>
       <c r="J41" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="10">
         <f t="shared" si="1"/>
@@ -7621,43 +7621,43 @@
       </c>
       <c r="O41" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302040</v>
+        <v/>
       </c>
       <c r="P41" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "He is no longer as strong as before." ?</v>
+        <v/>
       </c>
       <c r="Q41" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R41" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S41" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T41" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302040</v>
       </c>
       <c r="U41" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "He was a shadow of himself" ?</v>
       </c>
       <c r="V41" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W41" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X41" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y41" s="10" t="str">
         <f t="shared" si="10"/>
@@ -7698,11 +7698,11 @@
       </c>
       <c r="J42" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="10">
         <f t="shared" si="1"/>
@@ -7716,43 +7716,43 @@
       </c>
       <c r="O42" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302041</v>
+        <v/>
       </c>
       <c r="P42" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Really talented" ?</v>
+        <v/>
       </c>
       <c r="Q42" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R42" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S42" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T42" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302041</v>
       </c>
       <c r="U42" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Insanely talented" ?</v>
       </c>
       <c r="V42" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W42" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X42" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y42" s="10" t="str">
         <f t="shared" si="10"/>
@@ -7888,11 +7888,11 @@
       </c>
       <c r="J44" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="10">
         <f t="shared" si="1"/>
@@ -7906,43 +7906,43 @@
       </c>
       <c r="O44" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20302043</v>
       </c>
       <c r="P44" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "He looked me straight in the eye" ?</v>
       </c>
       <c r="Q44" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R44" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S44" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T44" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30302043</v>
+        <v/>
       </c>
       <c r="U44" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "He looked me dead in the eye" ?</v>
+        <v/>
       </c>
       <c r="V44" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W44" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X44" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y44" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8078,11 +8078,11 @@
       </c>
       <c r="J46" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="10">
         <f t="shared" si="1"/>
@@ -8096,43 +8096,43 @@
       </c>
       <c r="O46" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302045</v>
+        <v/>
       </c>
       <c r="P46" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Cold-blooded killer" ?</v>
+        <v/>
       </c>
       <c r="Q46" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R46" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S46" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T46" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302045</v>
       </c>
       <c r="U46" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Stone-cold killer" ?</v>
       </c>
       <c r="V46" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W46" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X46" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y46" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8173,11 +8173,11 @@
       </c>
       <c r="J47" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="10">
         <f t="shared" si="1"/>
@@ -8191,43 +8191,43 @@
       </c>
       <c r="O47" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302046</v>
+        <v/>
       </c>
       <c r="P47" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "The land is completely dry" ?</v>
+        <v/>
       </c>
       <c r="Q47" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R47" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S47" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T47" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302046</v>
       </c>
       <c r="U47" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "The land is bone-dry" ?</v>
       </c>
       <c r="V47" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W47" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X47" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y47" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8363,11 +8363,11 @@
       </c>
       <c r="J49" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="10">
         <f t="shared" si="1"/>
@@ -8381,43 +8381,43 @@
       </c>
       <c r="O49" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302048</v>
+        <v/>
       </c>
       <c r="P49" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "He admires her very much" ?</v>
+        <v/>
       </c>
       <c r="Q49" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R49" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S49" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T49" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302048</v>
       </c>
       <c r="U49" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "He worships the ground she walks on" ?</v>
       </c>
       <c r="V49" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W49" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X49" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y49" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8432,7 +8432,7 @@
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
     </row>
-    <row r="50" ht="35" spans="1:30">
+    <row r="50" ht="24" spans="1:30">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
     </row>
-    <row r="52" ht="35" spans="1:30">
+    <row r="52" ht="24" spans="1:30">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -8717,7 +8717,7 @@
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
     </row>
-    <row r="53" ht="24" spans="1:30">
+    <row r="53" ht="35" spans="1:30">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -8743,11 +8743,11 @@
       </c>
       <c r="J53" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="10">
         <f t="shared" si="1"/>
@@ -8761,43 +8761,43 @@
       </c>
       <c r="O53" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20302052</v>
       </c>
       <c r="P53" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "I will strain every nerve to fight" ?</v>
       </c>
       <c r="Q53" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R53" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S53" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T53" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30302052</v>
+        <v/>
       </c>
       <c r="U53" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "I will fight with every bone in my body" ?</v>
+        <v/>
       </c>
       <c r="V53" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W53" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X53" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y53" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8812,7 +8812,7 @@
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
     </row>
-    <row r="54" ht="24" spans="1:30">
+    <row r="54" ht="35" spans="1:30">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -8838,11 +8838,11 @@
       </c>
       <c r="J54" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="10">
         <f t="shared" si="1"/>
@@ -8856,43 +8856,43 @@
       </c>
       <c r="O54" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20302053</v>
       </c>
       <c r="P54" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "He is no good at anything. A total loser. " ?</v>
       </c>
       <c r="Q54" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R54" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S54" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T54" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30302053</v>
+        <v/>
       </c>
       <c r="U54" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "He is a loser. If he opens a funeral parlor, no one will die" ?</v>
+        <v/>
       </c>
       <c r="V54" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W54" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X54" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y54" s="10" t="str">
         <f t="shared" si="10"/>
@@ -8933,11 +8933,11 @@
       </c>
       <c r="J55" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="10">
         <f t="shared" si="1"/>
@@ -8951,43 +8951,43 @@
       </c>
       <c r="O55" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20302054</v>
+        <v/>
       </c>
       <c r="P55" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "She is the goddesss. I love her singing so much." ?</v>
+        <v/>
       </c>
       <c r="Q55" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R55" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S55" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T55" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30302054</v>
       </c>
       <c r="U55" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "She is the goddess. I live, I die and I live again for her singing." ?</v>
       </c>
       <c r="V55" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W55" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X55" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y55" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9125,11 +9125,11 @@
       </c>
       <c r="J57" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="10">
         <f t="shared" si="1"/>
@@ -9143,43 +9143,43 @@
       </c>
       <c r="O57" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20303056</v>
+        <v/>
       </c>
       <c r="P57" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "She is not young any more." ?</v>
+        <v/>
       </c>
       <c r="Q57" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R57" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S57" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T57" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30303056</v>
       </c>
       <c r="U57" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "She is no spring chicken" ?</v>
       </c>
       <c r="V57" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W57" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X57" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y57" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9222,11 +9222,11 @@
       </c>
       <c r="J58" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="10">
         <f t="shared" si="1"/>
@@ -9240,43 +9240,43 @@
       </c>
       <c r="O58" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20303057</v>
       </c>
       <c r="P58" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "She never lacks confidence." ?</v>
       </c>
       <c r="Q58" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R58" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S58" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T58" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30303057</v>
+        <v/>
       </c>
       <c r="U58" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "Lack of confidence is not something she suffers from." ?</v>
+        <v/>
       </c>
       <c r="V58" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W58" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X58" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y58" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9388,7 +9388,7 @@
       <c r="AC59" s="12"/>
       <c r="AD59" s="12"/>
     </row>
-    <row r="60" ht="24" spans="1:30">
+    <row r="60" ht="35" spans="1:30">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -9416,11 +9416,11 @@
       </c>
       <c r="J60" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="10">
         <f t="shared" si="1"/>
@@ -9434,43 +9434,43 @@
       </c>
       <c r="O60" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v/>
+        <v>L20303059</v>
       </c>
       <c r="P60" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v/>
+        <v>What is the concept of "They don't call her lazy for no reason" ?</v>
       </c>
       <c r="Q60" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R60" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S60" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T60" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v>L30303059</v>
+        <v/>
       </c>
       <c r="U60" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v>What is the meaning of "They don’t call her lazy for nothing" ?</v>
+        <v/>
       </c>
       <c r="V60" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W60" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X60" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y60" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9492,7 +9492,9 @@
       <c r="B61" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>263</v>
+      </c>
       <c r="D61" s="10" t="s">
         <v>264</v>
       </c>
@@ -9580,7 +9582,7 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
     </row>
-    <row r="62" ht="24" spans="1:30">
+    <row r="62" ht="35" spans="1:30">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -9774,7 +9776,7 @@
       <c r="AC63" s="12"/>
       <c r="AD63" s="12"/>
     </row>
-    <row r="64" ht="24" spans="1:30">
+    <row r="64" ht="35" spans="1:30">
       <c r="A64" s="3">
         <v>3</v>
       </c>
@@ -9802,11 +9804,11 @@
       </c>
       <c r="J64" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="10">
         <f t="shared" si="1"/>
@@ -9820,43 +9822,43 @@
       </c>
       <c r="O64" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20303063</v>
+        <v/>
       </c>
       <c r="P64" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "Although he looks innocent, he is capable of doing bad things" ?</v>
+        <v/>
       </c>
       <c r="Q64" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R64" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S64" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T64" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30303063</v>
       </c>
       <c r="U64" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "Butter wouldn’t melt in his mouth" ?</v>
       </c>
       <c r="V64" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W64" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X64" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y64" s="10" t="str">
         <f t="shared" si="10"/>
@@ -9899,11 +9901,11 @@
       </c>
       <c r="J65" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="10">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="10">
         <f t="shared" si="1"/>
@@ -9917,43 +9919,43 @@
       </c>
       <c r="O65" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20303064</v>
+        <v/>
       </c>
       <c r="P65" s="10" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>What is the concept of "I must thank my parents on this stage." ?</v>
+        <v/>
       </c>
       <c r="Q65" s="10" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R65" s="10" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S65" s="10" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T65" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30303064</v>
       </c>
       <c r="U65" s="10" t="str">
         <f ca="1" t="shared" si="6"/>
-        <v/>
+        <v>What is the meaning of "I cannot stand on this stage without thanking my parents" ?</v>
       </c>
       <c r="V65" s="10" t="str">
         <f ca="1" t="shared" si="7"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W65" s="10" t="str">
         <f ca="1" t="shared" si="8"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X65" s="10" t="str">
         <f ca="1" t="shared" si="9"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y65" s="10" t="str">
         <f t="shared" si="10"/>
@@ -10093,11 +10095,11 @@
       </c>
       <c r="J67" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="10">
         <f ca="1" t="shared" ref="K67:K130" si="15">IF(J67&gt;0,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="10">
         <f t="shared" ref="L67:L130" si="16">IF(LEN(H67)&gt;30,0,1)</f>
@@ -10111,43 +10113,43 @@
       </c>
       <c r="O67" s="10" t="str">
         <f ca="1" t="shared" si="12"/>
-        <v>L20303066</v>
+        <v/>
       </c>
       <c r="P67" s="10" t="str">
         <f ca="1" t="shared" ref="P67:P130" si="17">IF(J67=1,CONCATENATE("What is the concept of """,H67,""" ?"),"")</f>
-        <v>What is the concept of "More than a billion Chinese love Chinese food. They must be right." ?</v>
+        <v/>
       </c>
       <c r="Q67" s="10" t="str">
         <f ca="1" t="shared" ref="Q67:Q130" si="18">IF(J67=0,"","wrong option1")</f>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R67" s="10" t="str">
         <f ca="1" t="shared" ref="R67:R130" si="19">IF(J67=0,"","wrong option2")</f>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S67" s="10" t="str">
         <f ca="1" t="shared" ref="S67:S130" si="20">IF(J67=0,"","wrong option3")</f>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T67" s="10" t="str">
         <f ca="1" t="shared" si="13"/>
-        <v/>
+        <v>L30303066</v>
       </c>
       <c r="U67" s="10" t="str">
         <f ca="1" t="shared" ref="U67:U130" si="21">IF(K67=1,CONCATENATE("What is the meaning of """,G67,""" ?"),"")</f>
-        <v/>
+        <v>What is the meaning of "A billion Chinese couldn’t be wrong—Chinese food" ?</v>
       </c>
       <c r="V67" s="10" t="str">
         <f ca="1" t="shared" ref="V67:V130" si="22">IF(K67=0,"","wrong option1")</f>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W67" s="10" t="str">
         <f ca="1" t="shared" ref="W67:W130" si="23">IF(K67=0,"","wrong option2")</f>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X67" s="10" t="str">
         <f ca="1" t="shared" ref="X67:X130" si="24">IF(K67=0,"","wrong option3")</f>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y67" s="10" t="str">
         <f t="shared" ref="Y67:Y130" si="25">IF(L67=1,CONCATENATE("L4",$F67),"")</f>
@@ -10356,7 +10358,7 @@
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
     </row>
-    <row r="70" ht="35" spans="1:30">
+    <row r="70" ht="24" spans="1:30">
       <c r="A70" s="3">
         <v>3</v>
       </c>
@@ -10384,11 +10386,11 @@
       </c>
       <c r="J70" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="10">
         <f t="shared" si="16"/>
@@ -10402,43 +10404,43 @@
       </c>
       <c r="O70" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303069</v>
+        <v/>
       </c>
       <c r="P70" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "She did not want to compromise" ?</v>
+        <v/>
       </c>
       <c r="Q70" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R70" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S70" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T70" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303069</v>
       </c>
       <c r="U70" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "She was in no mood to compromise" ?</v>
       </c>
       <c r="V70" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W70" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X70" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y70" s="10" t="str">
         <f t="shared" si="25"/>
@@ -10578,11 +10580,11 @@
       </c>
       <c r="J72" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="10">
         <f t="shared" si="16"/>
@@ -10596,43 +10598,43 @@
       </c>
       <c r="O72" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303071</v>
+        <v/>
       </c>
       <c r="P72" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "Most of his contribution did not receive the thanks that it deserved" ?</v>
+        <v/>
       </c>
       <c r="Q72" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R72" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S72" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T72" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303071</v>
       </c>
       <c r="U72" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "His contributions were largely unacknowledged" ?</v>
       </c>
       <c r="V72" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W72" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X72" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y72" s="10" t="str">
         <f t="shared" si="25"/>
@@ -10744,7 +10746,7 @@
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
     </row>
-    <row r="74" ht="35" spans="1:30">
+    <row r="74" ht="24" spans="1:30">
       <c r="A74" s="3">
         <v>3</v>
       </c>
@@ -10938,7 +10940,7 @@
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
     </row>
-    <row r="76" ht="24" spans="1:30">
+    <row r="76" ht="35" spans="1:30">
       <c r="A76" s="3">
         <v>3</v>
       </c>
@@ -10966,11 +10968,11 @@
       </c>
       <c r="J76" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="10">
         <f t="shared" si="16"/>
@@ -10984,43 +10986,43 @@
       </c>
       <c r="O76" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303075</v>
+        <v/>
       </c>
       <c r="P76" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He is unfriendly and not easy to talk to" ?</v>
+        <v/>
       </c>
       <c r="Q76" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R76" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S76" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T76" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303075</v>
       </c>
       <c r="U76" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "He is unapproachable" ?</v>
       </c>
       <c r="V76" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W76" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X76" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y76" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11035,7 +11037,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
     </row>
-    <row r="77" ht="35" spans="1:30">
+    <row r="77" ht="24" spans="1:30">
       <c r="A77" s="3">
         <v>3</v>
       </c>
@@ -11063,11 +11065,11 @@
       </c>
       <c r="J77" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="10">
         <f t="shared" si="16"/>
@@ -11081,43 +11083,43 @@
       </c>
       <c r="O77" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303076</v>
+        <v/>
       </c>
       <c r="P77" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He is humble" ?</v>
+        <v/>
       </c>
       <c r="Q77" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R77" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S77" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T77" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303076</v>
       </c>
       <c r="U77" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "Leung Chiu Wai is very unassuming" ?</v>
       </c>
       <c r="V77" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W77" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X77" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y77" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11257,11 +11259,11 @@
       </c>
       <c r="J79" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="10">
         <f t="shared" si="16"/>
@@ -11275,43 +11277,43 @@
       </c>
       <c r="O79" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303078</v>
+        <v/>
       </c>
       <c r="P79" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "She does not have a partner or husband" ?</v>
+        <v/>
       </c>
       <c r="Q79" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R79" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S79" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T79" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303078</v>
       </c>
       <c r="U79" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "She is not spoken for" ?</v>
       </c>
       <c r="V79" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W79" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X79" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y79" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11548,11 +11550,11 @@
       </c>
       <c r="J82" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="10">
         <f t="shared" si="16"/>
@@ -11566,43 +11568,43 @@
       </c>
       <c r="O82" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303081</v>
+        <v/>
       </c>
       <c r="P82" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He is not free to make a statement" ?</v>
+        <v/>
       </c>
       <c r="Q82" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R82" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S82" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T82" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303081</v>
       </c>
       <c r="U82" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "He is unavailable for comment" ?</v>
       </c>
       <c r="V82" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W82" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X82" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y82" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11645,11 +11647,11 @@
       </c>
       <c r="J83" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="10">
         <f t="shared" si="16"/>
@@ -11663,43 +11665,43 @@
       </c>
       <c r="O83" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303082</v>
+        <v/>
       </c>
       <c r="P83" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "The pain was hard to bear" ?</v>
+        <v/>
       </c>
       <c r="Q83" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R83" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S83" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T83" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303082</v>
       </c>
       <c r="U83" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "The pain was unbearable" ?</v>
       </c>
       <c r="V83" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W83" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X83" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y83" s="10" t="str">
         <f t="shared" si="25"/>
@@ -11714,7 +11716,7 @@
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
     </row>
-    <row r="84" ht="24" spans="1:30">
+    <row r="84" ht="35" spans="1:30">
       <c r="A84" s="3">
         <v>3</v>
       </c>
@@ -11811,7 +11813,7 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
     </row>
-    <row r="85" ht="24" spans="1:30">
+    <row r="85" ht="35" spans="1:30">
       <c r="A85" s="3">
         <v>3</v>
       </c>
@@ -11839,11 +11841,11 @@
       </c>
       <c r="J85" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="10">
         <f t="shared" si="16"/>
@@ -11857,43 +11859,43 @@
       </c>
       <c r="O85" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303084</v>
       </c>
       <c r="P85" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "The food was very cheap" ?</v>
       </c>
       <c r="Q85" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R85" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S85" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T85" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303084</v>
+        <v/>
       </c>
       <c r="U85" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "The food was unbelievably cheap" ?</v>
+        <v/>
       </c>
       <c r="V85" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W85" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X85" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y85" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12130,11 +12132,11 @@
       </c>
       <c r="J88" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="10">
         <f t="shared" si="16"/>
@@ -12148,43 +12150,43 @@
       </c>
       <c r="O88" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303087</v>
+        <v/>
       </c>
       <c r="P88" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He faced the challenge directly" ?</v>
+        <v/>
       </c>
       <c r="Q88" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R88" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S88" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T88" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303087</v>
       </c>
       <c r="U88" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "He faced the challenge unblinkingly" ?</v>
       </c>
       <c r="V88" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W88" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X88" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y88" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12227,11 +12229,11 @@
       </c>
       <c r="J89" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="10">
         <f t="shared" si="16"/>
@@ -12245,43 +12247,43 @@
       </c>
       <c r="O89" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303088</v>
+        <v/>
       </c>
       <c r="P89" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "Strong determination" ?</v>
+        <v/>
       </c>
       <c r="Q89" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R89" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S89" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T89" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303088</v>
       </c>
       <c r="U89" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "Unbreakable determination" ?</v>
       </c>
       <c r="V89" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W89" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X89" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y89" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12296,7 +12298,7 @@
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
     </row>
-    <row r="90" ht="35" spans="1:30">
+    <row r="90" ht="24" spans="1:30">
       <c r="A90" s="3">
         <v>3</v>
       </c>
@@ -12393,7 +12395,7 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
     </row>
-    <row r="91" ht="24" spans="1:30">
+    <row r="91" ht="35" spans="1:30">
       <c r="A91" s="3">
         <v>3</v>
       </c>
@@ -12490,7 +12492,7 @@
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
     </row>
-    <row r="92" ht="35" spans="1:30">
+    <row r="92" ht="24" spans="1:30">
       <c r="A92" s="3">
         <v>3</v>
       </c>
@@ -12809,11 +12811,11 @@
       </c>
       <c r="J95" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="10">
         <f t="shared" si="16"/>
@@ -12827,43 +12829,43 @@
       </c>
       <c r="O95" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303094</v>
       </c>
       <c r="P95" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "People feel uneasy about the long silence." ?</v>
       </c>
       <c r="Q95" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R95" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S95" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T95" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303094</v>
+        <v/>
       </c>
       <c r="U95" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "A long uncomfortable silence followed" ?</v>
+        <v/>
       </c>
       <c r="V95" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W95" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X95" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y95" s="10" t="str">
         <f t="shared" si="25"/>
@@ -12906,11 +12908,11 @@
       </c>
       <c r="J96" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="10">
         <f t="shared" si="16"/>
@@ -12924,43 +12926,43 @@
       </c>
       <c r="O96" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303095</v>
       </c>
       <c r="P96" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "Pick the less evil thing when facing two bad choices" ?</v>
       </c>
       <c r="Q96" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R96" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S96" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T96" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303095</v>
+        <v/>
       </c>
       <c r="U96" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "lesser of two evils" ?</v>
+        <v/>
       </c>
       <c r="V96" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W96" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X96" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y96" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13003,11 +13005,11 @@
       </c>
       <c r="J97" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="10">
         <f t="shared" si="16"/>
@@ -13021,43 +13023,43 @@
       </c>
       <c r="O97" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303096</v>
+        <v/>
       </c>
       <c r="P97" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "a person of ordinary ability" ?</v>
+        <v/>
       </c>
       <c r="Q97" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R97" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S97" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T97" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303096</v>
       </c>
       <c r="U97" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "lesser mortals" ?</v>
       </c>
       <c r="V97" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W97" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X97" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y97" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13169,7 +13171,7 @@
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
     </row>
-    <row r="99" ht="35" spans="1:30">
+    <row r="99" ht="24" spans="1:30">
       <c r="A99" s="3">
         <v>3</v>
       </c>
@@ -13197,11 +13199,11 @@
       </c>
       <c r="J99" s="12">
         <f ca="1" t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="10">
         <f t="shared" si="16"/>
@@ -13215,43 +13217,43 @@
       </c>
       <c r="O99" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303098</v>
+        <v/>
       </c>
       <c r="P99" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "I felt really lonely with my relatives" ?</v>
+        <v/>
       </c>
       <c r="Q99" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R99" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S99" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T99" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303098</v>
       </c>
       <c r="U99" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "I couldn’t be less alone among my relatives" ?</v>
       </c>
       <c r="V99" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W99" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X99" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y99" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13557,7 +13559,7 @@
       <c r="AC102" s="12"/>
       <c r="AD102" s="12"/>
     </row>
-    <row r="103" ht="35" spans="1:30">
+    <row r="103" ht="24" spans="1:30">
       <c r="A103" s="3">
         <v>3</v>
       </c>
@@ -13682,11 +13684,11 @@
       </c>
       <c r="J104" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" s="10">
         <f t="shared" si="16"/>
@@ -13700,43 +13702,43 @@
       </c>
       <c r="O104" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303103</v>
       </c>
       <c r="P104" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "one's wife or husband" ?</v>
       </c>
       <c r="Q104" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R104" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S104" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T104" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303103</v>
+        <v/>
       </c>
       <c r="U104" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "Better half" ?</v>
+        <v/>
       </c>
       <c r="V104" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W104" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X104" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y104" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13751,7 +13753,7 @@
       <c r="AC104" s="12"/>
       <c r="AD104" s="12"/>
     </row>
-    <row r="105" ht="24" spans="1:30">
+    <row r="105" ht="35" spans="1:30">
       <c r="A105" s="3">
         <v>3</v>
       </c>
@@ -13779,11 +13781,11 @@
       </c>
       <c r="J105" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" s="10">
         <f t="shared" si="16"/>
@@ -13797,43 +13799,43 @@
       </c>
       <c r="O105" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303104</v>
       </c>
       <c r="P105" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He left with more sorrow than anger." ?</v>
       </c>
       <c r="Q105" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R105" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S105" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T105" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303104</v>
+        <v/>
       </c>
       <c r="U105" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He left, more in sorrow than in anger" ?</v>
+        <v/>
       </c>
       <c r="V105" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W105" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X105" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y105" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13848,7 +13850,7 @@
       <c r="AC105" s="12"/>
       <c r="AD105" s="12"/>
     </row>
-    <row r="106" ht="24" spans="1:30">
+    <row r="106" ht="35" spans="1:30">
       <c r="A106" s="3">
         <v>3</v>
       </c>
@@ -14361,11 +14363,11 @@
       </c>
       <c r="J111" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="10">
         <f t="shared" si="16"/>
@@ -14379,43 +14381,43 @@
       </c>
       <c r="O111" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303110</v>
+        <v/>
       </c>
       <c r="P111" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "I don't talk politics with others." ?</v>
+        <v/>
       </c>
       <c r="Q111" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R111" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S111" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T111" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303110</v>
       </c>
       <c r="U111" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "I keep my politics to myself" ?</v>
       </c>
       <c r="V111" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W111" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X111" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y111" s="10" t="str">
         <f t="shared" si="25"/>
@@ -14749,11 +14751,11 @@
       </c>
       <c r="J115" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" s="10">
         <f t="shared" si="16"/>
@@ -14767,43 +14769,43 @@
       </c>
       <c r="O115" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303114</v>
       </c>
       <c r="P115" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "The problem will solve itself." ?</v>
       </c>
       <c r="Q115" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R115" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S115" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T115" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303114</v>
+        <v/>
       </c>
       <c r="U115" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "The problem will work itself out" ?</v>
+        <v/>
       </c>
       <c r="V115" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W115" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X115" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y115" s="10" t="str">
         <f t="shared" si="25"/>
@@ -14846,11 +14848,11 @@
       </c>
       <c r="J116" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" s="10">
         <f t="shared" si="16"/>
@@ -14864,43 +14866,43 @@
       </c>
       <c r="O116" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303115</v>
+        <v/>
       </c>
       <c r="P116" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "The result is so obvious that doesn't need to be explained." ?</v>
+        <v/>
       </c>
       <c r="Q116" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R116" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S116" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T116" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303115</v>
       </c>
       <c r="U116" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "The result speaks for itself" ?</v>
       </c>
       <c r="V116" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W116" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X116" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y116" s="10" t="str">
         <f t="shared" si="25"/>
@@ -14915,7 +14917,7 @@
       <c r="AC116" s="12"/>
       <c r="AD116" s="12"/>
     </row>
-    <row r="117" ht="35" spans="1:30">
+    <row r="117" ht="24" spans="1:30">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -15040,11 +15042,11 @@
       </c>
       <c r="J118" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" s="10">
         <f t="shared" si="16"/>
@@ -15058,43 +15060,43 @@
       </c>
       <c r="O118" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303117</v>
       </c>
       <c r="P118" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "He tried to do too many things that beyond are his reach." ?</v>
       </c>
       <c r="Q118" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R118" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S118" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T118" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303117</v>
+        <v/>
       </c>
       <c r="U118" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "He overreached himself." ?</v>
+        <v/>
       </c>
       <c r="V118" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W118" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X118" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y118" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15109,7 +15111,7 @@
       <c r="AC118" s="12"/>
       <c r="AD118" s="12"/>
     </row>
-    <row r="119" ht="24" spans="1:30">
+    <row r="119" ht="35" spans="1:30">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -15137,11 +15139,11 @@
       </c>
       <c r="J119" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="10">
         <f t="shared" si="16"/>
@@ -15155,43 +15157,43 @@
       </c>
       <c r="O119" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303118</v>
+        <v/>
       </c>
       <c r="P119" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "He tried to do too many things that beyond are his reach." ?</v>
+        <v/>
       </c>
       <c r="Q119" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R119" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S119" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T119" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303118</v>
       </c>
       <c r="U119" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "He overstretched himself." ?</v>
       </c>
       <c r="V119" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W119" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X119" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y119" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15234,11 +15236,11 @@
       </c>
       <c r="J120" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" s="10">
         <f t="shared" si="16"/>
@@ -15252,43 +15254,43 @@
       </c>
       <c r="O120" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303119</v>
       </c>
       <c r="P120" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "How do you live with your conscience after betraying your principles?" ?</v>
       </c>
       <c r="Q120" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R120" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S120" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T120" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303119</v>
+        <v/>
       </c>
       <c r="U120" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "How do you live with yourself after betraying your principles?" ?</v>
+        <v/>
       </c>
       <c r="V120" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W120" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X120" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y120" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15432,11 +15434,11 @@
       </c>
       <c r="J122" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122" s="10">
         <f t="shared" si="16"/>
@@ -15450,43 +15452,43 @@
       </c>
       <c r="O122" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303121</v>
       </c>
       <c r="P122" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "She danced so well that the audience loved her." ?</v>
       </c>
       <c r="Q122" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R122" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S122" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T122" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303121</v>
+        <v/>
       </c>
       <c r="U122" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "She danced herself into the hearts of the audience" ?</v>
+        <v/>
       </c>
       <c r="V122" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W122" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X122" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y122" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15598,7 +15600,7 @@
       <c r="AC123" s="10"/>
       <c r="AD123" s="10"/>
     </row>
-    <row r="124" ht="35" spans="1:30">
+    <row r="124" ht="24" spans="1:30">
       <c r="A124" s="3">
         <v>3</v>
       </c>
@@ -15723,11 +15725,11 @@
       </c>
       <c r="J125" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="10">
         <f t="shared" si="16"/>
@@ -15741,43 +15743,43 @@
       </c>
       <c r="O125" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303124</v>
+        <v/>
       </c>
       <c r="P125" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "Don't think you are so important." ?</v>
+        <v/>
       </c>
       <c r="Q125" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R125" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S125" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T125" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303124</v>
       </c>
       <c r="U125" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "Don’t take yourself too seriously" ?</v>
       </c>
       <c r="V125" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W125" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X125" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y125" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15820,11 +15822,11 @@
       </c>
       <c r="J126" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" s="10">
         <f t="shared" si="16"/>
@@ -15838,43 +15840,43 @@
       </c>
       <c r="O126" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v>L20303125</v>
+        <v/>
       </c>
       <c r="P126" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v>What is the concept of "My mother took the responsibility of teaching me" ?</v>
+        <v/>
       </c>
       <c r="Q126" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R126" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S126" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T126" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v/>
+        <v>L30303125</v>
       </c>
       <c r="U126" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v/>
+        <v>What is the meaning of "My mother took it upon herself to teach me" ?</v>
       </c>
       <c r="V126" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W126" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X126" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y126" s="10" t="str">
         <f t="shared" si="25"/>
@@ -15917,11 +15919,11 @@
       </c>
       <c r="J127" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="10">
         <f ca="1" t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" s="10">
         <f t="shared" si="16"/>
@@ -15935,43 +15937,43 @@
       </c>
       <c r="O127" s="10" t="str">
         <f ca="1" t="shared" si="27"/>
-        <v/>
+        <v>L20303126</v>
       </c>
       <c r="P127" s="10" t="str">
         <f ca="1" t="shared" si="17"/>
-        <v/>
+        <v>What is the concept of "Watercolor makes it easier to reproduce." ?</v>
       </c>
       <c r="Q127" s="10" t="str">
         <f ca="1" t="shared" si="18"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R127" s="10" t="str">
         <f ca="1" t="shared" si="19"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S127" s="10" t="str">
         <f ca="1" t="shared" si="20"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T127" s="10" t="str">
         <f ca="1" t="shared" si="28"/>
-        <v>L30303126</v>
+        <v/>
       </c>
       <c r="U127" s="10" t="str">
         <f ca="1" t="shared" si="21"/>
-        <v>What is the meaning of "Watercolor lends itself to reproduction" ?</v>
+        <v/>
       </c>
       <c r="V127" s="10" t="str">
         <f ca="1" t="shared" si="22"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W127" s="10" t="str">
         <f ca="1" t="shared" si="23"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X127" s="10" t="str">
         <f ca="1" t="shared" si="24"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y127" s="10" t="str">
         <f t="shared" si="25"/>
@@ -16368,7 +16370,7 @@
       <c r="AC131" s="10"/>
       <c r="AD131" s="10"/>
     </row>
-    <row r="132" ht="47" spans="1:30">
+    <row r="132" ht="24" spans="1:30">
       <c r="A132" s="3">
         <v>3</v>
       </c>
@@ -16463,7 +16465,7 @@
       <c r="AC132" s="10"/>
       <c r="AD132" s="10"/>
     </row>
-    <row r="133" ht="24" spans="1:30">
+    <row r="133" ht="35" spans="1:30">
       <c r="A133" s="3">
         <v>3</v>
       </c>
@@ -16489,11 +16491,11 @@
       </c>
       <c r="J133" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" s="10">
         <f t="shared" si="31"/>
@@ -16507,43 +16509,43 @@
       </c>
       <c r="O133" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304132</v>
+        <v/>
       </c>
       <c r="P133" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "a travel season between peak and low seasons" ?</v>
+        <v/>
       </c>
       <c r="Q133" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R133" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S133" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T133" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304132</v>
       </c>
       <c r="U133" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "shoulder season" ?</v>
       </c>
       <c r="V133" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W133" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X133" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y133" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16558,7 +16560,7 @@
       <c r="AC133" s="10"/>
       <c r="AD133" s="10"/>
     </row>
-    <row r="134" ht="35" spans="1:30">
+    <row r="134" ht="24" spans="1:30">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -16679,11 +16681,11 @@
       </c>
       <c r="J135" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" s="10">
         <f t="shared" si="31"/>
@@ -16697,43 +16699,43 @@
       </c>
       <c r="O135" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304134</v>
       </c>
       <c r="P135" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "saying or doing something in the seeks of peace" ?</v>
       </c>
       <c r="Q135" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R135" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S135" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T135" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304134</v>
+        <v/>
       </c>
       <c r="U135" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "extend an olive branch" ?</v>
+        <v/>
       </c>
       <c r="V135" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W135" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X135" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y135" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16774,11 +16776,11 @@
       </c>
       <c r="J136" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" s="10">
         <f t="shared" si="31"/>
@@ -16792,43 +16794,43 @@
       </c>
       <c r="O136" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304135</v>
+        <v/>
       </c>
       <c r="P136" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "A period of time working at night " ?</v>
+        <v/>
       </c>
       <c r="Q136" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R136" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S136" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T136" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304135</v>
       </c>
       <c r="U136" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "graveyard shift" ?</v>
       </c>
       <c r="V136" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W136" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X136" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y136" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16843,7 +16845,7 @@
       <c r="AC136" s="10"/>
       <c r="AD136" s="10"/>
     </row>
-    <row r="137" ht="35" spans="1:30">
+    <row r="137" ht="24" spans="1:30">
       <c r="A137" s="3">
         <v>3</v>
       </c>
@@ -16869,11 +16871,11 @@
       </c>
       <c r="J137" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137" s="10">
         <f t="shared" si="31"/>
@@ -16887,43 +16889,43 @@
       </c>
       <c r="O137" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304136</v>
       </c>
       <c r="P137" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "an event or a period of time that marks an important change" ?</v>
       </c>
       <c r="Q137" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R137" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S137" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T137" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304136</v>
+        <v/>
       </c>
       <c r="U137" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "watershed" ?</v>
+        <v/>
       </c>
       <c r="V137" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W137" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X137" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y137" s="10" t="str">
         <f t="shared" si="40"/>
@@ -16938,7 +16940,7 @@
       <c r="AC137" s="10"/>
       <c r="AD137" s="10"/>
     </row>
-    <row r="138" ht="35" spans="1:30">
+    <row r="138" ht="58" spans="1:30">
       <c r="A138" s="3">
         <v>3</v>
       </c>
@@ -17059,11 +17061,11 @@
       </c>
       <c r="J139" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" s="10">
         <f t="shared" si="31"/>
@@ -17077,43 +17079,43 @@
       </c>
       <c r="O139" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304138</v>
+        <v/>
       </c>
       <c r="P139" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "the first known carrier of infection in an outbreak" ?</v>
+        <v/>
       </c>
       <c r="Q139" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R139" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S139" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T139" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304138</v>
       </c>
       <c r="U139" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "patient zero" ?</v>
       </c>
       <c r="V139" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W139" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X139" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y139" s="10" t="str">
         <f t="shared" si="40"/>
@@ -17249,11 +17251,11 @@
       </c>
       <c r="J141" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" s="10">
         <f t="shared" si="31"/>
@@ -17267,43 +17269,43 @@
       </c>
       <c r="O141" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304140</v>
       </c>
       <c r="P141" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "a game where people fire a gun with only one bullet at their head without knowing whether it will kill them" ?</v>
       </c>
       <c r="Q141" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R141" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S141" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T141" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304140</v>
+        <v/>
       </c>
       <c r="U141" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "russian roulette" ?</v>
+        <v/>
       </c>
       <c r="V141" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W141" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X141" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y141" s="10" t="str">
         <f t="shared" si="40"/>
@@ -17439,11 +17441,11 @@
       </c>
       <c r="J143" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L143" s="10">
         <f t="shared" si="31"/>
@@ -17457,43 +17459,43 @@
       </c>
       <c r="O143" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304142</v>
       </c>
       <c r="P143" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "An effect whereby an event or action causes several other events to happen one after the other" ?</v>
       </c>
       <c r="Q143" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R143" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S143" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T143" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304142</v>
+        <v/>
       </c>
       <c r="U143" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "ripple effect" ?</v>
+        <v/>
       </c>
       <c r="V143" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W143" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X143" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y143" s="10" t="str">
         <f t="shared" si="40"/>
@@ -17508,7 +17510,7 @@
       <c r="AC143" s="12"/>
       <c r="AD143" s="12"/>
     </row>
-    <row r="144" ht="24" spans="1:30">
+    <row r="144" ht="35" spans="1:30">
       <c r="A144" s="3">
         <v>3</v>
       </c>
@@ -17603,7 +17605,7 @@
       <c r="AC144" s="12"/>
       <c r="AD144" s="12"/>
     </row>
-    <row r="145" ht="24" spans="1:30">
+    <row r="145" ht="35" spans="1:30">
       <c r="A145" s="3">
         <v>3</v>
       </c>
@@ -17724,11 +17726,11 @@
       </c>
       <c r="J146" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K146" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146" s="10">
         <f t="shared" si="31"/>
@@ -17742,43 +17744,43 @@
       </c>
       <c r="O146" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304145</v>
       </c>
       <c r="P146" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "something you do easily" ?</v>
       </c>
       <c r="Q146" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R146" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S146" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T146" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304145</v>
+        <v/>
       </c>
       <c r="U146" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "Low-hanging fruit" ?</v>
+        <v/>
       </c>
       <c r="V146" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W146" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X146" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y146" s="10" t="str">
         <f t="shared" si="40"/>
@@ -17914,11 +17916,11 @@
       </c>
       <c r="J148" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148" s="10">
         <f t="shared" si="31"/>
@@ -17932,43 +17934,43 @@
       </c>
       <c r="O148" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304147</v>
       </c>
       <c r="P148" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "A list of things you want to do before you die" ?</v>
       </c>
       <c r="Q148" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R148" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S148" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T148" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304147</v>
+        <v/>
       </c>
       <c r="U148" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "Bucket list" ?</v>
+        <v/>
       </c>
       <c r="V148" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W148" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X148" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y148" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18104,11 +18106,11 @@
       </c>
       <c r="J150" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" s="10">
         <f t="shared" si="31"/>
@@ -18122,43 +18124,43 @@
       </c>
       <c r="O150" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304149</v>
+        <v/>
       </c>
       <c r="P150" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "a woman with whom a married man has an affair " ?</v>
+        <v/>
       </c>
       <c r="Q150" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R150" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S150" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T150" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304149</v>
       </c>
       <c r="U150" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "the other woman" ?</v>
       </c>
       <c r="V150" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W150" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X150" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y150" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18199,11 +18201,11 @@
       </c>
       <c r="J151" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" s="10">
         <f t="shared" si="31"/>
@@ -18217,43 +18219,43 @@
       </c>
       <c r="O151" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304150</v>
       </c>
       <c r="P151" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "lucky as born in a rich family" ?</v>
       </c>
       <c r="Q151" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R151" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S151" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T151" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304150</v>
+        <v/>
       </c>
       <c r="U151" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "lucky sperm club" ?</v>
+        <v/>
       </c>
       <c r="V151" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W151" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X151" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y151" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18268,7 +18270,7 @@
       <c r="AC151" s="12"/>
       <c r="AD151" s="12"/>
     </row>
-    <row r="152" ht="24" spans="1:30">
+    <row r="152" ht="35" spans="1:30">
       <c r="A152" s="3">
         <v>3</v>
       </c>
@@ -18294,11 +18296,11 @@
       </c>
       <c r="J152" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" s="10">
         <f t="shared" si="31"/>
@@ -18312,43 +18314,43 @@
       </c>
       <c r="O152" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304151</v>
+        <v/>
       </c>
       <c r="P152" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "the raised flat area beside the track for getting on or off the train" ?</v>
+        <v/>
       </c>
       <c r="Q152" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R152" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S152" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T152" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304151</v>
       </c>
       <c r="U152" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "platform" ?</v>
       </c>
       <c r="V152" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W152" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X152" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y152" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18363,7 +18365,7 @@
       <c r="AC152" s="12"/>
       <c r="AD152" s="12"/>
     </row>
-    <row r="153" ht="35" spans="1:30">
+    <row r="153" ht="58" spans="1:30">
       <c r="A153" s="3">
         <v>3</v>
       </c>
@@ -18389,11 +18391,11 @@
       </c>
       <c r="J153" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" s="10">
         <f t="shared" si="31"/>
@@ -18407,43 +18409,43 @@
       </c>
       <c r="O153" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v>L20304152</v>
+        <v/>
       </c>
       <c r="P153" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v>What is the concept of "a run-up in housing prices fueled by demand, speculation, and exuberant spending to the point of collapse" ?</v>
+        <v/>
       </c>
       <c r="Q153" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="R153" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="S153" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="T153" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v/>
+        <v>L30304152</v>
       </c>
       <c r="U153" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v/>
+        <v>What is the meaning of "housing bubble" ?</v>
       </c>
       <c r="V153" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="W153" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="X153" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="Y153" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18458,7 +18460,7 @@
       <c r="AC153" s="12"/>
       <c r="AD153" s="12"/>
     </row>
-    <row r="154" ht="47" spans="1:30">
+    <row r="154" ht="24" spans="1:30">
       <c r="A154" s="3">
         <v>3</v>
       </c>
@@ -18484,11 +18486,11 @@
       </c>
       <c r="J154" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154" s="10">
         <f t="shared" si="31"/>
@@ -18502,43 +18504,43 @@
       </c>
       <c r="O154" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304153</v>
       </c>
       <c r="P154" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "A president whose period of office will soon end and will not be elected again" ?</v>
       </c>
       <c r="Q154" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R154" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S154" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T154" s="10" t="str">
         <f ca="1" t="shared" si="43"/>
-        <v>L30304153</v>
+        <v/>
       </c>
       <c r="U154" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "lame duck president" ?</v>
+        <v/>
       </c>
       <c r="V154" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W154" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X154" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y154" s="10" t="str">
         <f t="shared" si="40"/>
@@ -18648,7 +18650,7 @@
       <c r="AC155" s="12"/>
       <c r="AD155" s="12"/>
     </row>
-    <row r="156" ht="35" spans="1:30">
+    <row r="156" ht="47" spans="1:30">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -18743,7 +18745,7 @@
       <c r="AC156" s="12"/>
       <c r="AD156" s="12"/>
     </row>
-    <row r="157" ht="24" spans="1:30">
+    <row r="157" ht="35" spans="1:30">
       <c r="A157" s="3">
         <v>3</v>
       </c>
@@ -18864,11 +18866,11 @@
       </c>
       <c r="J158" s="12">
         <f ca="1" t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" s="10">
         <f ca="1" t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L158" s="10">
         <f t="shared" si="31"/>
@@ -18882,43 +18884,43 @@
       </c>
       <c r="O158" s="10" t="str">
         <f ca="1" t="shared" si="42"/>
-        <v/>
+        <v>L20304157</v>
       </c>
       <c r="P158" s="10" t="str">
         <f ca="1" t="shared" si="32"/>
-        <v/>
+        <v>What is the concept of "a heterosexual guy" ?</v>
       </c>
       <c r="Q158" s="10" t="str">
         <f ca="1" t="shared" si="33"/>
-        <v/>
+        <v>wrong option1</v>
       </c>
       <c r="R158" s="10" t="str">
         <f ca="1" t="shared" si="34"/>
-        <v/>
+        <v>wrong option2</v>
       </c>
       <c r="S158" s="10" t="str">
         <f ca="1" t="shared" si="35"/>
-        <v/>
+        <v>wrong option3</v>
       </c>
       <c r="T158" s="10" t="str">
         <f ca="1" t="shared" si="44"/>
-        <v>L30304157</v>
+        <v/>
       </c>
       <c r="U158" s="10" t="str">
         <f ca="1" t="shared" si="36"/>
-        <v>What is the meaning of "straight guy" ?</v>
+        <v/>
       </c>
       <c r="V158" s="10" t="str">
         <f ca="1" t="shared" si="37"/>
-        <v>wrong option1</v>
+        <v/>
       </c>
       <c r="W158" s="10" t="str">
         <f ca="1" t="shared" si="38"/>
-        <v>wrong option2</v>
+        <v/>
       </c>
       <c r="X158" s="10" t="str">
         <f ca="1" t="shared" si="39"/>
-        <v>wrong option3</v>
+        <v/>
       </c>
       <c r="Y158" s="10" t="str">
         <f t="shared" si="40"/>

--- a/miniproject/template/Lectures/Lecture 3.xlsx
+++ b/miniproject/template/Lectures/Lecture 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dora\Desktop\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_AGI\Documents\GitHub\AI_teaching_project\miniproject\template\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FDCE86-D241-4E9D-88E6-70F69C285F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B5C7A7-F910-4433-83A1-7DD263E06900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="450" windowWidth="18870" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3970,7 +3970,7 @@
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4019,11 +4019,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4035,7 +4035,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4108,7 +4108,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4117,7 +4117,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4633,37 +4633,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C148" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="10"/>
     <col min="2" max="2" width="8.6640625" style="8"/>
-    <col min="3" max="3" width="13.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.4140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.58203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" style="8" customWidth="1"/>
-    <col min="10" max="12" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="8.6640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="8" customWidth="1"/>
     <col min="17" max="17" width="11" style="8" customWidth="1"/>
-    <col min="18" max="18" width="23.25" style="8" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="11.4140625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="12.58203125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="13.5" style="8" customWidth="1"/>
-    <col min="23" max="23" width="20.4140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" style="8" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="20.44140625" style="8" customWidth="1"/>
     <col min="24" max="27" width="8" style="8"/>
     <col min="28" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="23" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>825</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
     </row>
-    <row r="2" spans="1:28" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="40.950000000000003" customHeight="1">
       <c r="A2" s="8">
         <v>3</v>
       </c>
@@ -4772,8 +4772,12 @@
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
       <c r="O2" s="12" t="s">
         <v>837</v>
       </c>
@@ -4806,7 +4810,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="39.6">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -4839,8 +4843,12 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
       <c r="O3" s="12" t="s">
         <v>837</v>
       </c>
@@ -4873,7 +4881,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="66">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4906,8 +4914,12 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
       <c r="O4" s="12" t="s">
         <v>844</v>
       </c>
@@ -4937,7 +4949,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="52.8">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4970,8 +4982,12 @@
       <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
       <c r="O5" s="12" t="s">
         <v>837</v>
       </c>
@@ -5004,7 +5020,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="52.8">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -5037,8 +5053,12 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
       <c r="O6" s="12" t="s">
         <v>837</v>
       </c>
@@ -5071,7 +5091,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="52.8">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -5104,8 +5124,12 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
       <c r="O7" s="12" t="s">
         <v>837</v>
       </c>
@@ -5138,7 +5162,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="26.4">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -5171,8 +5195,12 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="12" t="s">
         <v>837</v>
       </c>
@@ -5205,7 +5233,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="52.8">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -5240,8 +5268,12 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="12" t="s">
         <v>859</v>
       </c>
@@ -5271,7 +5303,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="52.8">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -5306,8 +5338,12 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
       <c r="O10" s="12" t="s">
         <v>837</v>
       </c>
@@ -5340,7 +5376,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="26.4">
       <c r="A11" s="10">
         <v>3</v>
       </c>
@@ -5375,8 +5411,12 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
       <c r="O11" s="12" t="s">
         <v>837</v>
       </c>
@@ -5409,7 +5449,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="52.8">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -5444,8 +5484,12 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
       <c r="O12" s="12" t="s">
         <v>867</v>
       </c>
@@ -5475,7 +5519,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="39.6">
       <c r="A13" s="10">
         <v>3</v>
       </c>
@@ -5510,8 +5554,12 @@
       <c r="L13" s="1">
         <v>1</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
       <c r="O13" s="12" t="s">
         <v>837</v>
       </c>
@@ -5544,7 +5592,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="65" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="66">
       <c r="A14" s="10">
         <v>3</v>
       </c>
@@ -5579,8 +5627,12 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
       <c r="O14" s="12" t="s">
         <v>873</v>
       </c>
@@ -5613,7 +5665,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="79.2">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -5648,8 +5700,12 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
       <c r="O15" s="12" t="s">
         <v>875</v>
       </c>
@@ -5682,7 +5738,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="39.6">
       <c r="A16" s="10">
         <v>3</v>
       </c>
@@ -5715,8 +5771,12 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
       <c r="O16" s="12" t="s">
         <v>837</v>
       </c>
@@ -5749,7 +5809,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="26.4">
       <c r="A17" s="10">
         <v>3</v>
       </c>
@@ -5782,8 +5842,12 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
       <c r="O17" s="12" t="s">
         <v>837</v>
       </c>
@@ -5816,7 +5880,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="26.4">
       <c r="A18" s="10">
         <v>3</v>
       </c>
@@ -5851,8 +5915,12 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
       <c r="O18" s="12" t="s">
         <v>837</v>
       </c>
@@ -5885,7 +5953,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="52.8">
       <c r="A19" s="10">
         <v>3</v>
       </c>
@@ -5918,8 +5986,12 @@
       <c r="L19" s="1">
         <v>1</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
       <c r="O19" s="12" t="s">
         <v>882</v>
       </c>
@@ -5952,7 +6024,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="39.6">
       <c r="A20" s="10">
         <v>3</v>
       </c>
@@ -5985,8 +6057,12 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
       <c r="O20" s="12" t="s">
         <v>837</v>
       </c>
@@ -6019,7 +6095,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="26.4">
       <c r="A21" s="10">
         <v>3</v>
       </c>
@@ -6054,8 +6130,12 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
       <c r="O21" s="12" t="s">
         <v>837</v>
       </c>
@@ -6088,7 +6168,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="52.8">
       <c r="A22" s="10">
         <v>3</v>
       </c>
@@ -6121,8 +6201,12 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
       <c r="O22" s="12" t="s">
         <v>890</v>
       </c>
@@ -6155,7 +6239,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="26.4">
       <c r="A23" s="10">
         <v>3</v>
       </c>
@@ -6190,8 +6274,12 @@
       <c r="L23" s="1">
         <v>1</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
       <c r="O23" s="12" t="s">
         <v>837</v>
       </c>
@@ -6224,7 +6312,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="66">
       <c r="A24" s="10">
         <v>3</v>
       </c>
@@ -6257,8 +6345,12 @@
       <c r="L24" s="1">
         <v>1</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
       <c r="O24" s="12" t="s">
         <v>896</v>
       </c>
@@ -6288,7 +6380,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="26.4">
       <c r="A25" s="10">
         <v>3</v>
       </c>
@@ -6321,8 +6413,12 @@
       <c r="L25" s="1">
         <v>1</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
       <c r="O25" s="12" t="s">
         <v>837</v>
       </c>
@@ -6355,7 +6451,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="52.8">
       <c r="A26" s="10">
         <v>3</v>
       </c>
@@ -6388,8 +6484,12 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
       <c r="O26" s="12" t="s">
         <v>904</v>
       </c>
@@ -6422,7 +6522,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="26.4">
       <c r="A27" s="10">
         <v>3</v>
       </c>
@@ -6455,8 +6555,12 @@
       <c r="L27" s="1">
         <v>1</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
       <c r="O27" s="12" t="s">
         <v>837</v>
       </c>
@@ -6489,7 +6593,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="39.6">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -6522,8 +6626,12 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
       <c r="O28" s="12" t="s">
         <v>837</v>
       </c>
@@ -6556,7 +6664,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="39.6">
       <c r="A29" s="10">
         <v>3</v>
       </c>
@@ -6591,8 +6699,12 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
       <c r="O29" s="12" t="s">
         <v>912</v>
       </c>
@@ -6625,7 +6737,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="52.8">
       <c r="A30" s="10">
         <v>3</v>
       </c>
@@ -6660,8 +6772,12 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
       <c r="O30" s="12" t="s">
         <v>837</v>
       </c>
@@ -6694,7 +6810,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="26.4">
       <c r="A31" s="10">
         <v>3</v>
       </c>
@@ -6729,8 +6845,12 @@
       <c r="L31" s="1">
         <v>1</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
       <c r="O31" s="12" t="s">
         <v>837</v>
       </c>
@@ -6763,7 +6883,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="66">
       <c r="A32" s="10">
         <v>3</v>
       </c>
@@ -6798,8 +6918,12 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
       <c r="O32" s="12" t="s">
         <v>920</v>
       </c>
@@ -6829,7 +6953,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="52.8">
       <c r="A33" s="10">
         <v>3</v>
       </c>
@@ -6864,8 +6988,12 @@
       <c r="L33" s="1">
         <v>1</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
       <c r="O33" s="12" t="s">
         <v>922</v>
       </c>
@@ -6895,7 +7023,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="39.6">
       <c r="A34" s="10">
         <v>3</v>
       </c>
@@ -6928,8 +7056,12 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
       <c r="O34" s="12" t="s">
         <v>837</v>
       </c>
@@ -6962,7 +7094,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="39.6">
       <c r="A35" s="10">
         <v>3</v>
       </c>
@@ -6995,8 +7127,12 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
       <c r="O35" s="12" t="s">
         <v>837</v>
       </c>
@@ -7029,7 +7165,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="66">
       <c r="A36" s="10">
         <v>3</v>
       </c>
@@ -7064,8 +7200,12 @@
       <c r="L36" s="1">
         <v>0</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="12" t="s">
         <v>930</v>
       </c>
@@ -7095,7 +7235,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="39.6">
       <c r="A37" s="10">
         <v>3</v>
       </c>
@@ -7128,8 +7268,12 @@
       <c r="L37" s="1">
         <v>1</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
       <c r="O37" s="12" t="s">
         <v>932</v>
       </c>
@@ -7162,7 +7306,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="39.6">
       <c r="A38" s="10">
         <v>3</v>
       </c>
@@ -7195,8 +7339,12 @@
       <c r="L38" s="1">
         <v>1</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
       <c r="O38" s="12" t="s">
         <v>938</v>
       </c>
@@ -7229,7 +7377,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="52.8">
       <c r="A39" s="10">
         <v>3</v>
       </c>
@@ -7262,8 +7410,12 @@
       <c r="L39" s="1">
         <v>1</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
       <c r="O39" s="12" t="s">
         <v>944</v>
       </c>
@@ -7296,7 +7448,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="52.8">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -7329,8 +7481,12 @@
       <c r="L40" s="1">
         <v>1</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
       <c r="O40" s="12" t="s">
         <v>950</v>
       </c>
@@ -7363,7 +7519,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="52.8">
       <c r="A41" s="10">
         <v>3</v>
       </c>
@@ -7396,8 +7552,12 @@
       <c r="L41" s="1">
         <v>1</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
       <c r="O41" s="12" t="s">
         <v>837</v>
       </c>
@@ -7430,7 +7590,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="52.8">
       <c r="A42" s="10">
         <v>3</v>
       </c>
@@ -7463,8 +7623,12 @@
       <c r="L42" s="1">
         <v>1</v>
       </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
       <c r="O42" s="12" t="s">
         <v>958</v>
       </c>
@@ -7497,7 +7661,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="39.6">
       <c r="A43" s="10">
         <v>3</v>
       </c>
@@ -7530,8 +7694,12 @@
       <c r="L43" s="1">
         <v>0</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
       <c r="O43" s="12" t="s">
         <v>837</v>
       </c>
@@ -7564,7 +7732,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="66">
       <c r="A44" s="10">
         <v>3</v>
       </c>
@@ -7597,8 +7765,12 @@
       <c r="L44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
       <c r="O44" s="12" t="s">
         <v>964</v>
       </c>
@@ -7628,7 +7800,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="39.6">
       <c r="A45" s="10">
         <v>3</v>
       </c>
@@ -7661,8 +7833,12 @@
       <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
       <c r="O45" s="12" t="s">
         <v>837</v>
       </c>
@@ -7695,7 +7871,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="52.8">
       <c r="A46" s="10">
         <v>3</v>
       </c>
@@ -7728,8 +7904,12 @@
       <c r="L46" s="1">
         <v>1</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
       <c r="O46" s="12" t="s">
         <v>968</v>
       </c>
@@ -7762,7 +7942,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="26.4">
       <c r="A47" s="10">
         <v>3</v>
       </c>
@@ -7795,8 +7975,12 @@
       <c r="L47" s="1">
         <v>1</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
       <c r="O47" s="12" t="s">
         <v>837</v>
       </c>
@@ -7829,7 +8013,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="26.4">
       <c r="A48" s="10">
         <v>3</v>
       </c>
@@ -7862,8 +8046,12 @@
       <c r="L48" s="1">
         <v>1</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
       <c r="O48" s="12" t="s">
         <v>837</v>
       </c>
@@ -7896,7 +8084,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="39.6">
       <c r="A49" s="10">
         <v>3</v>
       </c>
@@ -7929,8 +8117,12 @@
       <c r="L49" s="1">
         <v>1</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
       <c r="O49" s="12" t="s">
         <v>837</v>
       </c>
@@ -7963,7 +8155,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="39.6">
       <c r="A50" s="10">
         <v>3</v>
       </c>
@@ -7998,8 +8190,12 @@
       <c r="L50" s="1">
         <v>0</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
       <c r="O50" s="12" t="s">
         <v>837</v>
       </c>
@@ -8032,7 +8228,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="39.6">
       <c r="A51" s="10">
         <v>3</v>
       </c>
@@ -8065,8 +8261,12 @@
       <c r="L51" s="1">
         <v>1</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
       <c r="O51" s="12" t="s">
         <v>837</v>
       </c>
@@ -8099,7 +8299,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="66">
       <c r="A52" s="10">
         <v>3</v>
       </c>
@@ -8134,8 +8334,12 @@
       <c r="L52" s="1">
         <v>0</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
       <c r="O52" s="12" t="s">
         <v>990</v>
       </c>
@@ -8165,7 +8369,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="10">
         <v>3</v>
       </c>
@@ -8198,8 +8402,12 @@
       <c r="L53" s="1">
         <v>0</v>
       </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
       <c r="O53" s="12" t="s">
         <v>837</v>
       </c>
@@ -8232,7 +8440,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="79.2">
       <c r="A54" s="10">
         <v>3</v>
       </c>
@@ -8267,8 +8475,12 @@
       <c r="L54" s="1">
         <v>0</v>
       </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
       <c r="O54" s="12" t="s">
         <v>994</v>
       </c>
@@ -8298,7 +8510,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="92.4">
       <c r="A55" s="10">
         <v>3</v>
       </c>
@@ -8331,8 +8543,12 @@
       <c r="L55" s="1">
         <v>0</v>
       </c>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
       <c r="O55" s="12" t="s">
         <v>996</v>
       </c>
@@ -8362,7 +8578,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="66">
       <c r="A56" s="10">
         <v>3</v>
       </c>
@@ -8397,8 +8613,12 @@
       <c r="L56" s="1">
         <v>0</v>
       </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
       <c r="O56" s="12" t="s">
         <v>998</v>
       </c>
@@ -8431,7 +8651,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="10">
         <v>3</v>
       </c>
@@ -8463,8 +8683,12 @@
       <c r="L57" s="1">
         <v>1</v>
       </c>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
       <c r="O57" s="12" t="s">
         <v>837</v>
       </c>
@@ -8494,7 +8718,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="52.8">
       <c r="A58" s="10">
         <v>3</v>
       </c>
@@ -8529,8 +8753,12 @@
       <c r="L58" s="1">
         <v>0</v>
       </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
       <c r="O58" s="12" t="s">
         <v>837</v>
       </c>
@@ -8563,7 +8791,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="66">
       <c r="A59" s="10">
         <v>3</v>
       </c>
@@ -8598,8 +8826,12 @@
       <c r="L59" s="1">
         <v>0</v>
       </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
       <c r="O59" s="12" t="s">
         <v>1006</v>
       </c>
@@ -8632,7 +8864,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="39.6">
       <c r="A60" s="10">
         <v>3</v>
       </c>
@@ -8667,8 +8899,12 @@
       <c r="L60" s="1">
         <v>0</v>
       </c>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
       <c r="O60" s="12" t="s">
         <v>837</v>
       </c>
@@ -8701,7 +8937,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="79.2">
       <c r="A61" s="10">
         <v>3</v>
       </c>
@@ -8734,8 +8970,12 @@
       <c r="L61" s="1">
         <v>0</v>
       </c>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
       <c r="O61" s="12" t="s">
         <v>1010</v>
       </c>
@@ -8765,7 +9005,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="52.8">
       <c r="A62" s="10">
         <v>3</v>
       </c>
@@ -8800,8 +9040,12 @@
       <c r="L62" s="1">
         <v>1</v>
       </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
       <c r="O62" s="12" t="s">
         <v>837</v>
       </c>
@@ -8834,7 +9078,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="10">
         <v>3</v>
       </c>
@@ -8869,8 +9113,12 @@
       <c r="L63" s="1">
         <v>0</v>
       </c>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
       <c r="O63" s="12" t="s">
         <v>837</v>
       </c>
@@ -8903,7 +9151,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="39.6">
       <c r="A64" s="10">
         <v>3</v>
       </c>
@@ -8938,8 +9186,12 @@
       <c r="L64" s="1">
         <v>1</v>
       </c>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
       <c r="O64" s="12" t="s">
         <v>837</v>
       </c>
@@ -8972,7 +9224,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="92.4">
       <c r="A65" s="10">
         <v>3</v>
       </c>
@@ -9007,8 +9259,12 @@
       <c r="L65" s="1">
         <v>0</v>
       </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
       <c r="O65" s="12" t="s">
         <v>1022</v>
       </c>
@@ -9038,7 +9294,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="79.2">
       <c r="A66" s="10">
         <v>3</v>
       </c>
@@ -9073,8 +9329,12 @@
       <c r="L66" s="1">
         <v>0</v>
       </c>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
       <c r="O66" s="12" t="s">
         <v>1024</v>
       </c>
@@ -9107,7 +9367,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="105.6">
       <c r="A67" s="10">
         <v>3</v>
       </c>
@@ -9142,8 +9402,12 @@
       <c r="L67" s="1">
         <v>0</v>
       </c>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
       <c r="O67" s="12" t="s">
         <v>1026</v>
       </c>
@@ -9176,7 +9440,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="10">
         <v>3</v>
       </c>
@@ -9211,8 +9475,12 @@
       <c r="L68" s="1">
         <v>0</v>
       </c>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
       <c r="O68" s="12" t="s">
         <v>1028</v>
       </c>
@@ -9245,7 +9513,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="26.4">
       <c r="A69" s="10">
         <v>3</v>
       </c>
@@ -9280,8 +9548,12 @@
       <c r="L69" s="1">
         <v>0</v>
       </c>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
       <c r="O69" s="12" t="s">
         <v>837</v>
       </c>
@@ -9314,7 +9586,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="66">
       <c r="A70" s="10">
         <v>3</v>
       </c>
@@ -9349,8 +9621,12 @@
       <c r="L70" s="1">
         <v>0</v>
       </c>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
       <c r="O70" s="12" t="s">
         <v>1032</v>
       </c>
@@ -9383,7 +9659,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="26.4">
       <c r="A71" s="10">
         <v>3</v>
       </c>
@@ -9418,8 +9694,12 @@
       <c r="L71" s="1">
         <v>1</v>
       </c>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
       <c r="O71" s="12" t="s">
         <v>837</v>
       </c>
@@ -9452,7 +9732,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="92.4">
       <c r="A72" s="10">
         <v>3</v>
       </c>
@@ -9487,8 +9767,12 @@
       <c r="L72" s="1">
         <v>0</v>
       </c>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
       <c r="O72" s="12" t="s">
         <v>1038</v>
       </c>
@@ -9519,7 +9803,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="66">
       <c r="A73" s="10">
         <v>3</v>
       </c>
@@ -9554,8 +9838,12 @@
       <c r="L73" s="1">
         <v>0</v>
       </c>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
       <c r="O73" s="12" t="s">
         <v>837</v>
       </c>
@@ -9588,7 +9876,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="66">
       <c r="A74" s="10">
         <v>3</v>
       </c>
@@ -9623,8 +9911,12 @@
       <c r="L74" s="1">
         <v>0</v>
       </c>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
       <c r="O74" s="12" t="s">
         <v>1042</v>
       </c>
@@ -9655,7 +9947,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="52.8">
       <c r="A75" s="10">
         <v>3</v>
       </c>
@@ -9690,8 +9982,12 @@
       <c r="L75" s="1">
         <v>0</v>
       </c>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
       <c r="O75" s="12" t="s">
         <v>837</v>
       </c>
@@ -9724,7 +10020,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="66">
       <c r="A76" s="10">
         <v>3</v>
       </c>
@@ -9759,8 +10055,12 @@
       <c r="L76" s="1">
         <v>1</v>
       </c>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
       <c r="O76" s="12" t="s">
         <v>837</v>
       </c>
@@ -9793,7 +10093,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="66">
       <c r="A77" s="10">
         <v>3</v>
       </c>
@@ -9828,8 +10128,12 @@
       <c r="L77" s="1">
         <v>0</v>
       </c>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
       <c r="O77" s="12" t="s">
         <v>837</v>
       </c>
@@ -9862,7 +10166,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="39.6">
       <c r="A78" s="10">
         <v>3</v>
       </c>
@@ -9897,8 +10201,12 @@
       <c r="L78" s="1">
         <v>1</v>
       </c>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
       <c r="O78" s="12" t="s">
         <v>837</v>
       </c>
@@ -9931,7 +10239,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="39.6">
       <c r="A79" s="10">
         <v>3</v>
       </c>
@@ -9966,8 +10274,12 @@
       <c r="L79" s="1">
         <v>0</v>
       </c>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
       <c r="O79" s="12" t="s">
         <v>837</v>
       </c>
@@ -10000,7 +10312,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="39.6">
       <c r="A80" s="10">
         <v>3</v>
       </c>
@@ -10035,8 +10347,12 @@
       <c r="L80" s="1">
         <v>0</v>
       </c>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
       <c r="O80" s="12" t="s">
         <v>837</v>
       </c>
@@ -10069,7 +10385,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="52.8">
       <c r="A81" s="10">
         <v>3</v>
       </c>
@@ -10104,8 +10420,12 @@
       <c r="L81" s="1">
         <v>1</v>
       </c>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
       <c r="O81" s="12" t="s">
         <v>1060</v>
       </c>
@@ -10138,7 +10458,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="52.8">
       <c r="A82" s="10">
         <v>3</v>
       </c>
@@ -10173,8 +10493,12 @@
       <c r="L82" s="1">
         <v>0</v>
       </c>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0</v>
+      </c>
       <c r="O82" s="12" t="s">
         <v>837</v>
       </c>
@@ -10207,7 +10531,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="52.8">
       <c r="A83" s="10">
         <v>3</v>
       </c>
@@ -10242,8 +10566,12 @@
       <c r="L83" s="1">
         <v>1</v>
       </c>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
       <c r="O83" s="12" t="s">
         <v>1066</v>
       </c>
@@ -10273,7 +10601,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="39.6">
       <c r="A84" s="10">
         <v>3</v>
       </c>
@@ -10308,8 +10636,12 @@
       <c r="L84" s="1">
         <v>0</v>
       </c>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
       <c r="O84" s="12" t="s">
         <v>837</v>
       </c>
@@ -10342,7 +10674,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="66">
       <c r="A85" s="10">
         <v>3</v>
       </c>
@@ -10377,8 +10709,12 @@
       <c r="L85" s="1">
         <v>0</v>
       </c>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
       <c r="O85" s="12" t="s">
         <v>1072</v>
       </c>
@@ -10411,7 +10747,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" ht="52.8">
       <c r="A86" s="10">
         <v>3</v>
       </c>
@@ -10446,8 +10782,12 @@
       <c r="L86" s="1">
         <v>1</v>
       </c>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0</v>
+      </c>
       <c r="O86" s="12" t="s">
         <v>837</v>
       </c>
@@ -10480,7 +10820,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" ht="52.8">
       <c r="A87" s="10">
         <v>3</v>
       </c>
@@ -10515,8 +10855,12 @@
       <c r="L87" s="1">
         <v>0</v>
       </c>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
       <c r="O87" s="12" t="s">
         <v>1078</v>
       </c>
@@ -10546,7 +10890,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" ht="66">
       <c r="A88" s="10">
         <v>3</v>
       </c>
@@ -10581,8 +10925,12 @@
       <c r="L88" s="1">
         <v>1</v>
       </c>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
       <c r="O88" s="12" t="s">
         <v>837</v>
       </c>
@@ -10615,7 +10963,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" ht="66">
       <c r="A89" s="10">
         <v>3</v>
       </c>
@@ -10650,8 +10998,12 @@
       <c r="L89" s="1">
         <v>1</v>
       </c>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="M89" s="1">
+        <v>0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
       <c r="O89" s="12" t="s">
         <v>1084</v>
       </c>
@@ -10684,7 +11036,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" ht="52.8">
       <c r="A90" s="10">
         <v>3</v>
       </c>
@@ -10719,8 +11071,12 @@
       <c r="L90" s="1">
         <v>1</v>
       </c>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
       <c r="O90" s="12" t="s">
         <v>837</v>
       </c>
@@ -10753,7 +11109,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" ht="66">
       <c r="A91" s="10">
         <v>3</v>
       </c>
@@ -10788,8 +11144,12 @@
       <c r="L91" s="1">
         <v>1</v>
       </c>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
       <c r="O91" s="12" t="s">
         <v>837</v>
       </c>
@@ -10822,7 +11182,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" ht="66">
       <c r="A92" s="10">
         <v>3</v>
       </c>
@@ -10857,8 +11217,12 @@
       <c r="L92" s="1">
         <v>0</v>
       </c>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
       <c r="O92" s="12" t="s">
         <v>837</v>
       </c>
@@ -10891,7 +11255,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" ht="39.6">
       <c r="A93" s="10">
         <v>3</v>
       </c>
@@ -10926,8 +11290,12 @@
       <c r="L93" s="1">
         <v>0</v>
       </c>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
       <c r="O93" s="12" t="s">
         <v>837</v>
       </c>
@@ -10960,7 +11328,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="91" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" ht="92.4">
       <c r="A94" s="10">
         <v>3</v>
       </c>
@@ -10995,8 +11363,12 @@
       <c r="L94" s="1">
         <v>0</v>
       </c>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
       <c r="O94" s="12" t="s">
         <v>1100</v>
       </c>
@@ -11026,7 +11398,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" ht="79.2">
       <c r="A95" s="10">
         <v>3</v>
       </c>
@@ -11061,8 +11433,12 @@
       <c r="L95" s="1">
         <v>0</v>
       </c>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="M95" s="1">
+        <v>0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
       <c r="O95" s="12" t="s">
         <v>1102</v>
       </c>
@@ -11095,7 +11471,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="52.8">
       <c r="A96" s="10">
         <v>3</v>
       </c>
@@ -11130,8 +11506,12 @@
       <c r="L96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
       <c r="O96" s="12" t="s">
         <v>1104</v>
       </c>
@@ -11164,7 +11544,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" ht="66">
       <c r="A97" s="10">
         <v>3</v>
       </c>
@@ -11199,8 +11579,12 @@
       <c r="L97" s="1">
         <v>0</v>
       </c>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
       <c r="O97" s="12" t="s">
         <v>837</v>
       </c>
@@ -11233,7 +11617,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="66">
       <c r="A98" s="10">
         <v>3</v>
       </c>
@@ -11268,8 +11652,12 @@
       <c r="L98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
       <c r="O98" s="12" t="s">
         <v>1108</v>
       </c>
@@ -11302,7 +11690,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" ht="79.2">
       <c r="A99" s="10">
         <v>3</v>
       </c>
@@ -11337,8 +11725,12 @@
       <c r="L99" s="1">
         <v>0</v>
       </c>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0</v>
+      </c>
       <c r="O99" s="12" t="s">
         <v>837</v>
       </c>
@@ -11371,7 +11763,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" ht="105.6">
       <c r="A100" s="10">
         <v>3</v>
       </c>
@@ -11406,8 +11798,12 @@
       <c r="L100" s="1">
         <v>0</v>
       </c>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0</v>
+      </c>
       <c r="O100" s="12" t="s">
         <v>1112</v>
       </c>
@@ -11440,7 +11836,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" ht="52.8">
       <c r="A101" s="10">
         <v>3</v>
       </c>
@@ -11475,8 +11871,12 @@
       <c r="L101" s="1">
         <v>1</v>
       </c>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
       <c r="O101" s="12" t="s">
         <v>1114</v>
       </c>
@@ -11509,7 +11909,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="66">
       <c r="A102" s="10">
         <v>3</v>
       </c>
@@ -11544,8 +11944,12 @@
       <c r="L102" s="1">
         <v>1</v>
       </c>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
       <c r="O102" s="12" t="s">
         <v>1118</v>
       </c>
@@ -11578,7 +11982,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="66">
       <c r="A103" s="10">
         <v>3</v>
       </c>
@@ -11613,8 +12017,12 @@
       <c r="L103" s="1">
         <v>0</v>
       </c>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
+      <c r="M103" s="1">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0</v>
+      </c>
       <c r="O103" s="12" t="s">
         <v>1122</v>
       </c>
@@ -11647,7 +12055,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="66">
       <c r="A104" s="10">
         <v>3</v>
       </c>
@@ -11682,8 +12090,12 @@
       <c r="L104" s="1">
         <v>0</v>
       </c>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
+      <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0</v>
+      </c>
       <c r="O104" s="12" t="s">
         <v>837</v>
       </c>
@@ -11716,7 +12128,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="66">
       <c r="A105" s="10">
         <v>3</v>
       </c>
@@ -11751,8 +12163,12 @@
       <c r="L105" s="1">
         <v>0</v>
       </c>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
       <c r="O105" s="12" t="s">
         <v>1126</v>
       </c>
@@ -11785,7 +12201,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="66">
       <c r="A106" s="10">
         <v>3</v>
       </c>
@@ -11820,8 +12236,12 @@
       <c r="L106" s="1">
         <v>0</v>
       </c>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
       <c r="O106" s="12" t="s">
         <v>1128</v>
       </c>
@@ -11854,7 +12274,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="79.2">
       <c r="A107" s="10">
         <v>3</v>
       </c>
@@ -11889,8 +12309,12 @@
       <c r="L107" s="1">
         <v>0</v>
       </c>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
       <c r="O107" s="12" t="s">
         <v>1130</v>
       </c>
@@ -11923,7 +12347,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="66">
       <c r="A108" s="10">
         <v>3</v>
       </c>
@@ -11958,8 +12382,12 @@
       <c r="L108" s="1">
         <v>0</v>
       </c>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>0</v>
+      </c>
       <c r="O108" s="12" t="s">
         <v>837</v>
       </c>
@@ -11992,7 +12420,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" ht="66">
       <c r="A109" s="10">
         <v>3</v>
       </c>
@@ -12027,8 +12455,12 @@
       <c r="L109" s="1">
         <v>0</v>
       </c>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
+      <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>0</v>
+      </c>
       <c r="O109" s="12" t="s">
         <v>837</v>
       </c>
@@ -12061,7 +12493,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" ht="105.6">
       <c r="A110" s="10">
         <v>3</v>
       </c>
@@ -12096,8 +12528,12 @@
       <c r="L110" s="1">
         <v>0</v>
       </c>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
+      <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0</v>
+      </c>
       <c r="O110" s="12" t="s">
         <v>1136</v>
       </c>
@@ -12130,7 +12566,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" ht="66">
       <c r="A111" s="10">
         <v>3</v>
       </c>
@@ -12165,8 +12601,12 @@
       <c r="L111" s="1">
         <v>1</v>
       </c>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
+      <c r="M111" s="1">
+        <v>0</v>
+      </c>
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
       <c r="O111" s="12" t="s">
         <v>1138</v>
       </c>
@@ -12199,7 +12639,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" ht="66">
       <c r="A112" s="10">
         <v>3</v>
       </c>
@@ -12234,8 +12674,12 @@
       <c r="L112" s="1">
         <v>0</v>
       </c>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
+      <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
       <c r="O112" s="12" t="s">
         <v>1142</v>
       </c>
@@ -12268,7 +12712,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" ht="26.4">
       <c r="A113" s="10">
         <v>3</v>
       </c>
@@ -12303,8 +12747,12 @@
       <c r="L113" s="1">
         <v>0</v>
       </c>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
       <c r="O113" s="12" t="s">
         <v>837</v>
       </c>
@@ -12337,7 +12785,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" ht="66">
       <c r="A114" s="10">
         <v>3</v>
       </c>
@@ -12372,8 +12820,12 @@
       <c r="L114" s="1">
         <v>0</v>
       </c>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
+      <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0</v>
+      </c>
       <c r="O114" s="12" t="s">
         <v>837</v>
       </c>
@@ -12406,7 +12858,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" ht="66">
       <c r="A115" s="10">
         <v>3</v>
       </c>
@@ -12441,8 +12893,12 @@
       <c r="L115" s="1">
         <v>0</v>
       </c>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
+      <c r="M115" s="1">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>0</v>
+      </c>
       <c r="O115" s="12" t="s">
         <v>1148</v>
       </c>
@@ -12475,7 +12931,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" ht="66">
       <c r="A116" s="10">
         <v>3</v>
       </c>
@@ -12510,8 +12966,12 @@
       <c r="L116" s="1">
         <v>0</v>
       </c>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
+      <c r="M116" s="1">
+        <v>0</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0</v>
+      </c>
       <c r="O116" s="12" t="s">
         <v>1150</v>
       </c>
@@ -12544,7 +13004,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" ht="66">
       <c r="A117" s="10">
         <v>3</v>
       </c>
@@ -12579,8 +13039,12 @@
       <c r="L117" s="1">
         <v>0</v>
       </c>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
       <c r="O117" s="12" t="s">
         <v>1152</v>
       </c>
@@ -12613,7 +13077,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" ht="39.6">
       <c r="A118" s="10">
         <v>3</v>
       </c>
@@ -12648,8 +13112,12 @@
       <c r="L118" s="1">
         <v>0</v>
       </c>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
       <c r="O118" s="12" t="s">
         <v>837</v>
       </c>
@@ -12682,7 +13150,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" ht="78" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" ht="92.4">
       <c r="A119" s="10">
         <v>3</v>
       </c>
@@ -12717,8 +13185,12 @@
       <c r="L119" s="1">
         <v>0</v>
       </c>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
       <c r="O119" s="12" t="s">
         <v>1156</v>
       </c>
@@ -12751,7 +13223,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" ht="79.2">
       <c r="A120" s="10">
         <v>3</v>
       </c>
@@ -12788,8 +13260,12 @@
       <c r="L120" s="1">
         <v>0</v>
       </c>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
+      <c r="M120" s="1">
+        <v>0</v>
+      </c>
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
       <c r="O120" s="12" t="s">
         <v>1157</v>
       </c>
@@ -12822,7 +13298,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" ht="52.8">
       <c r="A121" s="10">
         <v>3</v>
       </c>
@@ -12857,8 +13333,12 @@
       <c r="L121" s="1">
         <v>0</v>
       </c>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
+      <c r="M121" s="1">
+        <v>0</v>
+      </c>
+      <c r="N121" s="1">
+        <v>0</v>
+      </c>
       <c r="O121" s="12" t="s">
         <v>1159</v>
       </c>
@@ -12891,7 +13371,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" ht="66">
       <c r="A122" s="10">
         <v>3</v>
       </c>
@@ -12926,8 +13406,12 @@
       <c r="L122" s="1">
         <v>0</v>
       </c>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="N122" s="1">
+        <v>0</v>
+      </c>
       <c r="O122" s="12" t="s">
         <v>1161</v>
       </c>
@@ -12960,7 +13444,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" ht="66">
       <c r="A123" s="10">
         <v>3</v>
       </c>
@@ -12995,8 +13479,12 @@
       <c r="L123" s="1">
         <v>0</v>
       </c>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
       <c r="O123" s="12" t="s">
         <v>1163</v>
       </c>
@@ -13029,7 +13517,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" ht="79.2">
       <c r="A124" s="10">
         <v>3</v>
       </c>
@@ -13064,8 +13552,12 @@
       <c r="L124" s="1">
         <v>0</v>
       </c>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
       <c r="O124" s="12" t="s">
         <v>1165</v>
       </c>
@@ -13095,7 +13587,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" ht="66">
       <c r="A125" s="10">
         <v>3</v>
       </c>
@@ -13130,8 +13622,12 @@
       <c r="L125" s="1">
         <v>0</v>
       </c>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>0</v>
+      </c>
       <c r="O125" s="12" t="s">
         <v>1167</v>
       </c>
@@ -13161,7 +13657,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" ht="79.2">
       <c r="A126" s="10">
         <v>3</v>
       </c>
@@ -13196,8 +13692,12 @@
       <c r="L126" s="1">
         <v>0</v>
       </c>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="1">
+        <v>0</v>
+      </c>
       <c r="O126" s="12" t="s">
         <v>1169</v>
       </c>
@@ -13227,7 +13727,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="1:27" ht="26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" ht="26.4">
       <c r="A127" s="10">
         <v>3</v>
       </c>
@@ -13260,8 +13760,12 @@
       <c r="L127" s="1">
         <v>1</v>
       </c>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>0</v>
+      </c>
       <c r="O127" s="12" t="s">
         <v>837</v>
       </c>
@@ -13294,7 +13798,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" ht="66">
       <c r="A128" s="10">
         <v>3</v>
       </c>
@@ -13327,8 +13831,12 @@
       <c r="L128" s="1">
         <v>0</v>
       </c>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0</v>
+      </c>
       <c r="O128" s="12" t="s">
         <v>837</v>
       </c>
@@ -13361,7 +13869,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" ht="66">
       <c r="A129" s="10">
         <v>3</v>
       </c>
@@ -13394,8 +13902,12 @@
       <c r="L129" s="1">
         <v>1</v>
       </c>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
+      <c r="M129" s="1">
+        <v>0</v>
+      </c>
+      <c r="N129" s="1">
+        <v>0</v>
+      </c>
       <c r="O129" s="12" t="s">
         <v>837</v>
       </c>
@@ -13428,7 +13940,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="87.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" ht="118.8">
       <c r="A130" s="10">
         <v>3</v>
       </c>
@@ -13461,8 +13973,12 @@
       <c r="L130" s="1">
         <v>0</v>
       </c>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0</v>
+      </c>
       <c r="O130" s="12" t="s">
         <v>837</v>
       </c>
@@ -13495,7 +14011,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" ht="52.8">
       <c r="A131" s="10">
         <v>3</v>
       </c>
@@ -13528,8 +14044,12 @@
       <c r="L131" s="1">
         <v>1</v>
       </c>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>0</v>
+      </c>
       <c r="O131" s="12" t="s">
         <v>837</v>
       </c>
@@ -13562,7 +14082,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" ht="52.8">
       <c r="A132" s="10">
         <v>3</v>
       </c>
@@ -13595,8 +14115,12 @@
       <c r="L132" s="1">
         <v>0</v>
       </c>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
       <c r="O132" s="12" t="s">
         <v>837</v>
       </c>
@@ -13629,7 +14153,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" ht="79.2">
       <c r="A133" s="10">
         <v>3</v>
       </c>
@@ -13662,8 +14186,12 @@
       <c r="L133" s="1">
         <v>0</v>
       </c>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
+      <c r="M133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133" s="1">
+        <v>0</v>
+      </c>
       <c r="O133" s="12" t="s">
         <v>837</v>
       </c>
@@ -13696,7 +14224,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="1:27" ht="91" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" ht="118.8">
       <c r="A134" s="10">
         <v>3</v>
       </c>
@@ -13729,8 +14257,12 @@
       <c r="L134" s="1">
         <v>1</v>
       </c>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
       <c r="O134" s="12" t="s">
         <v>837</v>
       </c>
@@ -13763,7 +14295,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="104" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" ht="105.6">
       <c r="A135" s="10">
         <v>3</v>
       </c>
@@ -13796,8 +14328,12 @@
       <c r="L135" s="1">
         <v>1</v>
       </c>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
       <c r="O135" s="12" t="s">
         <v>837</v>
       </c>
@@ -13830,7 +14366,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" ht="66">
       <c r="A136" s="10">
         <v>3</v>
       </c>
@@ -13863,8 +14399,12 @@
       <c r="L136" s="1">
         <v>0</v>
       </c>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
       <c r="O136" s="12" t="s">
         <v>837</v>
       </c>
@@ -13897,7 +14437,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" ht="91" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="105.6">
       <c r="A137" s="10">
         <v>3</v>
       </c>
@@ -13930,8 +14470,12 @@
       <c r="L137" s="1">
         <v>0</v>
       </c>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137" s="1">
+        <v>0</v>
+      </c>
       <c r="O137" s="12" t="s">
         <v>837</v>
       </c>
@@ -13964,7 +14508,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="79.2">
       <c r="A138" s="10">
         <v>3</v>
       </c>
@@ -13997,8 +14541,12 @@
       <c r="L138" s="1">
         <v>0</v>
       </c>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
+      <c r="M138" s="1">
+        <v>0</v>
+      </c>
+      <c r="N138" s="1">
+        <v>0</v>
+      </c>
       <c r="O138" s="12" t="s">
         <v>837</v>
       </c>
@@ -14031,7 +14579,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" ht="52.8">
       <c r="A139" s="10">
         <v>3</v>
       </c>
@@ -14064,8 +14612,12 @@
       <c r="L139" s="1">
         <v>1</v>
       </c>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
+      <c r="M139" s="1">
+        <v>0</v>
+      </c>
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
       <c r="O139" s="12" t="s">
         <v>1205</v>
       </c>
@@ -14098,7 +14650,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="65" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" ht="105.6">
       <c r="A140" s="10">
         <v>3</v>
       </c>
@@ -14131,8 +14683,12 @@
       <c r="L140" s="1">
         <v>1</v>
       </c>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
+      <c r="M140" s="1">
+        <v>0</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0</v>
+      </c>
       <c r="O140" s="12" t="s">
         <v>837</v>
       </c>
@@ -14165,7 +14721,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" ht="79.2">
       <c r="A141" s="10">
         <v>3</v>
       </c>
@@ -14198,8 +14754,12 @@
       <c r="L141" s="1">
         <v>1</v>
       </c>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
+      <c r="M141" s="1">
+        <v>0</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
       <c r="O141" s="12" t="s">
         <v>837</v>
       </c>
@@ -14232,7 +14792,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="1:27" ht="91" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" ht="118.8">
       <c r="A142" s="10">
         <v>3</v>
       </c>
@@ -14265,8 +14825,12 @@
       <c r="L142" s="1">
         <v>1</v>
       </c>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
       <c r="O142" s="12" t="s">
         <v>837</v>
       </c>
@@ -14299,7 +14863,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="1:27" ht="91" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" ht="118.8">
       <c r="A143" s="10">
         <v>3</v>
       </c>
@@ -14332,8 +14896,12 @@
       <c r="L143" s="1">
         <v>1</v>
       </c>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
       <c r="O143" s="12" t="s">
         <v>837</v>
       </c>
@@ -14366,7 +14934,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" ht="66">
       <c r="A144" s="10">
         <v>3</v>
       </c>
@@ -14399,8 +14967,12 @@
       <c r="L144" s="1">
         <v>1</v>
       </c>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
+      <c r="M144" s="1">
+        <v>0</v>
+      </c>
+      <c r="N144" s="1">
+        <v>0</v>
+      </c>
       <c r="O144" s="12" t="s">
         <v>837</v>
       </c>
@@ -14433,7 +15005,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" ht="79.2">
       <c r="A145" s="10">
         <v>3</v>
       </c>
@@ -14466,8 +15038,12 @@
       <c r="L145" s="1">
         <v>1</v>
       </c>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
+      <c r="M145" s="1">
+        <v>0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>0</v>
+      </c>
       <c r="O145" s="12" t="s">
         <v>837</v>
       </c>
@@ -14500,7 +15076,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" ht="66">
       <c r="A146" s="10">
         <v>3</v>
       </c>
@@ -14533,8 +15109,12 @@
       <c r="L146" s="1">
         <v>1</v>
       </c>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
+      <c r="M146" s="1">
+        <v>0</v>
+      </c>
+      <c r="N146" s="1">
+        <v>0</v>
+      </c>
       <c r="O146" s="12" t="s">
         <v>837</v>
       </c>
@@ -14567,7 +15147,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" ht="79.2">
       <c r="A147" s="10">
         <v>3</v>
       </c>
@@ -14600,8 +15180,12 @@
       <c r="L147" s="1">
         <v>1</v>
       </c>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
+      <c r="M147" s="1">
+        <v>0</v>
+      </c>
+      <c r="N147" s="1">
+        <v>0</v>
+      </c>
       <c r="O147" s="12" t="s">
         <v>837</v>
       </c>
@@ -14634,7 +15218,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" ht="52.8">
       <c r="A148" s="10">
         <v>3</v>
       </c>
@@ -14667,8 +15251,12 @@
       <c r="L148" s="1">
         <v>0</v>
       </c>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
+      <c r="M148" s="1">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>0</v>
+      </c>
       <c r="O148" s="12" t="s">
         <v>837</v>
       </c>
@@ -14701,7 +15289,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="52.8">
       <c r="A149" s="10">
         <v>3</v>
       </c>
@@ -14734,8 +15322,12 @@
       <c r="L149" s="1">
         <v>1</v>
       </c>
-      <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
+      <c r="M149" s="1">
+        <v>0</v>
+      </c>
+      <c r="N149" s="1">
+        <v>0</v>
+      </c>
       <c r="O149" s="12" t="s">
         <v>837</v>
       </c>
@@ -14768,7 +15360,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" ht="39.6">
       <c r="A150" s="10">
         <v>3</v>
       </c>
@@ -14801,8 +15393,12 @@
       <c r="L150" s="1">
         <v>1</v>
       </c>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
+      <c r="M150" s="1">
+        <v>0</v>
+      </c>
+      <c r="N150" s="1">
+        <v>0</v>
+      </c>
       <c r="O150" s="12" t="s">
         <v>1246</v>
       </c>
@@ -14835,7 +15431,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" ht="52.8">
       <c r="A151" s="10">
         <v>3</v>
       </c>
@@ -14868,8 +15464,12 @@
       <c r="L151" s="1">
         <v>1</v>
       </c>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
+      <c r="M151" s="1">
+        <v>0</v>
+      </c>
+      <c r="N151" s="1">
+        <v>0</v>
+      </c>
       <c r="O151" s="12" t="s">
         <v>1250</v>
       </c>
@@ -14902,7 +15502,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" ht="66">
       <c r="A152" s="10">
         <v>3</v>
       </c>
@@ -14935,8 +15535,12 @@
       <c r="L152" s="1">
         <v>0</v>
       </c>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
+      <c r="M152" s="1">
+        <v>0</v>
+      </c>
+      <c r="N152" s="1">
+        <v>0</v>
+      </c>
       <c r="O152" s="12" t="s">
         <v>837</v>
       </c>
@@ -14969,7 +15573,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" ht="79.2">
       <c r="A153" s="10">
         <v>3</v>
       </c>
@@ -15002,8 +15606,12 @@
       <c r="L153" s="1">
         <v>1</v>
       </c>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
+      <c r="M153" s="1">
+        <v>0</v>
+      </c>
+      <c r="N153" s="1">
+        <v>0</v>
+      </c>
       <c r="O153" s="12" t="s">
         <v>837</v>
       </c>
@@ -15036,7 +15644,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="52.8">
       <c r="A154" s="10">
         <v>3</v>
       </c>
@@ -15069,8 +15677,12 @@
       <c r="L154" s="1">
         <v>0</v>
       </c>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
+      <c r="M154" s="1">
+        <v>0</v>
+      </c>
+      <c r="N154" s="1">
+        <v>0</v>
+      </c>
       <c r="O154" s="12" t="s">
         <v>1260</v>
       </c>
@@ -15100,7 +15712,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="1:27" ht="52" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" ht="52.8">
       <c r="A155" s="10">
         <v>3</v>
       </c>
@@ -15133,8 +15745,12 @@
       <c r="L155" s="1">
         <v>0</v>
       </c>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
+      <c r="M155" s="1">
+        <v>0</v>
+      </c>
+      <c r="N155" s="1">
+        <v>0</v>
+      </c>
       <c r="O155" s="12" t="s">
         <v>1262</v>
       </c>
@@ -15164,7 +15780,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="1:27" ht="39" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" ht="39.6">
       <c r="A156" s="10">
         <v>3</v>
       </c>
@@ -15197,8 +15813,12 @@
       <c r="L156" s="1">
         <v>0</v>
       </c>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
+      <c r="M156" s="1">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1">
+        <v>0</v>
+      </c>
       <c r="O156" s="12" t="s">
         <v>1264</v>
       </c>

--- a/miniproject/template/Lectures/Lecture 3.xlsx
+++ b/miniproject/template/Lectures/Lecture 3.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279">
   <si>
     <t>Unit</t>
   </si>
@@ -1037,2110 +1037,2113 @@
     <t>What is the concept of "He flatly refused to answer the question"?</t>
   </si>
   <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>Useful Greek letters</t>
+  </si>
+  <si>
+    <t>0304036</t>
+  </si>
+  <si>
+    <t>alpha male</t>
+  </si>
+  <si>
+    <t>dominant and aggressive male</t>
+  </si>
+  <si>
+    <t>强势且好斗的男性</t>
+  </si>
+  <si>
+    <t>L20304036</t>
+  </si>
+  <si>
+    <t>What is the concept of "alpha male"?</t>
+  </si>
+  <si>
+    <t>L30304036</t>
+  </si>
+  <si>
+    <t>What is the meaning of "alpha male"?</t>
+  </si>
+  <si>
+    <t>nice and submissive male</t>
+  </si>
+  <si>
+    <t>the beginning and the end</t>
+  </si>
+  <si>
+    <t>hardworking male</t>
+  </si>
+  <si>
+    <t>L40304036</t>
+  </si>
+  <si>
+    <t>How to say "强势且好斗的男性"?</t>
+  </si>
+  <si>
+    <t>0304037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta male </t>
+  </si>
+  <si>
+    <t>善良顺从的男性</t>
+  </si>
+  <si>
+    <t>L20304037</t>
+  </si>
+  <si>
+    <t>What is the concept of "beta male "?</t>
+  </si>
+  <si>
+    <t>L30304037</t>
+  </si>
+  <si>
+    <t>What is the meaning of "beta male "?</t>
+  </si>
+  <si>
+    <t>L40304037</t>
+  </si>
+  <si>
+    <t>How to say "善良顺从的男性"?</t>
+  </si>
+  <si>
+    <t>0304038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha and omega </t>
+  </si>
+  <si>
+    <t>开始和结束</t>
+  </si>
+  <si>
+    <t>L20304038</t>
+  </si>
+  <si>
+    <t>What is the concept of "alpha and omega "?</t>
+  </si>
+  <si>
+    <t>L30304038</t>
+  </si>
+  <si>
+    <t>What is the meaning of "alpha and omega "?</t>
+  </si>
+  <si>
+    <t>L40304038</t>
+  </si>
+  <si>
+    <t>How to say "开始和结束"?</t>
+  </si>
+  <si>
+    <t>0302039</t>
+  </si>
+  <si>
+    <t>He lies for a living</t>
+  </si>
+  <si>
+    <t>He lives by telling lies</t>
+  </si>
+  <si>
+    <t>他以撒谎为生</t>
+  </si>
+  <si>
+    <t>L20302039</t>
+  </si>
+  <si>
+    <t>What is the concept of "He lies for a living"?</t>
+  </si>
+  <si>
+    <t>L40302039</t>
+  </si>
+  <si>
+    <t>How to say "他以撒谎为生"?</t>
+  </si>
+  <si>
+    <t>0302040</t>
+  </si>
+  <si>
+    <t>He was a shadow of himself</t>
+  </si>
+  <si>
+    <t>He is no longer as strong as before</t>
+  </si>
+  <si>
+    <t>他没有以前强壮</t>
+  </si>
+  <si>
+    <t>L30302040</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He was a shadow of himself"?</t>
+  </si>
+  <si>
+    <t>He is no longer as smart as before</t>
+  </si>
+  <si>
+    <t>He is no longer as aggressive as before</t>
+  </si>
+  <si>
+    <t>He is no longer as hardworking as before</t>
+  </si>
+  <si>
+    <t>L40302040</t>
+  </si>
+  <si>
+    <t>How to say "他没有以前强壮"?</t>
+  </si>
+  <si>
+    <t>0302041</t>
+  </si>
+  <si>
+    <t>insanely talented</t>
+  </si>
+  <si>
+    <t>really talented</t>
+  </si>
+  <si>
+    <t>非常有天赋</t>
+  </si>
+  <si>
+    <t>L20302041</t>
+  </si>
+  <si>
+    <t>What is the concept of "insanely talented"?</t>
+  </si>
+  <si>
+    <t>L40302041</t>
+  </si>
+  <si>
+    <t>How to say "非常有天赋"?</t>
+  </si>
+  <si>
+    <t>0302042</t>
+  </si>
+  <si>
+    <t>The whole place has gone bananas</t>
+  </si>
+  <si>
+    <t>The place has gone crazy</t>
+  </si>
+  <si>
+    <t>整个地方都疯了</t>
+  </si>
+  <si>
+    <t>L30302042</t>
+  </si>
+  <si>
+    <t>What is the meaning of "The whole place has gone bananas"?</t>
+  </si>
+  <si>
+    <t>The bananas in this place are very famous</t>
+  </si>
+  <si>
+    <t>This place is rich in bananas</t>
+  </si>
+  <si>
+    <t>There are no bananas in this place</t>
+  </si>
+  <si>
+    <t>0302043</t>
+  </si>
+  <si>
+    <t>He looked me dead in the eye</t>
+  </si>
+  <si>
+    <t>He looked me straight in the eye</t>
+  </si>
+  <si>
+    <t>他死死地盯着我的眼睛</t>
+  </si>
+  <si>
+    <t>L20302043</t>
+  </si>
+  <si>
+    <t>What is the concept of "He looked me dead in the eye"?</t>
+  </si>
+  <si>
+    <t>0302044</t>
+  </si>
+  <si>
+    <t>He is stone-deaf</t>
+  </si>
+  <si>
+    <t>He can't hear anything</t>
+  </si>
+  <si>
+    <t>他完全听不见</t>
+  </si>
+  <si>
+    <t>L30302044</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He is stone-deaf"?</t>
+  </si>
+  <si>
+    <t>He is a cold-blooded killer</t>
+  </si>
+  <si>
+    <t>He doesn't move like a stone</t>
+  </si>
+  <si>
+    <t>He is very romantic</t>
+  </si>
+  <si>
+    <t>0302045</t>
+  </si>
+  <si>
+    <t>Stone-cold killer</t>
+  </si>
+  <si>
+    <t>Cold-blooded killer</t>
+  </si>
+  <si>
+    <t>冷血杀手</t>
+  </si>
+  <si>
+    <t>L20302045</t>
+  </si>
+  <si>
+    <t>What is the concept of "Stone-cold killer"?</t>
+  </si>
+  <si>
+    <t>L40302045</t>
+  </si>
+  <si>
+    <t>How to say "冷血杀手"?</t>
+  </si>
+  <si>
+    <t>0302046</t>
+  </si>
+  <si>
+    <t>The land is bone-dry</t>
+  </si>
+  <si>
+    <t>The land is completely dry</t>
+  </si>
+  <si>
+    <t>这块土地十分干燥</t>
+  </si>
+  <si>
+    <t>L30302046</t>
+  </si>
+  <si>
+    <t>What is the meaning of "The land is bone-dry"?</t>
+  </si>
+  <si>
+    <t>This land is very humid</t>
+  </si>
+  <si>
+    <t>This land is big</t>
+  </si>
+  <si>
+    <t>This land is very fertile</t>
+  </si>
+  <si>
+    <t>L40302046</t>
+  </si>
+  <si>
+    <t>How to say "这块土地十分干燥"?</t>
+  </si>
+  <si>
+    <t>0302047</t>
+  </si>
+  <si>
+    <t>He is hopelessly romantic</t>
+  </si>
+  <si>
+    <t>他特别浪漫</t>
+  </si>
+  <si>
+    <t>L30302047</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He is hopelessly romantic"?</t>
+  </si>
+  <si>
+    <t>He is not romantic at all</t>
+  </si>
+  <si>
+    <t>He is famous</t>
+  </si>
+  <si>
+    <t>He is nameless</t>
+  </si>
+  <si>
+    <t>L40302047</t>
+  </si>
+  <si>
+    <t>How to say "他特别浪漫"?</t>
+  </si>
+  <si>
+    <t>0302048</t>
+  </si>
+  <si>
+    <t>He worships the ground she walks on</t>
+  </si>
+  <si>
+    <t>He admires her very much</t>
+  </si>
+  <si>
+    <t>他很崇拜她</t>
+  </si>
+  <si>
+    <t>L30302048</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He worships the ground she walks on"?</t>
+  </si>
+  <si>
+    <t>He loves her</t>
+  </si>
+  <si>
+    <t>He hates her</t>
+  </si>
+  <si>
+    <t>He cares about her</t>
+  </si>
+  <si>
+    <t>L40302048</t>
+  </si>
+  <si>
+    <t>How to say "他很崇拜她"?</t>
+  </si>
+  <si>
+    <t>repetition for emphasis</t>
+  </si>
+  <si>
+    <t>0302049</t>
+  </si>
+  <si>
+    <t>She was the butterfly to end all butterflies</t>
+  </si>
+  <si>
+    <t>She was the most socially charming one</t>
+  </si>
+  <si>
+    <t>她是最有魅力的那个</t>
+  </si>
+  <si>
+    <t>L30302049</t>
+  </si>
+  <si>
+    <t>What is the meaning of "She was the butterfly to end all butterflies"?</t>
+  </si>
+  <si>
+    <t>She is beautiful</t>
+  </si>
+  <si>
+    <t>She is good at dancing</t>
+  </si>
+  <si>
+    <t>She is so versatile</t>
+  </si>
+  <si>
+    <t>0302050</t>
+  </si>
+  <si>
+    <t>The policeman is squeaky-clean</t>
+  </si>
+  <si>
+    <t>The policeman is incorruptible in every way</t>
+  </si>
+  <si>
+    <t>这个警察品行很好</t>
+  </si>
+  <si>
+    <t>L30302050</t>
+  </si>
+  <si>
+    <t>What is the meaning of "The policeman is squeaky-clean"?</t>
+  </si>
+  <si>
+    <t>The policeman is cute</t>
+  </si>
+  <si>
+    <t>The policeman is smart</t>
+  </si>
+  <si>
+    <t>The policeman is hardworking</t>
+  </si>
+  <si>
+    <t>L40302050</t>
+  </si>
+  <si>
+    <t>How to say "这个警察品行很好"?</t>
+  </si>
+  <si>
+    <t>use of body parts for emphasis</t>
+  </si>
+  <si>
+    <t>0302051</t>
+  </si>
+  <si>
+    <t>He doesn't have a racist bone in his body</t>
+  </si>
+  <si>
+    <t>He doesn't have racist ideas in his mind</t>
+  </si>
+  <si>
+    <t>他脑子里没有种族主义思想</t>
+  </si>
+  <si>
+    <t>L20302051</t>
+  </si>
+  <si>
+    <t>What is the concept of "He doesn't have a racist bone in his body"?</t>
+  </si>
+  <si>
+    <t>0302052</t>
+  </si>
+  <si>
+    <t>I will fight with every bone in my body</t>
+  </si>
+  <si>
+    <t>I will strain every nerve to fight</t>
+  </si>
+  <si>
+    <t>我会竭尽全力去战斗</t>
+  </si>
+  <si>
+    <t>L30302052</t>
+  </si>
+  <si>
+    <t>What is the meaning of "I will fight with every bone in my body"?</t>
+  </si>
+  <si>
+    <t>I will overcome the pain</t>
+  </si>
+  <si>
+    <t>I will fight with myself</t>
+  </si>
+  <si>
+    <t>I want to give up treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intensification by exaggeration </t>
+  </si>
+  <si>
+    <t>0302053</t>
+  </si>
+  <si>
+    <t>He is a loser. If he opens a funeral parlor, no one will die</t>
+  </si>
+  <si>
+    <t>He is no good at anything. A total loser</t>
+  </si>
+  <si>
+    <t>他是一个失败者。如果他开一家殡仪馆，就根本没有人死</t>
+  </si>
+  <si>
+    <t>L20302053</t>
+  </si>
+  <si>
+    <t>What is the concept of "He is a loser. If he opens a funeral parlor, no one will die"?</t>
+  </si>
+  <si>
+    <t>0302054</t>
+  </si>
+  <si>
+    <t>She is the goddess. I live, I die and I live again for her singing</t>
+  </si>
+  <si>
+    <t>She is the goddesss. I love her singing so much</t>
+  </si>
+  <si>
+    <t>她就是我的女神。她的歌声让我飘飘欲仙</t>
+  </si>
+  <si>
+    <t>L20302054</t>
+  </si>
+  <si>
+    <t>What is the concept of "She is the goddess. I live, I die and I live again for her singing"?</t>
+  </si>
+  <si>
+    <t>use of extreme words for emphasis</t>
+  </si>
+  <si>
+    <t>0302055</t>
+  </si>
+  <si>
+    <t>Lebron James owns the court</t>
+  </si>
+  <si>
+    <t>Lebron James controls the basketball court</t>
+  </si>
+  <si>
+    <t>Lebron James控制整个篮球场</t>
+  </si>
+  <si>
+    <t>L20302055</t>
+  </si>
+  <si>
+    <t>What is the concept of "Lebron James owns the court"?</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>Variety</t>
+  </si>
+  <si>
+    <t>The negative</t>
+  </si>
+  <si>
+    <t>0303056</t>
+  </si>
+  <si>
+    <t>She is no spring chicken</t>
+  </si>
+  <si>
+    <t>她不年轻了</t>
+  </si>
+  <si>
+    <t>L30303056</t>
+  </si>
+  <si>
+    <t>What is the meaning of "She is no spring chicken"?</t>
+  </si>
+  <si>
+    <t>She gained weight</t>
+  </si>
+  <si>
+    <t>She lost weight</t>
+  </si>
+  <si>
+    <t>L40303056</t>
+  </si>
+  <si>
+    <t>How to say "她不年轻了"?</t>
+  </si>
+  <si>
+    <t>0303057</t>
+  </si>
+  <si>
+    <t>Lack of confidence is not something she suffers from</t>
+  </si>
+  <si>
+    <t>She never lacks confidence</t>
+  </si>
+  <si>
+    <t>她从不缺乏自信</t>
+  </si>
+  <si>
+    <t>L30303057</t>
+  </si>
+  <si>
+    <t>What is the meaning of "Lack of confidence is not something she suffers from"?</t>
+  </si>
+  <si>
+    <t>She is not confident</t>
+  </si>
+  <si>
+    <t>She is not beautiful any more</t>
+  </si>
+  <si>
+    <t>She is not young any more</t>
+  </si>
+  <si>
+    <t>0303058</t>
+  </si>
+  <si>
+    <t>This is not a decision we take lightly</t>
+  </si>
+  <si>
+    <t>This is not a decisiont we easily make</t>
+  </si>
+  <si>
+    <t>我们不是轻易作出这个决定的</t>
+  </si>
+  <si>
+    <t>L20303058</t>
+  </si>
+  <si>
+    <t>What is the concept of "This is not a decision we take lightly"?</t>
+  </si>
+  <si>
+    <t>0303059</t>
+  </si>
+  <si>
+    <t>They don't call her lazy for nothing</t>
+  </si>
+  <si>
+    <t>They don't call her lazy for no reason</t>
+  </si>
+  <si>
+    <t>他们说她懒不是没有原因的</t>
+  </si>
+  <si>
+    <t>L30303059</t>
+  </si>
+  <si>
+    <t>What is the meaning of "They don't call her lazy for nothing"?</t>
+  </si>
+  <si>
+    <t>They said she was lazy for no reason</t>
+  </si>
+  <si>
+    <t>No one said she was lazy</t>
+  </si>
+  <si>
+    <t>Everyone said she was lazy</t>
+  </si>
+  <si>
+    <t>0303060</t>
+  </si>
+  <si>
+    <t>Mr. X is not a household name. But he ought to be</t>
+  </si>
+  <si>
+    <t>Mr. X is not a famous name. But he ought to be</t>
+  </si>
+  <si>
+    <t>X先生的名字不是家喻户晓，但他应该被大家认识</t>
+  </si>
+  <si>
+    <t>L20303060</t>
+  </si>
+  <si>
+    <t>What is the concept of "Mr. X is not a household name. But he ought to be"?</t>
+  </si>
+  <si>
+    <t>0303061</t>
+  </si>
+  <si>
+    <t>The boss doesn't look kindly on her mistakes</t>
+  </si>
+  <si>
+    <t>The boss will not forgive her mistakes</t>
+  </si>
+  <si>
+    <t>老板不会原谅她的错误</t>
+  </si>
+  <si>
+    <t>L30303061</t>
+  </si>
+  <si>
+    <t>What is the meaning of "The boss doesn't look kindly on her mistakes"?</t>
+  </si>
+  <si>
+    <t>The boss will forgive her mistakes</t>
+  </si>
+  <si>
+    <t>The boss is very nice and never blames her</t>
+  </si>
+  <si>
+    <t>The boss often blames her</t>
+  </si>
+  <si>
+    <t>L40303061</t>
+  </si>
+  <si>
+    <t>How to say "老板不会原谅她的错误"?</t>
+  </si>
+  <si>
+    <t>0303062</t>
+  </si>
+  <si>
+    <t>Ivanka never worked for anybody not called Daddy</t>
+  </si>
+  <si>
+    <t>Ivanka only worked for her Daddy</t>
+  </si>
+  <si>
+    <t>Ivanka除了为她父亲工作之外，从未打过工</t>
+  </si>
+  <si>
+    <t>L30303062</t>
+  </si>
+  <si>
+    <t>What is the meaning of "Ivanka never worked for anybody not called Daddy"?</t>
+  </si>
+  <si>
+    <t>Ivanka has never called the boss Daddy</t>
+  </si>
+  <si>
+    <t>Ivanka called the boss Daddy</t>
+  </si>
+  <si>
+    <t>Ivanka wants to work for Daddy</t>
+  </si>
+  <si>
+    <t>0303063</t>
+  </si>
+  <si>
+    <t>Butter wouldn't melt in his mouth</t>
+  </si>
+  <si>
+    <t>Although he looks innocent, he is capable of doing bad things</t>
+  </si>
+  <si>
+    <t>他装得很老实</t>
+  </si>
+  <si>
+    <t>L30303063</t>
+  </si>
+  <si>
+    <t>What is the meaning of "Butter wouldn't melt in his mouth"?</t>
+  </si>
+  <si>
+    <t>He is indifferent</t>
+  </si>
+  <si>
+    <t>He feels very cold</t>
+  </si>
+  <si>
+    <t>L40303063</t>
+  </si>
+  <si>
+    <t>How to say "他装得很老实"?</t>
+  </si>
+  <si>
+    <t>0303064</t>
+  </si>
+  <si>
+    <t>I cannot stand on this stage without thanking my parents</t>
+  </si>
+  <si>
+    <t>I must thank my parents on this stage</t>
+  </si>
+  <si>
+    <t>站在台上，我必须感谢我的父母</t>
+  </si>
+  <si>
+    <t>L20303064</t>
+  </si>
+  <si>
+    <t>What is the concept of "I cannot stand on this stage without thanking my parents"?</t>
+  </si>
+  <si>
+    <t>0303065</t>
+  </si>
+  <si>
+    <t>He has the misfortune not to be born Chinese</t>
+  </si>
+  <si>
+    <t>He is unlucky not to be born Chinese</t>
+  </si>
+  <si>
+    <t>他不幸没有出生在中国</t>
+  </si>
+  <si>
+    <t>L20303065</t>
+  </si>
+  <si>
+    <t>What is the concept of "He has the misfortune not to be born Chinese"?</t>
+  </si>
+  <si>
+    <t>0303066</t>
+  </si>
+  <si>
+    <t>A billion Chinese couldn't be wrong—Chinese food is good</t>
+  </si>
+  <si>
+    <t>More than a billion Chinese love Chinese food. They must be right</t>
+  </si>
+  <si>
+    <t>那么多中国人喜欢吃中餐，肯定不会错</t>
+  </si>
+  <si>
+    <t>L20303066</t>
+  </si>
+  <si>
+    <t>What is the concept of "A billion Chinese couldn't be wrong—Chinese food is good"?</t>
+  </si>
+  <si>
+    <t>0303067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He delivered a masterclass on how not to apologize </t>
+  </si>
+  <si>
+    <t>He delivered a  masterclass on how to avoid making apology</t>
+  </si>
+  <si>
+    <t>他讲了一堂关于如何能避免道歉的大师课</t>
+  </si>
+  <si>
+    <t>L20303067</t>
+  </si>
+  <si>
+    <t>What is the concept of "He delivered a masterclass on how not to apologize "?</t>
+  </si>
+  <si>
+    <t>0303068</t>
+  </si>
+  <si>
+    <t>It won't be pretty</t>
+  </si>
+  <si>
+    <t>It will not come to a good end</t>
+  </si>
+  <si>
+    <t>它将不会有好下场</t>
+  </si>
+  <si>
+    <t>L30303068</t>
+  </si>
+  <si>
+    <t>What is the meaning of "It won't be pretty"?</t>
+  </si>
+  <si>
+    <t>It will come to a good end</t>
+  </si>
+  <si>
+    <t>It won't have a good start</t>
+  </si>
+  <si>
+    <t>It will have a good start</t>
+  </si>
+  <si>
+    <t>0303069</t>
+  </si>
+  <si>
+    <t>She was in no mood to compromise</t>
+  </si>
+  <si>
+    <t>She did not want to compromise</t>
+  </si>
+  <si>
+    <t>她没有心情去作出让步</t>
+  </si>
+  <si>
+    <t>L20303069</t>
+  </si>
+  <si>
+    <t>What is the concept of "She was in no mood to compromise"?</t>
+  </si>
+  <si>
+    <t>The negative prefix</t>
+  </si>
+  <si>
+    <t>0303070</t>
+  </si>
+  <si>
+    <t>He is unafraid</t>
+  </si>
+  <si>
+    <t>He is not afraid</t>
+  </si>
+  <si>
+    <t>他不害怕</t>
+  </si>
+  <si>
+    <t>L30303070</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He is unafraid"?</t>
+  </si>
+  <si>
+    <t>He is afraid</t>
+  </si>
+  <si>
+    <t>He is happy</t>
+  </si>
+  <si>
+    <t>He is not happy</t>
+  </si>
+  <si>
+    <t>L40303070</t>
+  </si>
+  <si>
+    <t>How to say "他不害怕"?</t>
+  </si>
+  <si>
+    <t>0303071</t>
+  </si>
+  <si>
+    <t>His contributions were largely unacknowledged</t>
+  </si>
+  <si>
+    <t>Most of his contribution did not receive the thanks that it deserved</t>
+  </si>
+  <si>
+    <t>他的贡献基本上没有得到应有的感激</t>
+  </si>
+  <si>
+    <t>L20303071</t>
+  </si>
+  <si>
+    <t>What is the concept of "His contributions were largely unacknowledged"?</t>
+  </si>
+  <si>
+    <t>0303072</t>
+  </si>
+  <si>
+    <t>His girlfriend turned up unannounced</t>
+  </si>
+  <si>
+    <t>His girlfriend didn't tell him that she would come</t>
+  </si>
+  <si>
+    <t>他的女朋友突然出现</t>
+  </si>
+  <si>
+    <t>L30303072</t>
+  </si>
+  <si>
+    <t>What is the meaning of "His girlfriend turned up unannounced"?</t>
+  </si>
+  <si>
+    <t>His girlfriend told him that she would come</t>
+  </si>
+  <si>
+    <t>The question his girlfriend asked him was not answered</t>
+  </si>
+  <si>
+    <t>The question his girlfriend asked him was answered</t>
+  </si>
+  <si>
+    <t>0303073</t>
+  </si>
+  <si>
+    <t>The questions remain unanswered</t>
+  </si>
+  <si>
+    <t>The question is not answered</t>
+  </si>
+  <si>
+    <t>问题没有得到回答</t>
+  </si>
+  <si>
+    <t>L20303073</t>
+  </si>
+  <si>
+    <t>What is the concept of "The questions remain unanswered"?</t>
+  </si>
+  <si>
+    <t>0303074</t>
+  </si>
+  <si>
+    <t>The case against the murderer is unanswerable</t>
+  </si>
+  <si>
+    <t>There is no defence for the murderer</t>
+  </si>
+  <si>
+    <t>告发凶手的证据是无可争辩的</t>
+  </si>
+  <si>
+    <t>L30303074</t>
+  </si>
+  <si>
+    <t>What is the meaning of "The case against the murderer is unanswerable"?</t>
+  </si>
+  <si>
+    <t>The murderer of this case has been found</t>
+  </si>
+  <si>
+    <t>The murderer of this case has not been found</t>
+  </si>
+  <si>
+    <t>The murderer in this case has no evidence</t>
+  </si>
+  <si>
+    <t>0303075</t>
+  </si>
+  <si>
+    <t>He is unapproachable</t>
+  </si>
+  <si>
+    <t>He is unfriendly and not easy to talk to</t>
+  </si>
+  <si>
+    <t>他很不好说话</t>
+  </si>
+  <si>
+    <t>L30303075</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He is unapproachable"?</t>
+  </si>
+  <si>
+    <t>He is friendly and easy to talk to</t>
+  </si>
+  <si>
+    <t>He is handsome and many people like him</t>
+  </si>
+  <si>
+    <t>He is tall and many people like him</t>
+  </si>
+  <si>
+    <t>L40303075</t>
+  </si>
+  <si>
+    <t>How to say "他很不好说话"?</t>
+  </si>
+  <si>
+    <t>0303076</t>
+  </si>
+  <si>
+    <t>Leung Chiu Wai is very unassuming</t>
+  </si>
+  <si>
+    <t>Leung Chiu Wai is humble and unpretentious</t>
+  </si>
+  <si>
+    <t>梁朝伟很低调</t>
+  </si>
+  <si>
+    <t>L30303076</t>
+  </si>
+  <si>
+    <t>What is the meaning of "Leung Chiu Wai is very unassuming"?</t>
+  </si>
+  <si>
+    <t>Leung Chiu Wai is single</t>
+  </si>
+  <si>
+    <t>Leung Chiu Wai is friendly and easy to talk to</t>
+  </si>
+  <si>
+    <t>Leung Chiu Wai is not afraid</t>
+  </si>
+  <si>
+    <t>0303077</t>
+  </si>
+  <si>
+    <t>She is unattached</t>
+  </si>
+  <si>
+    <t>She is single</t>
+  </si>
+  <si>
+    <t>她单身</t>
+  </si>
+  <si>
+    <t>L30303077</t>
+  </si>
+  <si>
+    <t>What is the meaning of "She is unattached"?</t>
+  </si>
+  <si>
+    <t>She is friendly and easy to talk to</t>
+  </si>
+  <si>
+    <t>She is not afraid</t>
+  </si>
+  <si>
+    <t>She is humble and unpretentious</t>
+  </si>
+  <si>
+    <t>L40303077</t>
+  </si>
+  <si>
+    <t>How to say "她单身"?</t>
+  </si>
+  <si>
+    <t>0303078</t>
+  </si>
+  <si>
+    <t>She is not spoken for</t>
+  </si>
+  <si>
+    <t>She does not have a partner or husband</t>
+  </si>
+  <si>
+    <t>她没有伴侣或丈夫</t>
+  </si>
+  <si>
+    <t>L30303078</t>
+  </si>
+  <si>
+    <t>What is the meaning of "She is not spoken for"?</t>
+  </si>
+  <si>
+    <t>0303079</t>
+  </si>
+  <si>
+    <t>He can now walk unassisted</t>
+  </si>
+  <si>
+    <t>He can now walk on his own</t>
+  </si>
+  <si>
+    <t>他现在可以独立行走了</t>
+  </si>
+  <si>
+    <t>L30303079</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He can now walk unassisted"?</t>
+  </si>
+  <si>
+    <t>He can not be defeated</t>
+  </si>
+  <si>
+    <t>He cannot walk on his own now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He does not have a perfect record </t>
+  </si>
+  <si>
+    <t>0303080</t>
+  </si>
+  <si>
+    <t>Mistakes are unavoidable</t>
+  </si>
+  <si>
+    <t>Mistakes are impossible to avoid</t>
+  </si>
+  <si>
+    <t>错误是不可避免的</t>
+  </si>
+  <si>
+    <t>L20303080</t>
+  </si>
+  <si>
+    <t>What is the concept of "Mistakes are unavoidable"?</t>
+  </si>
+  <si>
+    <t>L40303080</t>
+  </si>
+  <si>
+    <t>How to say "错误是不可避免的"?</t>
+  </si>
+  <si>
+    <t>0303081</t>
+  </si>
+  <si>
+    <t>He is unavailable for comment</t>
+  </si>
+  <si>
+    <t>He is not free to make a statement</t>
+  </si>
+  <si>
+    <t>找不到他来做评论</t>
+  </si>
+  <si>
+    <t>L30303081</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He is unavailable for comment"?</t>
+  </si>
+  <si>
+    <t>He doesn't want to comment</t>
+  </si>
+  <si>
+    <t>He is not allowed to comment</t>
+  </si>
+  <si>
+    <t>He is not qualified enough to comment</t>
+  </si>
+  <si>
+    <t>0303082</t>
+  </si>
+  <si>
+    <t>The pain was unbearable</t>
+  </si>
+  <si>
+    <t>The pain was hard to bear</t>
+  </si>
+  <si>
+    <t>疼痛难以忍受</t>
+  </si>
+  <si>
+    <t>L20303082</t>
+  </si>
+  <si>
+    <t>What is the concept of "The pain was unbearable"?</t>
+  </si>
+  <si>
+    <t>L40303082</t>
+  </si>
+  <si>
+    <t>How to say "疼痛难以忍受"?</t>
+  </si>
+  <si>
+    <t>0303083</t>
+  </si>
+  <si>
+    <t>He is unbeaten and unbeatable</t>
+  </si>
+  <si>
+    <t>He has not been defeated and is impossible to defeat</t>
+  </si>
+  <si>
+    <t>他没有败过，也不可战胜</t>
+  </si>
+  <si>
+    <t>L30303083</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He is unbeaten and unbeatable"?</t>
+  </si>
+  <si>
+    <t>He can be defeated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He has a perfect record </t>
+  </si>
+  <si>
+    <t>0303084</t>
+  </si>
+  <si>
+    <t>The food was unbelievably cheap</t>
+  </si>
+  <si>
+    <t>The food was very cheap</t>
+  </si>
+  <si>
+    <t>食物难以置信地便宜</t>
+  </si>
+  <si>
+    <t>L20303084</t>
+  </si>
+  <si>
+    <t>What is the concept of "The food was unbelievably cheap"?</t>
+  </si>
+  <si>
+    <t>0303085</t>
+  </si>
+  <si>
+    <t>He has an unblemished record</t>
+  </si>
+  <si>
+    <t>他的记录/名声很完美</t>
+  </si>
+  <si>
+    <t>L30303085</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He has an unblemished record"?</t>
+  </si>
+  <si>
+    <t>He has an imperfect record</t>
+  </si>
+  <si>
+    <t>He looks forward to a perfect record</t>
+  </si>
+  <si>
+    <t>His opponent has a perfect record</t>
+  </si>
+  <si>
+    <t>L40303085</t>
+  </si>
+  <si>
+    <t>How to say "他的记录/名声很完美"?</t>
+  </si>
+  <si>
+    <t>0303086</t>
+  </si>
+  <si>
+    <t>Her skin is unblemished</t>
+  </si>
+  <si>
+    <t>Her skin is perfectly smooth</t>
+  </si>
+  <si>
+    <t>她的皮肤没有瑕疵</t>
+  </si>
+  <si>
+    <t>L20303086</t>
+  </si>
+  <si>
+    <t>What is the concept of "Her skin is unblemished"?</t>
+  </si>
+  <si>
+    <t>0303087</t>
+  </si>
+  <si>
+    <t>He faced the challenge unblinkingly</t>
+  </si>
+  <si>
+    <t>He faced the challenge directly and bravely</t>
+  </si>
+  <si>
+    <t>他勇敢面对挑战</t>
+  </si>
+  <si>
+    <t>L30303087</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He faced the challenge unblinkingly"?</t>
+  </si>
+  <si>
+    <t>He was afraid to face the challenge</t>
+  </si>
+  <si>
+    <t>He talked to me about what he was thinking and feeling</t>
+  </si>
+  <si>
+    <t>L40303087</t>
+  </si>
+  <si>
+    <t>How to say "他勇敢面对挑战"?</t>
+  </si>
+  <si>
+    <t>0303088</t>
+  </si>
+  <si>
+    <t>Unbreakable determination</t>
+  </si>
+  <si>
+    <t>Strong determination</t>
+  </si>
+  <si>
+    <t>牢不可破的决心</t>
+  </si>
+  <si>
+    <t>L20303088</t>
+  </si>
+  <si>
+    <t>What is the concept of "Unbreakable determination"?</t>
+  </si>
+  <si>
+    <t>L40303088</t>
+  </si>
+  <si>
+    <t>How to say "牢不可破的决心"?</t>
+  </si>
+  <si>
+    <t>0303089</t>
+  </si>
+  <si>
+    <t>He unburdened himself to me</t>
+  </si>
+  <si>
+    <t>他向我吐露心声</t>
+  </si>
+  <si>
+    <t>L30303089</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He unburdened himself to me"?</t>
+  </si>
+  <si>
+    <t>He introduced himself to me</t>
+  </si>
+  <si>
+    <t>He introduced me to his friends</t>
+  </si>
+  <si>
+    <t>He was afraid to introduced himself to me</t>
+  </si>
+  <si>
+    <t>L40303089</t>
+  </si>
+  <si>
+    <t>How to say "他向我吐露心声"?</t>
+  </si>
+  <si>
+    <t>0303090</t>
+  </si>
+  <si>
+    <t>He is uncharacteristically quiet</t>
+  </si>
+  <si>
+    <t>He is quiet, which is not typical of him</t>
+  </si>
+  <si>
+    <t>他一反常态地安静</t>
+  </si>
+  <si>
+    <t>L30303090</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He is uncharacteristically quiet"?</t>
+  </si>
+  <si>
+    <t>He was fired with no mercy</t>
+  </si>
+  <si>
+    <t>L40303090</t>
+  </si>
+  <si>
+    <t>How to say "他一反常态地安静"?</t>
+  </si>
+  <si>
+    <t>0303091</t>
+  </si>
+  <si>
+    <t>The statement must not go unchallenged</t>
+  </si>
+  <si>
+    <t>This statement is open to dispute</t>
+  </si>
+  <si>
+    <t>这个报告不能毫无争议地通过</t>
+  </si>
+  <si>
+    <t>L30303091</t>
+  </si>
+  <si>
+    <t>What is the meaning of "The statement must not go unchallenged"?</t>
+  </si>
+  <si>
+    <t>Pick the less evil thing when facing two bad choices</t>
+  </si>
+  <si>
+    <t>This report can be passed without dispute</t>
+  </si>
+  <si>
+    <t>This report was undisputedly denied</t>
+  </si>
+  <si>
+    <t>0303092</t>
+  </si>
+  <si>
+    <t>He was fired unceremoniously</t>
+  </si>
+  <si>
+    <t>他被毫不留情地解雇了</t>
+  </si>
+  <si>
+    <t>L30303092</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He was fired unceremoniously"?</t>
+  </si>
+  <si>
+    <t>He doesn't want to be fired</t>
+  </si>
+  <si>
+    <t>He wants to resign voluntarily</t>
+  </si>
+  <si>
+    <t>0303093</t>
+  </si>
+  <si>
+    <t>China-US relations is now entering uncharted territory</t>
+  </si>
+  <si>
+    <t>China-US relations is now entering a situation where no one has experienced before</t>
+  </si>
+  <si>
+    <t>中美关系到了未知的领域</t>
+  </si>
+  <si>
+    <t>L20303093</t>
+  </si>
+  <si>
+    <t>What is the concept of "China-US relations is now entering uncharted territory"?</t>
+  </si>
+  <si>
+    <t>0303094</t>
+  </si>
+  <si>
+    <t>A long uncomfortable silence followed</t>
+  </si>
+  <si>
+    <t>People feel uneasy about the long silence</t>
+  </si>
+  <si>
+    <t>紧接着是长时间的令人不适的寂静</t>
+  </si>
+  <si>
+    <t>L20303094</t>
+  </si>
+  <si>
+    <t>What is the concept of "A long uncomfortable silence followed"?</t>
+  </si>
+  <si>
+    <t>The comparative</t>
+  </si>
+  <si>
+    <t>0303095</t>
+  </si>
+  <si>
+    <t>lesser of two evils</t>
+  </si>
+  <si>
+    <t>两害取其轻</t>
+  </si>
+  <si>
+    <t>L20303095</t>
+  </si>
+  <si>
+    <t>What is the concept of "lesser of two evils"?</t>
+  </si>
+  <si>
+    <t>0303096</t>
+  </si>
+  <si>
+    <t>lesser mortals</t>
+  </si>
+  <si>
+    <t>a person of ordinary ability</t>
+  </si>
+  <si>
+    <t>一般人，常人</t>
+  </si>
+  <si>
+    <t>L30303096</t>
+  </si>
+  <si>
+    <t>What is the meaning of "lesser mortals"?</t>
+  </si>
+  <si>
+    <t>one's wife or husband</t>
+  </si>
+  <si>
+    <t>a person connected by blood or marriage</t>
+  </si>
+  <si>
+    <t>a person who you know well and like, but who is not related to you</t>
+  </si>
+  <si>
+    <t>0303097</t>
+  </si>
+  <si>
+    <t>This iPad has seen better days</t>
+  </si>
+  <si>
+    <t>This ipad is not as good as before</t>
+  </si>
+  <si>
+    <t>这个平板旧了</t>
+  </si>
+  <si>
+    <t>L20303097</t>
+  </si>
+  <si>
+    <t>What is the concept of "This iPad has seen better days"?</t>
+  </si>
+  <si>
+    <t>0303098</t>
+  </si>
+  <si>
+    <t>I couldn't be less alone among my relatives</t>
+  </si>
+  <si>
+    <t>I felt really lonely with my relatives</t>
+  </si>
+  <si>
+    <t>我和我的亲戚在一起时感到不能更孤单了</t>
+  </si>
+  <si>
+    <t>L30303098</t>
+  </si>
+  <si>
+    <t>What is the meaning of "I couldn't be less alone among my relatives"?</t>
+  </si>
+  <si>
+    <t>I am not lonely anymore when I am with my relatives</t>
+  </si>
+  <si>
+    <t>When my relatives are with me, they don't feel alone anymore</t>
+  </si>
+  <si>
+    <t>When my relatives are with me, they feel lonely</t>
+  </si>
+  <si>
+    <t>0303099</t>
+  </si>
+  <si>
+    <t>The investigation ended, no closer to the truth than when it began</t>
+  </si>
+  <si>
+    <t>The investigation ended, but we still don't know much more than when it began</t>
+  </si>
+  <si>
+    <t>调查结束了，但我们所知道的并没有比调查开始时多</t>
+  </si>
+  <si>
+    <t>L20303099</t>
+  </si>
+  <si>
+    <t>What is the concept of "The investigation ended, no closer to the truth than when it began"?</t>
+  </si>
+  <si>
+    <t>0303100</t>
+  </si>
+  <si>
+    <t>holier than thou</t>
+  </si>
+  <si>
+    <t>maintaining an obnoxious air of moral superiority or condescension</t>
+  </si>
+  <si>
+    <t>假仁假义的</t>
+  </si>
+  <si>
+    <t>L20303100</t>
+  </si>
+  <si>
+    <t>What is the concept of "holier than thou"?</t>
+  </si>
+  <si>
+    <t>L40303100</t>
+  </si>
+  <si>
+    <t>How to say "假仁假义的"?</t>
+  </si>
+  <si>
+    <t>0303101</t>
+  </si>
+  <si>
+    <t>No sin is greater than the sin of inaction</t>
+  </si>
+  <si>
+    <t>The sin of inaction is the greatest sin</t>
+  </si>
+  <si>
+    <t>不行动是最大的罪过</t>
+  </si>
+  <si>
+    <t>L20303101</t>
+  </si>
+  <si>
+    <t>What is the concept of "No sin is greater than the sin of inaction"?</t>
+  </si>
+  <si>
+    <t>L40303101</t>
+  </si>
+  <si>
+    <t>How to say "不行动是最大的罪过"?</t>
+  </si>
+  <si>
+    <t>0303102</t>
+  </si>
+  <si>
+    <t>It is more than meets the eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are hidden values or facts </t>
+  </si>
+  <si>
+    <t>它有隐藏的价值或事实</t>
+  </si>
+  <si>
+    <t>L20303102</t>
+  </si>
+  <si>
+    <t>What is the concept of "It is more than meets the eye"?</t>
+  </si>
+  <si>
+    <t>0303103</t>
+  </si>
+  <si>
+    <t>btter half</t>
+  </si>
+  <si>
+    <t>配偶，另一半</t>
+  </si>
+  <si>
+    <t>L30303103</t>
+  </si>
+  <si>
+    <t>What is the meaning of "btter half"?</t>
+  </si>
+  <si>
+    <t>0303104</t>
+  </si>
+  <si>
+    <t>He left, more in sorrow than in anger</t>
+  </si>
+  <si>
+    <t>He left with more sorrow than anger</t>
+  </si>
+  <si>
+    <t>他离开了，与其说是愤怒地，不如说是悲伤地</t>
+  </si>
+  <si>
+    <t>L20303104</t>
+  </si>
+  <si>
+    <t>What is the concept of "He left, more in sorrow than in anger"?</t>
+  </si>
+  <si>
+    <t>0303105</t>
+  </si>
+  <si>
+    <t>for the greater good of the country</t>
+  </si>
+  <si>
+    <t>for the better benefits of the country</t>
+  </si>
+  <si>
+    <t>为了国家更大的利益</t>
+  </si>
+  <si>
+    <t>L20303105</t>
+  </si>
+  <si>
+    <t>What is the concept of "for the greater good of the country"?</t>
+  </si>
+  <si>
+    <t>0303106</t>
+  </si>
+  <si>
+    <t>Peace is more than the absence of war</t>
+  </si>
+  <si>
+    <t>Besides the absence of war, peace requires other things</t>
+  </si>
+  <si>
+    <t>和平不仅仅是没有战争</t>
+  </si>
+  <si>
+    <t>L20303106</t>
+  </si>
+  <si>
+    <t>What is the concept of "Peace is more than the absence of war"?</t>
+  </si>
+  <si>
+    <t>0303107</t>
+  </si>
+  <si>
+    <t>He got the better of his opponent</t>
+  </si>
+  <si>
+    <t>He beat his opponent</t>
+  </si>
+  <si>
+    <t>他战胜了对手</t>
+  </si>
+  <si>
+    <t>L30303107</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He got the better of his opponent"?</t>
+  </si>
+  <si>
+    <t>He tried to do too many things that are beyond his reach</t>
+  </si>
+  <si>
+    <t>He is not feeling his normal self</t>
+  </si>
+  <si>
+    <t>He couldn't control his anger</t>
+  </si>
+  <si>
+    <t>0303108</t>
+  </si>
+  <si>
+    <t>His anger got the better of him</t>
+  </si>
+  <si>
+    <t>他无法控制自己的怒火</t>
+  </si>
+  <si>
+    <t>L30303108</t>
+  </si>
+  <si>
+    <t>What is the meaning of "His anger got the better of him"?</t>
+  </si>
+  <si>
+    <t>0303109</t>
+  </si>
+  <si>
+    <t>Our differences are great, but our common interests are greater</t>
+  </si>
+  <si>
+    <t>Despite the existence of great differences, our common interests make us cooperate</t>
+  </si>
+  <si>
+    <t>我们的分歧很大，但我们的共同利益更大</t>
+  </si>
+  <si>
+    <t>L20303109</t>
+  </si>
+  <si>
+    <t>What is the concept of "Our differences are great, but our common interests are greater"?</t>
+  </si>
+  <si>
+    <t>The reflexive voice</t>
+  </si>
+  <si>
+    <t>0303110</t>
+  </si>
+  <si>
+    <t>I keep my politics to myself</t>
+  </si>
+  <si>
+    <t>I don't talk politics with others</t>
+  </si>
+  <si>
+    <t>我不谈政治</t>
+  </si>
+  <si>
+    <t>L20303110</t>
+  </si>
+  <si>
+    <t>What is the concept of "I keep my politics to myself"?</t>
+  </si>
+  <si>
+    <t>L40303110</t>
+  </si>
+  <si>
+    <t>How to say "我不谈政治"?</t>
+  </si>
+  <si>
+    <t>0303111</t>
+  </si>
+  <si>
+    <t>The storm invited itself in</t>
+  </si>
+  <si>
+    <t>The storm arrived even though no one wanted it</t>
+  </si>
+  <si>
+    <t>暴风雨不请自来</t>
+  </si>
+  <si>
+    <t>L20303111</t>
+  </si>
+  <si>
+    <t>What is the concept of "The storm invited itself in"?</t>
+  </si>
+  <si>
+    <t>0303112</t>
+  </si>
+  <si>
+    <t>I will see myself out</t>
+  </si>
+  <si>
+    <t>I will leave on my own</t>
+  </si>
+  <si>
+    <t>我可以自己离开</t>
+  </si>
+  <si>
+    <t>L30303112</t>
+  </si>
+  <si>
+    <t>What is the meaning of "I will see myself out"?</t>
+  </si>
+  <si>
+    <t>I will not go outside</t>
+  </si>
+  <si>
+    <t>I want to go outside</t>
+  </si>
+  <si>
+    <t>I don't want to go outside</t>
+  </si>
+  <si>
+    <t>0303113</t>
+  </si>
+  <si>
+    <t>He is not himself today</t>
+  </si>
+  <si>
+    <t>他今天不在状态</t>
+  </si>
+  <si>
+    <t>L30303113</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He is not himself today"?</t>
+  </si>
+  <si>
+    <t>0303114</t>
+  </si>
+  <si>
+    <t>The problem will work itself out</t>
+  </si>
+  <si>
+    <t>The problem will solve itself</t>
+  </si>
+  <si>
+    <t>这个问题会自行解决的</t>
+  </si>
+  <si>
+    <t>L20303114</t>
+  </si>
+  <si>
+    <t>What is the concept of "The problem will work itself out"?</t>
+  </si>
+  <si>
+    <t>0303115</t>
+  </si>
+  <si>
+    <t>The result speaks for itself</t>
+  </si>
+  <si>
+    <t>The result is so obvious that doesn't need to be explained</t>
+  </si>
+  <si>
+    <t>结果不言自明</t>
+  </si>
+  <si>
+    <t>L20303115</t>
+  </si>
+  <si>
+    <t>What is the concept of "The result speaks for itself"?</t>
+  </si>
+  <si>
+    <t>0303116</t>
+  </si>
+  <si>
+    <t>This solution is simplicity itself</t>
+  </si>
+  <si>
+    <t>The solution is so simple that it almost represents simplicity</t>
+  </si>
+  <si>
+    <t>这个解决方案非常简单，它几乎代表了简单</t>
+  </si>
+  <si>
+    <t>L20303116</t>
+  </si>
+  <si>
+    <t>What is the concept of "This solution is simplicity itself"?</t>
+  </si>
+  <si>
+    <t>0303117</t>
+  </si>
+  <si>
+    <t>He overreached himself</t>
+  </si>
+  <si>
+    <t>他试图做太多他做不到的事情</t>
+  </si>
+  <si>
+    <t>L30303117</t>
+  </si>
+  <si>
+    <t>What is the meaning of "He overreached himself"?</t>
+  </si>
+  <si>
+    <t>0303119</t>
+  </si>
+  <si>
+    <t>How do you live with yourself after betraying your principles?</t>
+  </si>
+  <si>
+    <t>How do you live with your conscience after betraying your principles?</t>
+  </si>
+  <si>
+    <t>在背叛了自己的原则之后，你如何对得住你的良心？</t>
+  </si>
+  <si>
+    <t>L20303119</t>
+  </si>
+  <si>
+    <t>What is the concept of "How do you live with yourself after betraying your principles?"</t>
+  </si>
+  <si>
+    <t>The reflexive turns intransitive verb into transitive verb</t>
+  </si>
+  <si>
+    <t>0303121</t>
+  </si>
+  <si>
+    <t>She danced herself into the hearts of the audience</t>
+  </si>
+  <si>
+    <t>She danced so well that the audience loved her</t>
+  </si>
+  <si>
+    <t>她的舞蹈跳进了观众心里</t>
+  </si>
+  <si>
+    <t>L20303121</t>
+  </si>
+  <si>
+    <t>What is the concept of "She danced herself into the hearts of the audience"?</t>
+  </si>
+  <si>
+    <t>0303122</t>
+  </si>
+  <si>
+    <t>History repeats itself</t>
+  </si>
+  <si>
+    <t>History will repeat in the fiture, so we  learn lessons from it</t>
+  </si>
+  <si>
+    <t>历史会重演所以我们可以从中学习</t>
+  </si>
+  <si>
+    <t>L20303122</t>
+  </si>
+  <si>
+    <t>What is the concept of "History repeats itself"?</t>
+  </si>
+  <si>
+    <t>0303123</t>
+  </si>
+  <si>
+    <t>The house will sell itself</t>
+  </si>
+  <si>
+    <t>The house has so much to offer that it doesn't need promotion</t>
+  </si>
+  <si>
+    <t>房子本身是最好的卖点</t>
+  </si>
+  <si>
+    <t>L20303123</t>
+  </si>
+  <si>
+    <t>What is the concept of "The house will sell itself"?</t>
+  </si>
+  <si>
+    <t>0303124</t>
+  </si>
+  <si>
+    <t>Don't take yourself too seriously</t>
+  </si>
+  <si>
+    <t>Don't think you are so important</t>
+  </si>
+  <si>
+    <t>不要把自己看得太重要</t>
+  </si>
+  <si>
+    <t>L20303124</t>
+  </si>
+  <si>
+    <t>What is the concept of "Don't take yourself too seriously"?</t>
+  </si>
+  <si>
+    <t>0303125</t>
+  </si>
+  <si>
+    <t>My mother took it upon herself to teach me</t>
+  </si>
+  <si>
+    <t>My mother took the responsibility of teaching me</t>
+  </si>
+  <si>
+    <t>我的母亲负起教导我的责任</t>
+  </si>
+  <si>
+    <t>L20303125</t>
+  </si>
+  <si>
+    <t>What is the concept of "My mother took it upon herself to teach me"?</t>
+  </si>
+  <si>
+    <t>0303126</t>
+  </si>
+  <si>
+    <t>Watercolor lends itself to reproduction</t>
+  </si>
+  <si>
+    <t>Watercolor makes it easier to reproduce the painting</t>
+  </si>
+  <si>
+    <t>水彩画使复制更简单</t>
+  </si>
+  <si>
+    <t>L20303126</t>
+  </si>
+  <si>
+    <t>What is the concept of "Watercolor lends itself to reproduction"?</t>
+  </si>
+  <si>
+    <t>0303127</t>
+  </si>
+  <si>
+    <t>The stock market lends itself to risk-taking</t>
+  </si>
+  <si>
+    <t>The stock market makes it easier for people to take risks</t>
+  </si>
+  <si>
+    <t>股票市场使人们更容易承担风险</t>
+  </si>
+  <si>
+    <t>L20303127</t>
+  </si>
+  <si>
+    <t>What is the concept of "The stock market lends itself to risk-taking"?</t>
+  </si>
+  <si>
     <t>0304</t>
-  </si>
-  <si>
-    <t>Useful Greek letters</t>
-  </si>
-  <si>
-    <t>0304036</t>
-  </si>
-  <si>
-    <t>alpha male</t>
-  </si>
-  <si>
-    <t>dominant and aggressive male</t>
-  </si>
-  <si>
-    <t>强势且好斗的男性</t>
-  </si>
-  <si>
-    <t>L20304036</t>
-  </si>
-  <si>
-    <t>What is the concept of "alpha male"?</t>
-  </si>
-  <si>
-    <t>L30304036</t>
-  </si>
-  <si>
-    <t>What is the meaning of "alpha male"?</t>
-  </si>
-  <si>
-    <t>nice and submissive male</t>
-  </si>
-  <si>
-    <t>the beginning and the end</t>
-  </si>
-  <si>
-    <t>hardworking male</t>
-  </si>
-  <si>
-    <t>L40304036</t>
-  </si>
-  <si>
-    <t>How to say "强势且好斗的男性"?</t>
-  </si>
-  <si>
-    <t>0304037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta male </t>
-  </si>
-  <si>
-    <t>善良顺从的男性</t>
-  </si>
-  <si>
-    <t>L20304037</t>
-  </si>
-  <si>
-    <t>What is the concept of "beta male "?</t>
-  </si>
-  <si>
-    <t>L30304037</t>
-  </si>
-  <si>
-    <t>What is the meaning of "beta male "?</t>
-  </si>
-  <si>
-    <t>L40304037</t>
-  </si>
-  <si>
-    <t>How to say "善良顺从的男性"?</t>
-  </si>
-  <si>
-    <t>0304038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha and omega </t>
-  </si>
-  <si>
-    <t>开始和结束</t>
-  </si>
-  <si>
-    <t>L20304038</t>
-  </si>
-  <si>
-    <t>What is the concept of "alpha and omega "?</t>
-  </si>
-  <si>
-    <t>L30304038</t>
-  </si>
-  <si>
-    <t>What is the meaning of "alpha and omega "?</t>
-  </si>
-  <si>
-    <t>L40304038</t>
-  </si>
-  <si>
-    <t>How to say "开始和结束"?</t>
-  </si>
-  <si>
-    <t>0302039</t>
-  </si>
-  <si>
-    <t>He lies for a living</t>
-  </si>
-  <si>
-    <t>He lives by telling lies</t>
-  </si>
-  <si>
-    <t>他以撒谎为生</t>
-  </si>
-  <si>
-    <t>L20302039</t>
-  </si>
-  <si>
-    <t>What is the concept of "He lies for a living"?</t>
-  </si>
-  <si>
-    <t>L40302039</t>
-  </si>
-  <si>
-    <t>How to say "他以撒谎为生"?</t>
-  </si>
-  <si>
-    <t>0302040</t>
-  </si>
-  <si>
-    <t>He was a shadow of himself</t>
-  </si>
-  <si>
-    <t>He is no longer as strong as before</t>
-  </si>
-  <si>
-    <t>他没有以前强壮</t>
-  </si>
-  <si>
-    <t>L30302040</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He was a shadow of himself"?</t>
-  </si>
-  <si>
-    <t>He is no longer as smart as before</t>
-  </si>
-  <si>
-    <t>He is no longer as aggressive as before</t>
-  </si>
-  <si>
-    <t>He is no longer as hardworking as before</t>
-  </si>
-  <si>
-    <t>L40302040</t>
-  </si>
-  <si>
-    <t>How to say "他没有以前强壮"?</t>
-  </si>
-  <si>
-    <t>0302041</t>
-  </si>
-  <si>
-    <t>insanely talented</t>
-  </si>
-  <si>
-    <t>really talented</t>
-  </si>
-  <si>
-    <t>非常有天赋</t>
-  </si>
-  <si>
-    <t>L20302041</t>
-  </si>
-  <si>
-    <t>What is the concept of "insanely talented"?</t>
-  </si>
-  <si>
-    <t>L40302041</t>
-  </si>
-  <si>
-    <t>How to say "非常有天赋"?</t>
-  </si>
-  <si>
-    <t>0302042</t>
-  </si>
-  <si>
-    <t>The whole place has gone bananas</t>
-  </si>
-  <si>
-    <t>The place has gone crazy</t>
-  </si>
-  <si>
-    <t>整个地方都疯了</t>
-  </si>
-  <si>
-    <t>L30302042</t>
-  </si>
-  <si>
-    <t>What is the meaning of "The whole place has gone bananas"?</t>
-  </si>
-  <si>
-    <t>The bananas in this place are very famous</t>
-  </si>
-  <si>
-    <t>This place is rich in bananas</t>
-  </si>
-  <si>
-    <t>There are no bananas in this place</t>
-  </si>
-  <si>
-    <t>0302043</t>
-  </si>
-  <si>
-    <t>He looked me dead in the eye</t>
-  </si>
-  <si>
-    <t>He looked me straight in the eye</t>
-  </si>
-  <si>
-    <t>他死死地盯着我的眼睛</t>
-  </si>
-  <si>
-    <t>L20302043</t>
-  </si>
-  <si>
-    <t>What is the concept of "He looked me dead in the eye"?</t>
-  </si>
-  <si>
-    <t>0302044</t>
-  </si>
-  <si>
-    <t>He is stone-deaf</t>
-  </si>
-  <si>
-    <t>He can't hear anything</t>
-  </si>
-  <si>
-    <t>他完全听不见</t>
-  </si>
-  <si>
-    <t>L30302044</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He is stone-deaf"?</t>
-  </si>
-  <si>
-    <t>He is a cold-blooded killer</t>
-  </si>
-  <si>
-    <t>He doesn't move like a stone</t>
-  </si>
-  <si>
-    <t>He is very romantic</t>
-  </si>
-  <si>
-    <t>0302045</t>
-  </si>
-  <si>
-    <t>Stone-cold killer</t>
-  </si>
-  <si>
-    <t>Cold-blooded killer</t>
-  </si>
-  <si>
-    <t>冷血杀手</t>
-  </si>
-  <si>
-    <t>L20302045</t>
-  </si>
-  <si>
-    <t>What is the concept of "Stone-cold killer"?</t>
-  </si>
-  <si>
-    <t>L40302045</t>
-  </si>
-  <si>
-    <t>How to say "冷血杀手"?</t>
-  </si>
-  <si>
-    <t>0302046</t>
-  </si>
-  <si>
-    <t>The land is bone-dry</t>
-  </si>
-  <si>
-    <t>The land is completely dry</t>
-  </si>
-  <si>
-    <t>这块土地十分干燥</t>
-  </si>
-  <si>
-    <t>L30302046</t>
-  </si>
-  <si>
-    <t>What is the meaning of "The land is bone-dry"?</t>
-  </si>
-  <si>
-    <t>This land is very humid</t>
-  </si>
-  <si>
-    <t>This land is big</t>
-  </si>
-  <si>
-    <t>This land is very fertile</t>
-  </si>
-  <si>
-    <t>L40302046</t>
-  </si>
-  <si>
-    <t>How to say "这块土地十分干燥"?</t>
-  </si>
-  <si>
-    <t>0302047</t>
-  </si>
-  <si>
-    <t>He is hopelessly romantic</t>
-  </si>
-  <si>
-    <t>他特别浪漫</t>
-  </si>
-  <si>
-    <t>L30302047</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He is hopelessly romantic"?</t>
-  </si>
-  <si>
-    <t>He is not romantic at all</t>
-  </si>
-  <si>
-    <t>He is famous</t>
-  </si>
-  <si>
-    <t>He is nameless</t>
-  </si>
-  <si>
-    <t>L40302047</t>
-  </si>
-  <si>
-    <t>How to say "他特别浪漫"?</t>
-  </si>
-  <si>
-    <t>0302048</t>
-  </si>
-  <si>
-    <t>He worships the ground she walks on</t>
-  </si>
-  <si>
-    <t>He admires her very much</t>
-  </si>
-  <si>
-    <t>他很崇拜她</t>
-  </si>
-  <si>
-    <t>L30302048</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He worships the ground she walks on"?</t>
-  </si>
-  <si>
-    <t>He loves her</t>
-  </si>
-  <si>
-    <t>He hates her</t>
-  </si>
-  <si>
-    <t>He cares about her</t>
-  </si>
-  <si>
-    <t>L40302048</t>
-  </si>
-  <si>
-    <t>How to say "他很崇拜她"?</t>
-  </si>
-  <si>
-    <t>repetition for emphasis</t>
-  </si>
-  <si>
-    <t>0302049</t>
-  </si>
-  <si>
-    <t>She was the butterfly to end all butterflies</t>
-  </si>
-  <si>
-    <t>She was the most socially charming one</t>
-  </si>
-  <si>
-    <t>她是最有魅力的那个</t>
-  </si>
-  <si>
-    <t>L30302049</t>
-  </si>
-  <si>
-    <t>What is the meaning of "She was the butterfly to end all butterflies"?</t>
-  </si>
-  <si>
-    <t>She is beautiful</t>
-  </si>
-  <si>
-    <t>She is good at dancing</t>
-  </si>
-  <si>
-    <t>She is so versatile</t>
-  </si>
-  <si>
-    <t>0302050</t>
-  </si>
-  <si>
-    <t>The policeman is squeaky-clean</t>
-  </si>
-  <si>
-    <t>The policeman is incorruptible in every way</t>
-  </si>
-  <si>
-    <t>这个警察品行很好</t>
-  </si>
-  <si>
-    <t>L30302050</t>
-  </si>
-  <si>
-    <t>What is the meaning of "The policeman is squeaky-clean"?</t>
-  </si>
-  <si>
-    <t>The policeman is cute</t>
-  </si>
-  <si>
-    <t>The policeman is smart</t>
-  </si>
-  <si>
-    <t>The policeman is hardworking</t>
-  </si>
-  <si>
-    <t>L40302050</t>
-  </si>
-  <si>
-    <t>How to say "这个警察品行很好"?</t>
-  </si>
-  <si>
-    <t>use of body parts for emphasis</t>
-  </si>
-  <si>
-    <t>0302051</t>
-  </si>
-  <si>
-    <t>He doesn't have a racist bone in his body</t>
-  </si>
-  <si>
-    <t>He doesn't have racist ideas in his mind</t>
-  </si>
-  <si>
-    <t>他脑子里没有种族主义思想</t>
-  </si>
-  <si>
-    <t>L20302051</t>
-  </si>
-  <si>
-    <t>What is the concept of "He doesn't have a racist bone in his body"?</t>
-  </si>
-  <si>
-    <t>0302052</t>
-  </si>
-  <si>
-    <t>I will fight with every bone in my body</t>
-  </si>
-  <si>
-    <t>I will strain every nerve to fight</t>
-  </si>
-  <si>
-    <t>我会竭尽全力去战斗</t>
-  </si>
-  <si>
-    <t>L30302052</t>
-  </si>
-  <si>
-    <t>What is the meaning of "I will fight with every bone in my body"?</t>
-  </si>
-  <si>
-    <t>I will overcome the pain</t>
-  </si>
-  <si>
-    <t>I will fight with myself</t>
-  </si>
-  <si>
-    <t>I want to give up treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intensification by exaggeration </t>
-  </si>
-  <si>
-    <t>0302053</t>
-  </si>
-  <si>
-    <t>He is a loser. If he opens a funeral parlor, no one will die</t>
-  </si>
-  <si>
-    <t>He is no good at anything. A total loser</t>
-  </si>
-  <si>
-    <t>他是一个失败者。如果他开一家殡仪馆，就根本没有人死</t>
-  </si>
-  <si>
-    <t>L20302053</t>
-  </si>
-  <si>
-    <t>What is the concept of "He is a loser. If he opens a funeral parlor, no one will die"?</t>
-  </si>
-  <si>
-    <t>0302054</t>
-  </si>
-  <si>
-    <t>She is the goddess. I live, I die and I live again for her singing</t>
-  </si>
-  <si>
-    <t>She is the goddesss. I love her singing so much</t>
-  </si>
-  <si>
-    <t>她就是我的女神。她的歌声让我飘飘欲仙</t>
-  </si>
-  <si>
-    <t>L20302054</t>
-  </si>
-  <si>
-    <t>What is the concept of "She is the goddess. I live, I die and I live again for her singing"?</t>
-  </si>
-  <si>
-    <t>use of extreme words for emphasis</t>
-  </si>
-  <si>
-    <t>0302055</t>
-  </si>
-  <si>
-    <t>Lebron James owns the court</t>
-  </si>
-  <si>
-    <t>Lebron James controls the basketball court</t>
-  </si>
-  <si>
-    <t>Lebron James控制整个篮球场</t>
-  </si>
-  <si>
-    <t>L20302055</t>
-  </si>
-  <si>
-    <t>What is the concept of "Lebron James owns the court"?</t>
-  </si>
-  <si>
-    <t>0303</t>
-  </si>
-  <si>
-    <t>Variety</t>
-  </si>
-  <si>
-    <t>The negative</t>
-  </si>
-  <si>
-    <t>0303056</t>
-  </si>
-  <si>
-    <t>She is no spring chicken</t>
-  </si>
-  <si>
-    <t>她不年轻了</t>
-  </si>
-  <si>
-    <t>L30303056</t>
-  </si>
-  <si>
-    <t>What is the meaning of "She is no spring chicken"?</t>
-  </si>
-  <si>
-    <t>She gained weight</t>
-  </si>
-  <si>
-    <t>She lost weight</t>
-  </si>
-  <si>
-    <t>L40303056</t>
-  </si>
-  <si>
-    <t>How to say "她不年轻了"?</t>
-  </si>
-  <si>
-    <t>0303057</t>
-  </si>
-  <si>
-    <t>Lack of confidence is not something she suffers from</t>
-  </si>
-  <si>
-    <t>She never lacks confidence</t>
-  </si>
-  <si>
-    <t>她从不缺乏自信</t>
-  </si>
-  <si>
-    <t>L30303057</t>
-  </si>
-  <si>
-    <t>What is the meaning of "Lack of confidence is not something she suffers from"?</t>
-  </si>
-  <si>
-    <t>She is not confident</t>
-  </si>
-  <si>
-    <t>She is not beautiful any more</t>
-  </si>
-  <si>
-    <t>She is not young any more</t>
-  </si>
-  <si>
-    <t>0303058</t>
-  </si>
-  <si>
-    <t>This is not a decision we take lightly</t>
-  </si>
-  <si>
-    <t>This is not a decisiont we easily make</t>
-  </si>
-  <si>
-    <t>我们不是轻易作出这个决定的</t>
-  </si>
-  <si>
-    <t>L20303058</t>
-  </si>
-  <si>
-    <t>What is the concept of "This is not a decision we take lightly"?</t>
-  </si>
-  <si>
-    <t>0303059</t>
-  </si>
-  <si>
-    <t>They don't call her lazy for nothing</t>
-  </si>
-  <si>
-    <t>They don't call her lazy for no reason</t>
-  </si>
-  <si>
-    <t>他们说她懒不是没有原因的</t>
-  </si>
-  <si>
-    <t>L30303059</t>
-  </si>
-  <si>
-    <t>What is the meaning of "They don't call her lazy for nothing"?</t>
-  </si>
-  <si>
-    <t>They said she was lazy for no reason</t>
-  </si>
-  <si>
-    <t>No one said she was lazy</t>
-  </si>
-  <si>
-    <t>Everyone said she was lazy</t>
-  </si>
-  <si>
-    <t>0303060</t>
-  </si>
-  <si>
-    <t>Mr. X is not a household name. But he ought to be</t>
-  </si>
-  <si>
-    <t>Mr. X is not a famous name. But he ought to be</t>
-  </si>
-  <si>
-    <t>X先生的名字不是家喻户晓，但他应该被大家认识</t>
-  </si>
-  <si>
-    <t>L20303060</t>
-  </si>
-  <si>
-    <t>What is the concept of "Mr. X is not a household name. But he ought to be"?</t>
-  </si>
-  <si>
-    <t>0303061</t>
-  </si>
-  <si>
-    <t>The boss doesn't look kindly on her mistakes</t>
-  </si>
-  <si>
-    <t>The boss will not forgive her mistakes</t>
-  </si>
-  <si>
-    <t>老板不会原谅她的错误</t>
-  </si>
-  <si>
-    <t>L30303061</t>
-  </si>
-  <si>
-    <t>What is the meaning of "The boss doesn't look kindly on her mistakes"?</t>
-  </si>
-  <si>
-    <t>The boss will forgive her mistakes</t>
-  </si>
-  <si>
-    <t>The boss is very nice and never blames her</t>
-  </si>
-  <si>
-    <t>The boss often blames her</t>
-  </si>
-  <si>
-    <t>L40303061</t>
-  </si>
-  <si>
-    <t>How to say "老板不会原谅她的错误"?</t>
-  </si>
-  <si>
-    <t>0303062</t>
-  </si>
-  <si>
-    <t>Ivanka never worked for anybody not called Daddy</t>
-  </si>
-  <si>
-    <t>Ivanka only worked for her Daddy</t>
-  </si>
-  <si>
-    <t>Ivanka除了为她父亲工作之外，从未打过工</t>
-  </si>
-  <si>
-    <t>L30303062</t>
-  </si>
-  <si>
-    <t>What is the meaning of "Ivanka never worked for anybody not called Daddy"?</t>
-  </si>
-  <si>
-    <t>Ivanka has never called the boss Daddy</t>
-  </si>
-  <si>
-    <t>Ivanka called the boss Daddy</t>
-  </si>
-  <si>
-    <t>Ivanka wants to work for Daddy</t>
-  </si>
-  <si>
-    <t>0303063</t>
-  </si>
-  <si>
-    <t>Butter wouldn't melt in his mouth</t>
-  </si>
-  <si>
-    <t>Although he looks innocent, he is capable of doing bad things</t>
-  </si>
-  <si>
-    <t>他装得很老实</t>
-  </si>
-  <si>
-    <t>L30303063</t>
-  </si>
-  <si>
-    <t>What is the meaning of "Butter wouldn't melt in his mouth"?</t>
-  </si>
-  <si>
-    <t>He is indifferent</t>
-  </si>
-  <si>
-    <t>He feels very cold</t>
-  </si>
-  <si>
-    <t>L40303063</t>
-  </si>
-  <si>
-    <t>How to say "他装得很老实"?</t>
-  </si>
-  <si>
-    <t>0303064</t>
-  </si>
-  <si>
-    <t>I cannot stand on this stage without thanking my parents</t>
-  </si>
-  <si>
-    <t>I must thank my parents on this stage</t>
-  </si>
-  <si>
-    <t>站在台上，我必须感谢我的父母</t>
-  </si>
-  <si>
-    <t>L20303064</t>
-  </si>
-  <si>
-    <t>What is the concept of "I cannot stand on this stage without thanking my parents"?</t>
-  </si>
-  <si>
-    <t>0303065</t>
-  </si>
-  <si>
-    <t>He has the misfortune not to be born Chinese</t>
-  </si>
-  <si>
-    <t>He is unlucky not to be born Chinese</t>
-  </si>
-  <si>
-    <t>他不幸没有出生在中国</t>
-  </si>
-  <si>
-    <t>L20303065</t>
-  </si>
-  <si>
-    <t>What is the concept of "He has the misfortune not to be born Chinese"?</t>
-  </si>
-  <si>
-    <t>0303066</t>
-  </si>
-  <si>
-    <t>A billion Chinese couldn't be wrong—Chinese food is good</t>
-  </si>
-  <si>
-    <t>More than a billion Chinese love Chinese food. They must be right</t>
-  </si>
-  <si>
-    <t>那么多中国人喜欢吃中餐，肯定不会错</t>
-  </si>
-  <si>
-    <t>L20303066</t>
-  </si>
-  <si>
-    <t>What is the concept of "A billion Chinese couldn't be wrong—Chinese food is good"?</t>
-  </si>
-  <si>
-    <t>0303067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He delivered a masterclass on how not to apologize </t>
-  </si>
-  <si>
-    <t>He delivered a  masterclass on how to avoid making apology</t>
-  </si>
-  <si>
-    <t>他讲了一堂关于如何能避免道歉的大师课</t>
-  </si>
-  <si>
-    <t>L20303067</t>
-  </si>
-  <si>
-    <t>What is the concept of "He delivered a masterclass on how not to apologize "?</t>
-  </si>
-  <si>
-    <t>0303068</t>
-  </si>
-  <si>
-    <t>It won't be pretty</t>
-  </si>
-  <si>
-    <t>It will not come to a good end</t>
-  </si>
-  <si>
-    <t>它将不会有好下场</t>
-  </si>
-  <si>
-    <t>L30303068</t>
-  </si>
-  <si>
-    <t>What is the meaning of "It won't be pretty"?</t>
-  </si>
-  <si>
-    <t>It will come to a good end</t>
-  </si>
-  <si>
-    <t>It won't have a good start</t>
-  </si>
-  <si>
-    <t>It will have a good start</t>
-  </si>
-  <si>
-    <t>0303069</t>
-  </si>
-  <si>
-    <t>She was in no mood to compromise</t>
-  </si>
-  <si>
-    <t>She did not want to compromise</t>
-  </si>
-  <si>
-    <t>她没有心情去作出让步</t>
-  </si>
-  <si>
-    <t>L20303069</t>
-  </si>
-  <si>
-    <t>What is the concept of "She was in no mood to compromise"?</t>
-  </si>
-  <si>
-    <t>The negative prefix</t>
-  </si>
-  <si>
-    <t>0303070</t>
-  </si>
-  <si>
-    <t>He is unafraid</t>
-  </si>
-  <si>
-    <t>He is not afraid</t>
-  </si>
-  <si>
-    <t>他不害怕</t>
-  </si>
-  <si>
-    <t>L30303070</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He is unafraid"?</t>
-  </si>
-  <si>
-    <t>He is afraid</t>
-  </si>
-  <si>
-    <t>He is happy</t>
-  </si>
-  <si>
-    <t>He is not happy</t>
-  </si>
-  <si>
-    <t>L40303070</t>
-  </si>
-  <si>
-    <t>How to say "他不害怕"?</t>
-  </si>
-  <si>
-    <t>0303071</t>
-  </si>
-  <si>
-    <t>His contributions were largely unacknowledged</t>
-  </si>
-  <si>
-    <t>Most of his contribution did not receive the thanks that it deserved</t>
-  </si>
-  <si>
-    <t>他的贡献基本上没有得到应有的感激</t>
-  </si>
-  <si>
-    <t>L20303071</t>
-  </si>
-  <si>
-    <t>What is the concept of "His contributions were largely unacknowledged"?</t>
-  </si>
-  <si>
-    <t>0303072</t>
-  </si>
-  <si>
-    <t>His girlfriend turned up unannounced</t>
-  </si>
-  <si>
-    <t>His girlfriend didn't tell him that she would come</t>
-  </si>
-  <si>
-    <t>他的女朋友突然出现</t>
-  </si>
-  <si>
-    <t>L30303072</t>
-  </si>
-  <si>
-    <t>What is the meaning of "His girlfriend turned up unannounced"?</t>
-  </si>
-  <si>
-    <t>His girlfriend told him that she would come</t>
-  </si>
-  <si>
-    <t>The question his girlfriend asked him was not answered</t>
-  </si>
-  <si>
-    <t>The question his girlfriend asked him was answered</t>
-  </si>
-  <si>
-    <t>0303073</t>
-  </si>
-  <si>
-    <t>The questions remain unanswered</t>
-  </si>
-  <si>
-    <t>The question is not answered</t>
-  </si>
-  <si>
-    <t>问题没有得到回答</t>
-  </si>
-  <si>
-    <t>L20303073</t>
-  </si>
-  <si>
-    <t>What is the concept of "The questions remain unanswered"?</t>
-  </si>
-  <si>
-    <t>0303074</t>
-  </si>
-  <si>
-    <t>The case against the murderer is unanswerable</t>
-  </si>
-  <si>
-    <t>There is no defence for the murderer</t>
-  </si>
-  <si>
-    <t>告发凶手的证据是无可争辩的</t>
-  </si>
-  <si>
-    <t>L30303074</t>
-  </si>
-  <si>
-    <t>What is the meaning of "The case against the murderer is unanswerable"?</t>
-  </si>
-  <si>
-    <t>The murderer of this case has been found</t>
-  </si>
-  <si>
-    <t>The murderer of this case has not been found</t>
-  </si>
-  <si>
-    <t>The murderer in this case has no evidence</t>
-  </si>
-  <si>
-    <t>0303075</t>
-  </si>
-  <si>
-    <t>He is unapproachable</t>
-  </si>
-  <si>
-    <t>He is unfriendly and not easy to talk to</t>
-  </si>
-  <si>
-    <t>他很不好说话</t>
-  </si>
-  <si>
-    <t>L30303075</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He is unapproachable"?</t>
-  </si>
-  <si>
-    <t>He is friendly and easy to talk to</t>
-  </si>
-  <si>
-    <t>He is handsome and many people like him</t>
-  </si>
-  <si>
-    <t>He is tall and many people like him</t>
-  </si>
-  <si>
-    <t>L40303075</t>
-  </si>
-  <si>
-    <t>How to say "他很不好说话"?</t>
-  </si>
-  <si>
-    <t>0303076</t>
-  </si>
-  <si>
-    <t>Leung Chiu Wai is very unassuming</t>
-  </si>
-  <si>
-    <t>Leung Chiu Wai is humble and unpretentious</t>
-  </si>
-  <si>
-    <t>梁朝伟很低调</t>
-  </si>
-  <si>
-    <t>L30303076</t>
-  </si>
-  <si>
-    <t>What is the meaning of "Leung Chiu Wai is very unassuming"?</t>
-  </si>
-  <si>
-    <t>Leung Chiu Wai is single</t>
-  </si>
-  <si>
-    <t>Leung Chiu Wai is friendly and easy to talk to</t>
-  </si>
-  <si>
-    <t>Leung Chiu Wai is not afraid</t>
-  </si>
-  <si>
-    <t>0303077</t>
-  </si>
-  <si>
-    <t>She is unattached</t>
-  </si>
-  <si>
-    <t>She is single</t>
-  </si>
-  <si>
-    <t>她单身</t>
-  </si>
-  <si>
-    <t>L30303077</t>
-  </si>
-  <si>
-    <t>What is the meaning of "She is unattached"?</t>
-  </si>
-  <si>
-    <t>She is friendly and easy to talk to</t>
-  </si>
-  <si>
-    <t>She is not afraid</t>
-  </si>
-  <si>
-    <t>She is humble and unpretentious</t>
-  </si>
-  <si>
-    <t>L40303077</t>
-  </si>
-  <si>
-    <t>How to say "她单身"?</t>
-  </si>
-  <si>
-    <t>0303078</t>
-  </si>
-  <si>
-    <t>She is not spoken for</t>
-  </si>
-  <si>
-    <t>She does not have a partner or husband</t>
-  </si>
-  <si>
-    <t>她没有伴侣或丈夫</t>
-  </si>
-  <si>
-    <t>L30303078</t>
-  </si>
-  <si>
-    <t>What is the meaning of "She is not spoken for"?</t>
-  </si>
-  <si>
-    <t>0303079</t>
-  </si>
-  <si>
-    <t>He can now walk unassisted</t>
-  </si>
-  <si>
-    <t>He can now walk on his own</t>
-  </si>
-  <si>
-    <t>他现在可以独立行走了</t>
-  </si>
-  <si>
-    <t>L30303079</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He can now walk unassisted"?</t>
-  </si>
-  <si>
-    <t>He can not be defeated</t>
-  </si>
-  <si>
-    <t>He cannot walk on his own now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He does not have a perfect record </t>
-  </si>
-  <si>
-    <t>0303080</t>
-  </si>
-  <si>
-    <t>Mistakes are unavoidable</t>
-  </si>
-  <si>
-    <t>Mistakes are impossible to avoid</t>
-  </si>
-  <si>
-    <t>错误是不可避免的</t>
-  </si>
-  <si>
-    <t>L20303080</t>
-  </si>
-  <si>
-    <t>What is the concept of "Mistakes are unavoidable"?</t>
-  </si>
-  <si>
-    <t>L40303080</t>
-  </si>
-  <si>
-    <t>How to say "错误是不可避免的"?</t>
-  </si>
-  <si>
-    <t>0303081</t>
-  </si>
-  <si>
-    <t>He is unavailable for comment</t>
-  </si>
-  <si>
-    <t>He is not free to make a statement</t>
-  </si>
-  <si>
-    <t>找不到他来做评论</t>
-  </si>
-  <si>
-    <t>L30303081</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He is unavailable for comment"?</t>
-  </si>
-  <si>
-    <t>He doesn't want to comment</t>
-  </si>
-  <si>
-    <t>He is not allowed to comment</t>
-  </si>
-  <si>
-    <t>He is not qualified enough to comment</t>
-  </si>
-  <si>
-    <t>0303082</t>
-  </si>
-  <si>
-    <t>The pain was unbearable</t>
-  </si>
-  <si>
-    <t>The pain was hard to bear</t>
-  </si>
-  <si>
-    <t>疼痛难以忍受</t>
-  </si>
-  <si>
-    <t>L20303082</t>
-  </si>
-  <si>
-    <t>What is the concept of "The pain was unbearable"?</t>
-  </si>
-  <si>
-    <t>L40303082</t>
-  </si>
-  <si>
-    <t>How to say "疼痛难以忍受"?</t>
-  </si>
-  <si>
-    <t>0303083</t>
-  </si>
-  <si>
-    <t>He is unbeaten and unbeatable</t>
-  </si>
-  <si>
-    <t>He has not been defeated and is impossible to defeat</t>
-  </si>
-  <si>
-    <t>他没有败过，也不可战胜</t>
-  </si>
-  <si>
-    <t>L30303083</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He is unbeaten and unbeatable"?</t>
-  </si>
-  <si>
-    <t>He can be defeated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He has a perfect record </t>
-  </si>
-  <si>
-    <t>0303084</t>
-  </si>
-  <si>
-    <t>The food was unbelievably cheap</t>
-  </si>
-  <si>
-    <t>The food was very cheap</t>
-  </si>
-  <si>
-    <t>食物难以置信地便宜</t>
-  </si>
-  <si>
-    <t>L20303084</t>
-  </si>
-  <si>
-    <t>What is the concept of "The food was unbelievably cheap"?</t>
-  </si>
-  <si>
-    <t>0303085</t>
-  </si>
-  <si>
-    <t>He has an unblemished record</t>
-  </si>
-  <si>
-    <t>他的记录/名声很完美</t>
-  </si>
-  <si>
-    <t>L30303085</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He has an unblemished record"?</t>
-  </si>
-  <si>
-    <t>He has an imperfect record</t>
-  </si>
-  <si>
-    <t>He looks forward to a perfect record</t>
-  </si>
-  <si>
-    <t>His opponent has a perfect record</t>
-  </si>
-  <si>
-    <t>L40303085</t>
-  </si>
-  <si>
-    <t>How to say "他的记录/名声很完美"?</t>
-  </si>
-  <si>
-    <t>0303086</t>
-  </si>
-  <si>
-    <t>Her skin is unblemished</t>
-  </si>
-  <si>
-    <t>Her skin is perfectly smooth</t>
-  </si>
-  <si>
-    <t>她的皮肤没有瑕疵</t>
-  </si>
-  <si>
-    <t>L20303086</t>
-  </si>
-  <si>
-    <t>What is the concept of "Her skin is unblemished"?</t>
-  </si>
-  <si>
-    <t>0303087</t>
-  </si>
-  <si>
-    <t>He faced the challenge unblinkingly</t>
-  </si>
-  <si>
-    <t>He faced the challenge directly and bravely</t>
-  </si>
-  <si>
-    <t>他勇敢面对挑战</t>
-  </si>
-  <si>
-    <t>L30303087</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He faced the challenge unblinkingly"?</t>
-  </si>
-  <si>
-    <t>He was afraid to face the challenge</t>
-  </si>
-  <si>
-    <t>He talked to me about what he was thinking and feeling</t>
-  </si>
-  <si>
-    <t>L40303087</t>
-  </si>
-  <si>
-    <t>How to say "他勇敢面对挑战"?</t>
-  </si>
-  <si>
-    <t>0303088</t>
-  </si>
-  <si>
-    <t>Unbreakable determination</t>
-  </si>
-  <si>
-    <t>Strong determination</t>
-  </si>
-  <si>
-    <t>牢不可破的决心</t>
-  </si>
-  <si>
-    <t>L20303088</t>
-  </si>
-  <si>
-    <t>What is the concept of "Unbreakable determination"?</t>
-  </si>
-  <si>
-    <t>L40303088</t>
-  </si>
-  <si>
-    <t>How to say "牢不可破的决心"?</t>
-  </si>
-  <si>
-    <t>0303089</t>
-  </si>
-  <si>
-    <t>He unburdened himself to me</t>
-  </si>
-  <si>
-    <t>他向我吐露心声</t>
-  </si>
-  <si>
-    <t>L30303089</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He unburdened himself to me"?</t>
-  </si>
-  <si>
-    <t>He introduced himself to me</t>
-  </si>
-  <si>
-    <t>He introduced me to his friends</t>
-  </si>
-  <si>
-    <t>He was afraid to introduced himself to me</t>
-  </si>
-  <si>
-    <t>L40303089</t>
-  </si>
-  <si>
-    <t>How to say "他向我吐露心声"?</t>
-  </si>
-  <si>
-    <t>0303090</t>
-  </si>
-  <si>
-    <t>He is uncharacteristically quiet</t>
-  </si>
-  <si>
-    <t>He is quiet, which is not typical of him</t>
-  </si>
-  <si>
-    <t>他一反常态地安静</t>
-  </si>
-  <si>
-    <t>L30303090</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He is uncharacteristically quiet"?</t>
-  </si>
-  <si>
-    <t>He was fired with no mercy</t>
-  </si>
-  <si>
-    <t>L40303090</t>
-  </si>
-  <si>
-    <t>How to say "他一反常态地安静"?</t>
-  </si>
-  <si>
-    <t>0303091</t>
-  </si>
-  <si>
-    <t>The statement must not go unchallenged</t>
-  </si>
-  <si>
-    <t>This statement is open to dispute</t>
-  </si>
-  <si>
-    <t>这个报告不能毫无争议地通过</t>
-  </si>
-  <si>
-    <t>L30303091</t>
-  </si>
-  <si>
-    <t>What is the meaning of "The statement must not go unchallenged"?</t>
-  </si>
-  <si>
-    <t>Pick the less evil thing when facing two bad choices</t>
-  </si>
-  <si>
-    <t>This report can be passed without dispute</t>
-  </si>
-  <si>
-    <t>This report was undisputedly denied</t>
-  </si>
-  <si>
-    <t>0303092</t>
-  </si>
-  <si>
-    <t>He was fired unceremoniously</t>
-  </si>
-  <si>
-    <t>他被毫不留情地解雇了</t>
-  </si>
-  <si>
-    <t>L30303092</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He was fired unceremoniously"?</t>
-  </si>
-  <si>
-    <t>He doesn't want to be fired</t>
-  </si>
-  <si>
-    <t>He wants to resign voluntarily</t>
-  </si>
-  <si>
-    <t>0303093</t>
-  </si>
-  <si>
-    <t>China-US relations is now entering uncharted territory</t>
-  </si>
-  <si>
-    <t>China-US relations is now entering a situation where no one has experienced before</t>
-  </si>
-  <si>
-    <t>中美关系到了未知的领域</t>
-  </si>
-  <si>
-    <t>L20303093</t>
-  </si>
-  <si>
-    <t>What is the concept of "China-US relations is now entering uncharted territory"?</t>
-  </si>
-  <si>
-    <t>0303094</t>
-  </si>
-  <si>
-    <t>A long uncomfortable silence followed</t>
-  </si>
-  <si>
-    <t>People feel uneasy about the long silence</t>
-  </si>
-  <si>
-    <t>紧接着是长时间的令人不适的寂静</t>
-  </si>
-  <si>
-    <t>L20303094</t>
-  </si>
-  <si>
-    <t>What is the concept of "A long uncomfortable silence followed"?</t>
-  </si>
-  <si>
-    <t>The comparative</t>
-  </si>
-  <si>
-    <t>0303095</t>
-  </si>
-  <si>
-    <t>lesser of two evils</t>
-  </si>
-  <si>
-    <t>两害取其轻</t>
-  </si>
-  <si>
-    <t>L20303095</t>
-  </si>
-  <si>
-    <t>What is the concept of "lesser of two evils"?</t>
-  </si>
-  <si>
-    <t>0303096</t>
-  </si>
-  <si>
-    <t>lesser mortals</t>
-  </si>
-  <si>
-    <t>a person of ordinary ability</t>
-  </si>
-  <si>
-    <t>一般人，常人</t>
-  </si>
-  <si>
-    <t>L30303096</t>
-  </si>
-  <si>
-    <t>What is the meaning of "lesser mortals"?</t>
-  </si>
-  <si>
-    <t>one's wife or husband</t>
-  </si>
-  <si>
-    <t>a person connected by blood or marriage</t>
-  </si>
-  <si>
-    <t>a person who you know well and like, but who is not related to you</t>
-  </si>
-  <si>
-    <t>0303097</t>
-  </si>
-  <si>
-    <t>This iPad has seen better days</t>
-  </si>
-  <si>
-    <t>This ipad is not as good as before</t>
-  </si>
-  <si>
-    <t>这个平板旧了</t>
-  </si>
-  <si>
-    <t>L20303097</t>
-  </si>
-  <si>
-    <t>What is the concept of "This iPad has seen better days"?</t>
-  </si>
-  <si>
-    <t>0303098</t>
-  </si>
-  <si>
-    <t>I couldn't be less alone among my relatives</t>
-  </si>
-  <si>
-    <t>I felt really lonely with my relatives</t>
-  </si>
-  <si>
-    <t>我和我的亲戚在一起时感到不能更孤单了</t>
-  </si>
-  <si>
-    <t>L30303098</t>
-  </si>
-  <si>
-    <t>What is the meaning of "I couldn't be less alone among my relatives"?</t>
-  </si>
-  <si>
-    <t>I am not lonely anymore when I am with my relatives</t>
-  </si>
-  <si>
-    <t>When my relatives are with me, they don't feel alone anymore</t>
-  </si>
-  <si>
-    <t>When my relatives are with me, they feel lonely</t>
-  </si>
-  <si>
-    <t>0303099</t>
-  </si>
-  <si>
-    <t>The investigation ended, no closer to the truth than when it began</t>
-  </si>
-  <si>
-    <t>The investigation ended, but we still don't know much more than when it began</t>
-  </si>
-  <si>
-    <t>调查结束了，但我们所知道的并没有比调查开始时多</t>
-  </si>
-  <si>
-    <t>L20303099</t>
-  </si>
-  <si>
-    <t>What is the concept of "The investigation ended, no closer to the truth than when it began"?</t>
-  </si>
-  <si>
-    <t>0303100</t>
-  </si>
-  <si>
-    <t>holier than thou</t>
-  </si>
-  <si>
-    <t>maintaining an obnoxious air of moral superiority or condescension</t>
-  </si>
-  <si>
-    <t>假仁假义的</t>
-  </si>
-  <si>
-    <t>L20303100</t>
-  </si>
-  <si>
-    <t>What is the concept of "holier than thou"?</t>
-  </si>
-  <si>
-    <t>L40303100</t>
-  </si>
-  <si>
-    <t>How to say "假仁假义的"?</t>
-  </si>
-  <si>
-    <t>0303101</t>
-  </si>
-  <si>
-    <t>No sin is greater than the sin of inaction</t>
-  </si>
-  <si>
-    <t>The sin of inaction is the greatest sin</t>
-  </si>
-  <si>
-    <t>不行动是最大的罪过</t>
-  </si>
-  <si>
-    <t>L20303101</t>
-  </si>
-  <si>
-    <t>What is the concept of "No sin is greater than the sin of inaction"?</t>
-  </si>
-  <si>
-    <t>L40303101</t>
-  </si>
-  <si>
-    <t>How to say "不行动是最大的罪过"?</t>
-  </si>
-  <si>
-    <t>0303102</t>
-  </si>
-  <si>
-    <t>It is more than meets the eye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are hidden values or facts </t>
-  </si>
-  <si>
-    <t>它有隐藏的价值或事实</t>
-  </si>
-  <si>
-    <t>L20303102</t>
-  </si>
-  <si>
-    <t>What is the concept of "It is more than meets the eye"?</t>
-  </si>
-  <si>
-    <t>0303103</t>
-  </si>
-  <si>
-    <t>btter half</t>
-  </si>
-  <si>
-    <t>配偶，另一半</t>
-  </si>
-  <si>
-    <t>L30303103</t>
-  </si>
-  <si>
-    <t>What is the meaning of "btter half"?</t>
-  </si>
-  <si>
-    <t>0303104</t>
-  </si>
-  <si>
-    <t>He left, more in sorrow than in anger</t>
-  </si>
-  <si>
-    <t>He left with more sorrow than anger</t>
-  </si>
-  <si>
-    <t>他离开了，与其说是愤怒地，不如说是悲伤地</t>
-  </si>
-  <si>
-    <t>L20303104</t>
-  </si>
-  <si>
-    <t>What is the concept of "He left, more in sorrow than in anger"?</t>
-  </si>
-  <si>
-    <t>0303105</t>
-  </si>
-  <si>
-    <t>for the greater good of the country</t>
-  </si>
-  <si>
-    <t>for the better benefits of the country</t>
-  </si>
-  <si>
-    <t>为了国家更大的利益</t>
-  </si>
-  <si>
-    <t>L20303105</t>
-  </si>
-  <si>
-    <t>What is the concept of "for the greater good of the country"?</t>
-  </si>
-  <si>
-    <t>0303106</t>
-  </si>
-  <si>
-    <t>Peace is more than the absence of war</t>
-  </si>
-  <si>
-    <t>Besides the absence of war, peace requires other things</t>
-  </si>
-  <si>
-    <t>和平不仅仅是没有战争</t>
-  </si>
-  <si>
-    <t>L20303106</t>
-  </si>
-  <si>
-    <t>What is the concept of "Peace is more than the absence of war"?</t>
-  </si>
-  <si>
-    <t>0303107</t>
-  </si>
-  <si>
-    <t>He got the better of his opponent</t>
-  </si>
-  <si>
-    <t>He beat his opponent</t>
-  </si>
-  <si>
-    <t>他战胜了对手</t>
-  </si>
-  <si>
-    <t>L30303107</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He got the better of his opponent"?</t>
-  </si>
-  <si>
-    <t>He tried to do too many things that are beyond his reach</t>
-  </si>
-  <si>
-    <t>He is not feeling his normal self</t>
-  </si>
-  <si>
-    <t>He couldn't control his anger</t>
-  </si>
-  <si>
-    <t>0303108</t>
-  </si>
-  <si>
-    <t>His anger got the better of him</t>
-  </si>
-  <si>
-    <t>他无法控制自己的怒火</t>
-  </si>
-  <si>
-    <t>L30303108</t>
-  </si>
-  <si>
-    <t>What is the meaning of "His anger got the better of him"?</t>
-  </si>
-  <si>
-    <t>0303109</t>
-  </si>
-  <si>
-    <t>Our differences are great, but our common interests are greater</t>
-  </si>
-  <si>
-    <t>Despite the existence of great differences, our common interests make us cooperate</t>
-  </si>
-  <si>
-    <t>我们的分歧很大，但我们的共同利益更大</t>
-  </si>
-  <si>
-    <t>L20303109</t>
-  </si>
-  <si>
-    <t>What is the concept of "Our differences are great, but our common interests are greater"?</t>
-  </si>
-  <si>
-    <t>The reflexive voice</t>
-  </si>
-  <si>
-    <t>0303110</t>
-  </si>
-  <si>
-    <t>I keep my politics to myself</t>
-  </si>
-  <si>
-    <t>I don't talk politics with others</t>
-  </si>
-  <si>
-    <t>我不谈政治</t>
-  </si>
-  <si>
-    <t>L20303110</t>
-  </si>
-  <si>
-    <t>What is the concept of "I keep my politics to myself"?</t>
-  </si>
-  <si>
-    <t>L40303110</t>
-  </si>
-  <si>
-    <t>How to say "我不谈政治"?</t>
-  </si>
-  <si>
-    <t>0303111</t>
-  </si>
-  <si>
-    <t>The storm invited itself in</t>
-  </si>
-  <si>
-    <t>The storm arrived even though no one wanted it</t>
-  </si>
-  <si>
-    <t>暴风雨不请自来</t>
-  </si>
-  <si>
-    <t>L20303111</t>
-  </si>
-  <si>
-    <t>What is the concept of "The storm invited itself in"?</t>
-  </si>
-  <si>
-    <t>0303112</t>
-  </si>
-  <si>
-    <t>I will see myself out</t>
-  </si>
-  <si>
-    <t>I will leave on my own</t>
-  </si>
-  <si>
-    <t>我可以自己离开</t>
-  </si>
-  <si>
-    <t>L30303112</t>
-  </si>
-  <si>
-    <t>What is the meaning of "I will see myself out"?</t>
-  </si>
-  <si>
-    <t>I will not go outside</t>
-  </si>
-  <si>
-    <t>I want to go outside</t>
-  </si>
-  <si>
-    <t>I don't want to go outside</t>
-  </si>
-  <si>
-    <t>0303113</t>
-  </si>
-  <si>
-    <t>He is not himself today</t>
-  </si>
-  <si>
-    <t>他今天不在状态</t>
-  </si>
-  <si>
-    <t>L30303113</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He is not himself today"?</t>
-  </si>
-  <si>
-    <t>0303114</t>
-  </si>
-  <si>
-    <t>The problem will work itself out</t>
-  </si>
-  <si>
-    <t>The problem will solve itself</t>
-  </si>
-  <si>
-    <t>这个问题会自行解决的</t>
-  </si>
-  <si>
-    <t>L20303114</t>
-  </si>
-  <si>
-    <t>What is the concept of "The problem will work itself out"?</t>
-  </si>
-  <si>
-    <t>0303115</t>
-  </si>
-  <si>
-    <t>The result speaks for itself</t>
-  </si>
-  <si>
-    <t>The result is so obvious that doesn't need to be explained</t>
-  </si>
-  <si>
-    <t>结果不言自明</t>
-  </si>
-  <si>
-    <t>L20303115</t>
-  </si>
-  <si>
-    <t>What is the concept of "The result speaks for itself"?</t>
-  </si>
-  <si>
-    <t>0303116</t>
-  </si>
-  <si>
-    <t>This solution is simplicity itself</t>
-  </si>
-  <si>
-    <t>The solution is so simple that it almost represents simplicity</t>
-  </si>
-  <si>
-    <t>这个解决方案非常简单，它几乎代表了简单</t>
-  </si>
-  <si>
-    <t>L20303116</t>
-  </si>
-  <si>
-    <t>What is the concept of "This solution is simplicity itself"?</t>
-  </si>
-  <si>
-    <t>0303117</t>
-  </si>
-  <si>
-    <t>He overreached himself</t>
-  </si>
-  <si>
-    <t>他试图做太多他做不到的事情</t>
-  </si>
-  <si>
-    <t>L30303117</t>
-  </si>
-  <si>
-    <t>What is the meaning of "He overreached himself"?</t>
-  </si>
-  <si>
-    <t>0303119</t>
-  </si>
-  <si>
-    <t>How do you live with yourself after betraying your principles?</t>
-  </si>
-  <si>
-    <t>How do you live with your conscience after betraying your principles?</t>
-  </si>
-  <si>
-    <t>在背叛了自己的原则之后，你如何对得住你的良心？</t>
-  </si>
-  <si>
-    <t>L20303119</t>
-  </si>
-  <si>
-    <t>What is the concept of "How do you live with yourself after betraying your principles?"</t>
-  </si>
-  <si>
-    <t>The reflexive turns intransitive verb into transitive verb</t>
-  </si>
-  <si>
-    <t>0303121</t>
-  </si>
-  <si>
-    <t>She danced herself into the hearts of the audience</t>
-  </si>
-  <si>
-    <t>She danced so well that the audience loved her</t>
-  </si>
-  <si>
-    <t>她的舞蹈跳进了观众心里</t>
-  </si>
-  <si>
-    <t>L20303121</t>
-  </si>
-  <si>
-    <t>What is the concept of "She danced herself into the hearts of the audience"?</t>
-  </si>
-  <si>
-    <t>0303122</t>
-  </si>
-  <si>
-    <t>History repeats itself</t>
-  </si>
-  <si>
-    <t>History will repeat in the fiture, so we  learn lessons from it</t>
-  </si>
-  <si>
-    <t>历史会重演所以我们可以从中学习</t>
-  </si>
-  <si>
-    <t>L20303122</t>
-  </si>
-  <si>
-    <t>What is the concept of "History repeats itself"?</t>
-  </si>
-  <si>
-    <t>0303123</t>
-  </si>
-  <si>
-    <t>The house will sell itself</t>
-  </si>
-  <si>
-    <t>The house has so much to offer that it doesn't need promotion</t>
-  </si>
-  <si>
-    <t>房子本身是最好的卖点</t>
-  </si>
-  <si>
-    <t>L20303123</t>
-  </si>
-  <si>
-    <t>What is the concept of "The house will sell itself"?</t>
-  </si>
-  <si>
-    <t>0303124</t>
-  </si>
-  <si>
-    <t>Don't take yourself too seriously</t>
-  </si>
-  <si>
-    <t>Don't think you are so important</t>
-  </si>
-  <si>
-    <t>不要把自己看得太重要</t>
-  </si>
-  <si>
-    <t>L20303124</t>
-  </si>
-  <si>
-    <t>What is the concept of "Don't take yourself too seriously"?</t>
-  </si>
-  <si>
-    <t>0303125</t>
-  </si>
-  <si>
-    <t>My mother took it upon herself to teach me</t>
-  </si>
-  <si>
-    <t>My mother took the responsibility of teaching me</t>
-  </si>
-  <si>
-    <t>我的母亲负起教导我的责任</t>
-  </si>
-  <si>
-    <t>L20303125</t>
-  </si>
-  <si>
-    <t>What is the concept of "My mother took it upon herself to teach me"?</t>
-  </si>
-  <si>
-    <t>0303126</t>
-  </si>
-  <si>
-    <t>Watercolor lends itself to reproduction</t>
-  </si>
-  <si>
-    <t>Watercolor makes it easier to reproduce the painting</t>
-  </si>
-  <si>
-    <t>水彩画使复制更简单</t>
-  </si>
-  <si>
-    <t>L20303126</t>
-  </si>
-  <si>
-    <t>What is the concept of "Watercolor lends itself to reproduction"?</t>
-  </si>
-  <si>
-    <t>0303127</t>
-  </si>
-  <si>
-    <t>The stock market lends itself to risk-taking</t>
-  </si>
-  <si>
-    <t>The stock market makes it easier for people to take risks</t>
-  </si>
-  <si>
-    <t>股票市场使人们更容易承担风险</t>
-  </si>
-  <si>
-    <t>L20303127</t>
-  </si>
-  <si>
-    <t>What is the concept of "The stock market lends itself to risk-taking"?</t>
   </si>
   <si>
     <t>The itch to name</t>
@@ -3869,8 +3872,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3963,14 +3966,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3992,40 +4018,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4038,38 +4035,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -4078,7 +4043,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4099,8 +4079,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4110,6 +4091,28 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4134,7 +4137,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4146,13 +4233,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4164,121 +4299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4290,25 +4311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4406,33 +4409,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4444,6 +4420,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4463,17 +4448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4485,6 +4459,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4503,153 +4497,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5050,8 +5053,8 @@
   <sheetPr/>
   <dimension ref="A1:AB156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="C150" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N156"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="11.6"/>
@@ -14149,24 +14152,24 @@
         <v>3</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="13" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="J127" s="10">
         <v>0</v>
@@ -14190,25 +14193,25 @@
         <v>29</v>
       </c>
       <c r="Q127" s="20" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="R127" s="21" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="T127" s="21" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="U127" s="21" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="V127" s="20" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="W127" s="21" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="X127" s="10"/>
       <c r="Y127" s="10"/>
@@ -14220,24 +14223,24 @@
         <v>3</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="13" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="J128" s="10">
         <v>0</v>
@@ -14261,19 +14264,19 @@
         <v>29</v>
       </c>
       <c r="Q128" s="20" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="R128" s="21" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="S128" s="10" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="T128" s="10" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="U128" s="21" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="V128" s="20" t="s">
         <v>29</v>
@@ -14291,66 +14294,66 @@
         <v>3</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J129" s="10">
+        <v>0</v>
+      </c>
+      <c r="K129" s="10">
+        <v>1</v>
+      </c>
+      <c r="L129" s="10">
+        <v>1</v>
+      </c>
+      <c r="M129" s="10">
+        <v>0</v>
+      </c>
+      <c r="N129" s="10">
+        <v>0</v>
+      </c>
+      <c r="O129" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P129" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q129" s="20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="R129" s="21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="S129" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T129" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="U129" s="21" t="s">
         <v>1059</v>
       </c>
-      <c r="G129" s="10" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I129" s="10" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J129" s="10">
-        <v>0</v>
-      </c>
-      <c r="K129" s="10">
-        <v>1</v>
-      </c>
-      <c r="L129" s="10">
-        <v>1</v>
-      </c>
-      <c r="M129" s="10">
-        <v>0</v>
-      </c>
-      <c r="N129" s="10">
-        <v>0</v>
-      </c>
-      <c r="O129" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P129" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q129" s="20" t="s">
-        <v>1062</v>
-      </c>
-      <c r="R129" s="21" t="s">
-        <v>1063</v>
-      </c>
-      <c r="S129" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="T129" s="10" t="s">
-        <v>1057</v>
-      </c>
-      <c r="U129" s="21" t="s">
-        <v>1058</v>
-      </c>
       <c r="V129" s="20" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="W129" s="21" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="X129" s="10"/>
       <c r="Y129" s="10"/>
@@ -14362,24 +14365,24 @@
         <v>3</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="13" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J130" s="10">
         <v>0</v>
@@ -14403,19 +14406,19 @@
         <v>29</v>
       </c>
       <c r="Q130" s="20" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="R130" s="21" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="S130" s="10" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="T130" s="24" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="U130" s="24" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="V130" s="20" t="s">
         <v>29</v>
@@ -14433,24 +14436,24 @@
         <v>3</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
       <c r="F131" s="13" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="J131" s="10">
         <v>0</v>
@@ -14474,25 +14477,25 @@
         <v>29</v>
       </c>
       <c r="Q131" s="20" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="R131" s="21" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="S131" s="10" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="T131" s="10" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="U131" s="10" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="V131" s="20" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="W131" s="21" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="X131" s="10"/>
       <c r="Y131" s="10"/>
@@ -14504,24 +14507,24 @@
         <v>3</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
       <c r="F132" s="13" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="J132" s="10">
         <v>0</v>
@@ -14545,19 +14548,19 @@
         <v>29</v>
       </c>
       <c r="Q132" s="20" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="R132" s="21" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="S132" s="10" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="T132" s="10" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="U132" s="21" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="V132" s="20" t="s">
         <v>29</v>
@@ -14575,24 +14578,24 @@
         <v>3</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
       <c r="F133" s="13" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="J133" s="10">
         <v>0</v>
@@ -14616,19 +14619,19 @@
         <v>29</v>
       </c>
       <c r="Q133" s="20" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="R133" s="21" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="S133" s="10" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="T133" s="10" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="U133" s="10" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="V133" s="20" t="s">
         <v>29</v>
@@ -14646,66 +14649,66 @@
         <v>3</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J134" s="10">
+        <v>0</v>
+      </c>
+      <c r="K134" s="10">
+        <v>1</v>
+      </c>
+      <c r="L134" s="10">
+        <v>1</v>
+      </c>
+      <c r="M134" s="10">
+        <v>0</v>
+      </c>
+      <c r="N134" s="10">
+        <v>0</v>
+      </c>
+      <c r="O134" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P134" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q134" s="20" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R134" s="21" t="s">
+        <v>1106</v>
+      </c>
+      <c r="S134" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="T134" s="10" t="s">
         <v>1101</v>
       </c>
-      <c r="G134" s="10" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I134" s="10" t="s">
-        <v>1103</v>
-      </c>
-      <c r="J134" s="10">
-        <v>0</v>
-      </c>
-      <c r="K134" s="10">
-        <v>1</v>
-      </c>
-      <c r="L134" s="10">
-        <v>1</v>
-      </c>
-      <c r="M134" s="10">
-        <v>0</v>
-      </c>
-      <c r="N134" s="10">
-        <v>0</v>
-      </c>
-      <c r="O134" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P134" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q134" s="20" t="s">
-        <v>1104</v>
-      </c>
-      <c r="R134" s="21" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S134" s="10" t="s">
-        <v>1089</v>
-      </c>
-      <c r="T134" s="10" t="s">
-        <v>1100</v>
-      </c>
       <c r="U134" s="10" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="V134" s="20" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="W134" s="21" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="X134" s="10"/>
       <c r="Y134" s="10"/>
@@ -14717,66 +14720,66 @@
         <v>3</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="13" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H135" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J135" s="10">
+        <v>0</v>
+      </c>
+      <c r="K135" s="10">
+        <v>1</v>
+      </c>
+      <c r="L135" s="10">
+        <v>1</v>
+      </c>
+      <c r="M135" s="10">
+        <v>0</v>
+      </c>
+      <c r="N135" s="10">
+        <v>0</v>
+      </c>
+      <c r="O135" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P135" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q135" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R135" s="21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="S135" s="10" t="s">
         <v>1100</v>
       </c>
-      <c r="I135" s="10" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J135" s="10">
-        <v>0</v>
-      </c>
-      <c r="K135" s="10">
-        <v>1</v>
-      </c>
-      <c r="L135" s="10">
-        <v>1</v>
-      </c>
-      <c r="M135" s="10">
-        <v>0</v>
-      </c>
-      <c r="N135" s="10">
-        <v>0</v>
-      </c>
-      <c r="O135" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P135" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q135" s="20" t="s">
-        <v>1112</v>
-      </c>
-      <c r="R135" s="21" t="s">
-        <v>1113</v>
-      </c>
-      <c r="S135" s="10" t="s">
-        <v>1099</v>
-      </c>
       <c r="T135" s="10" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="U135" s="10" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="V135" s="20" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="W135" s="21" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="X135" s="10"/>
       <c r="Y135" s="10"/>
@@ -14788,24 +14791,24 @@
         <v>3</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="13" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J136" s="10">
         <v>0</v>
@@ -14829,19 +14832,19 @@
         <v>29</v>
       </c>
       <c r="Q136" s="20" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="R136" s="21" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="S136" s="10" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="T136" s="10" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="U136" s="10" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="V136" s="20" t="s">
         <v>29</v>
@@ -14859,24 +14862,24 @@
         <v>3</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
       <c r="F137" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="J137" s="10">
         <v>0</v>
@@ -14900,19 +14903,19 @@
         <v>29</v>
       </c>
       <c r="Q137" s="20" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="R137" s="21" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="S137" s="10" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="T137" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="U137" s="10" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="V137" s="20" t="s">
         <v>29</v>
@@ -14930,24 +14933,24 @@
         <v>3</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="13" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="J138" s="10">
         <v>0</v>
@@ -14971,19 +14974,19 @@
         <v>29</v>
       </c>
       <c r="Q138" s="20" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="R138" s="21" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="S138" s="10" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="T138" s="10" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="U138" s="10" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="V138" s="20" t="s">
         <v>29</v>
@@ -15001,24 +15004,24 @@
         <v>3</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="13" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="J139" s="10">
         <v>1</v>
@@ -15036,10 +15039,10 @@
         <v>0</v>
       </c>
       <c r="O139" s="20" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="P139" s="21" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="Q139" s="20" t="s">
         <v>29</v>
@@ -15057,10 +15060,10 @@
         <v>29</v>
       </c>
       <c r="V139" s="20" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="W139" s="21" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="X139" s="10"/>
       <c r="Y139" s="10"/>
@@ -15072,24 +15075,24 @@
         <v>3</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="13" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="J140" s="10">
         <v>0</v>
@@ -15113,25 +15116,25 @@
         <v>29</v>
       </c>
       <c r="Q140" s="20" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="R140" s="21" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="S140" s="10" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="T140" s="10" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="U140" s="10" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="V140" s="20" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="W140" s="21" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="X140" s="10"/>
       <c r="Y140" s="10"/>
@@ -15143,24 +15146,24 @@
         <v>3</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="13" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="J141" s="10">
         <v>0</v>
@@ -15184,25 +15187,25 @@
         <v>29</v>
       </c>
       <c r="Q141" s="20" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="R141" s="21" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="S141" s="10" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="T141" s="10" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="U141" s="10" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="V141" s="20" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="W141" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="X141" s="10"/>
       <c r="Y141" s="10"/>
@@ -15214,24 +15217,24 @@
         <v>3</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="13" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="J142" s="10">
         <v>0</v>
@@ -15255,25 +15258,25 @@
         <v>29</v>
       </c>
       <c r="Q142" s="20" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="R142" s="21" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="S142" s="10" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="T142" s="10" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="U142" s="10" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="V142" s="20" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="W142" s="21" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="X142" s="10"/>
       <c r="Y142" s="10"/>
@@ -15285,24 +15288,24 @@
         <v>3</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="13" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="J143" s="10">
         <v>0</v>
@@ -15326,25 +15329,25 @@
         <v>29</v>
       </c>
       <c r="Q143" s="20" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="R143" s="21" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="S143" s="10" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="T143" s="10" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="U143" s="10" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="V143" s="20" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="W143" s="21" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="X143" s="10"/>
       <c r="Y143" s="10"/>
@@ -15356,66 +15359,66 @@
         <v>3</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="13" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H144" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J144" s="10">
+        <v>0</v>
+      </c>
+      <c r="K144" s="10">
+        <v>1</v>
+      </c>
+      <c r="L144" s="10">
+        <v>1</v>
+      </c>
+      <c r="M144" s="10">
+        <v>0</v>
+      </c>
+      <c r="N144" s="10">
+        <v>0</v>
+      </c>
+      <c r="O144" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P144" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q144" s="20" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R144" s="21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="S144" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T144" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="U144" s="21" t="s">
         <v>1124</v>
       </c>
-      <c r="I144" s="10" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J144" s="10">
-        <v>0</v>
-      </c>
-      <c r="K144" s="10">
-        <v>1</v>
-      </c>
-      <c r="L144" s="10">
-        <v>1</v>
-      </c>
-      <c r="M144" s="10">
-        <v>0</v>
-      </c>
-      <c r="N144" s="10">
-        <v>0</v>
-      </c>
-      <c r="O144" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="P144" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q144" s="20" t="s">
-        <v>1178</v>
-      </c>
-      <c r="R144" s="21" t="s">
-        <v>1179</v>
-      </c>
-      <c r="S144" s="10" t="s">
-        <v>1165</v>
-      </c>
-      <c r="T144" s="10" t="s">
-        <v>1115</v>
-      </c>
-      <c r="U144" s="21" t="s">
-        <v>1123</v>
-      </c>
       <c r="V144" s="20" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="W144" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="X144" s="10"/>
       <c r="Y144" s="10"/>
@@ -15427,24 +15430,24 @@
         <v>3</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
       <c r="F145" s="13" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="J145" s="10">
         <v>0</v>
@@ -15468,25 +15471,25 @@
         <v>29</v>
       </c>
       <c r="Q145" s="20" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="R145" s="21" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="S145" s="10" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="T145" s="10" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="U145" s="10" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="V145" s="20" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="W145" s="21" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="X145" s="10"/>
       <c r="Y145" s="10"/>
@@ -15498,24 +15501,24 @@
         <v>3</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="13" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="J146" s="10">
         <v>0</v>
@@ -15539,25 +15542,25 @@
         <v>29</v>
       </c>
       <c r="Q146" s="20" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="R146" s="21" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="S146" s="10" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="T146" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U146" s="21" t="s">
         <v>1124</v>
       </c>
-      <c r="U146" s="21" t="s">
-        <v>1123</v>
-      </c>
       <c r="V146" s="20" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="W146" s="21" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="X146" s="10"/>
       <c r="Y146" s="10"/>
@@ -15569,24 +15572,24 @@
         <v>3</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="13" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="J147" s="10">
         <v>0</v>
@@ -15610,25 +15613,25 @@
         <v>29</v>
       </c>
       <c r="Q147" s="20" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="R147" s="21" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="S147" s="10" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="T147" s="10" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="U147" s="10" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="V147" s="20" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="W147" s="21" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="X147" s="10"/>
       <c r="Y147" s="10"/>
@@ -15640,24 +15643,24 @@
         <v>3</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="13" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="J148" s="10">
         <v>0</v>
@@ -15681,19 +15684,19 @@
         <v>29</v>
       </c>
       <c r="Q148" s="20" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="R148" s="21" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="S148" s="10" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="T148" s="10" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="U148" s="10" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="V148" s="20" t="s">
         <v>29</v>
@@ -15711,24 +15714,24 @@
         <v>3</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="13" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="J149" s="10">
         <v>0</v>
@@ -15752,25 +15755,25 @@
         <v>29</v>
       </c>
       <c r="Q149" s="20" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="R149" s="21" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="S149" s="10" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="T149" s="10" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="U149" s="10" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="V149" s="20" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="W149" s="21" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="X149" s="10"/>
       <c r="Y149" s="10"/>
@@ -15782,24 +15785,24 @@
         <v>3</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
       <c r="F150" s="13" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="J150" s="10">
         <v>1</v>
@@ -15817,10 +15820,10 @@
         <v>0</v>
       </c>
       <c r="O150" s="20" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="P150" s="21" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="Q150" s="20" t="s">
         <v>29</v>
@@ -15838,10 +15841,10 @@
         <v>29</v>
       </c>
       <c r="V150" s="20" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="W150" s="21" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="X150" s="10"/>
       <c r="Y150" s="10"/>
@@ -15853,24 +15856,24 @@
         <v>3</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="13" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="J151" s="10">
         <v>1</v>
@@ -15888,10 +15891,10 @@
         <v>0</v>
       </c>
       <c r="O151" s="20" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="P151" s="21" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="Q151" s="20" t="s">
         <v>29</v>
@@ -15909,10 +15912,10 @@
         <v>29</v>
       </c>
       <c r="V151" s="20" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="W151" s="21" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="X151" s="10"/>
       <c r="Y151" s="10"/>
@@ -15924,24 +15927,24 @@
         <v>3</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="13" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="J152" s="10">
         <v>0</v>
@@ -15965,19 +15968,19 @@
         <v>29</v>
       </c>
       <c r="Q152" s="20" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="R152" s="21" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="S152" s="10" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="T152" s="10" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="U152" s="21" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="V152" s="20" t="s">
         <v>29</v>
@@ -15995,24 +15998,24 @@
         <v>3</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="13" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J153" s="10">
         <v>0</v>
@@ -16036,25 +16039,25 @@
         <v>29</v>
       </c>
       <c r="Q153" s="20" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="R153" s="21" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="S153" s="10" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="T153" s="21" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="U153" s="21" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="V153" s="20" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="W153" s="21" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="X153" s="10"/>
       <c r="Y153" s="10"/>
@@ -16066,24 +16069,24 @@
         <v>3</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="13" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H154" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="J154" s="10">
         <v>1</v>
@@ -16101,10 +16104,10 @@
         <v>0</v>
       </c>
       <c r="O154" s="20" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="P154" s="21" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="Q154" s="20" t="s">
         <v>29</v>
@@ -16134,24 +16137,24 @@
         <v>3</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
       <c r="F155" s="13" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="J155" s="10">
         <v>1</v>
@@ -16169,10 +16172,10 @@
         <v>0</v>
       </c>
       <c r="O155" s="20" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="P155" s="21" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="Q155" s="20" t="s">
         <v>29</v>
@@ -16202,24 +16205,24 @@
         <v>3</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>336</v>
+        <v>1038</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="13" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J156" s="10">
         <v>1</v>
@@ -16237,10 +16240,10 @@
         <v>0</v>
       </c>
       <c r="O156" s="20" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="P156" s="21" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="Q156" s="20" t="s">
         <v>29</v>

--- a/miniproject/template/Lectures/Lecture 3.xlsx
+++ b/miniproject/template/Lectures/Lecture 3.xlsx
@@ -5053,8 +5053,8 @@
   <sheetPr/>
   <dimension ref="A1:AB156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="11.6"/>
@@ -9364,7 +9364,9 @@
       <c r="B61" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="10" t="s">
+        <v>518</v>
+      </c>
       <c r="D61" s="10" t="s">
         <v>519</v>
       </c>
